--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0314C3-7113-4922-BBC3-565A26829AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4179E0F9-9EFE-4486-885E-A1C7EC6F07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -606,9 +606,6 @@
   </si>
   <si>
     <t>Q4'24</t>
-  </si>
-  <si>
-    <t>Category 12</t>
   </si>
   <si>
     <t>Category 13</t>
@@ -635,7 +632,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -732,7 +729,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -744,60 +741,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -1033,6 +977,42 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C2741A59-6701-4298-9EC9-1F20087F5405}"/>
@@ -1058,7 +1038,7 @@
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
@@ -1113,7 +1093,7 @@
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
@@ -1195,46 +1175,45 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:Q72" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" tableBorderDxfId="18">
-  <autoFilter ref="B2:Q72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:P72" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B2:P72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:P72">
     <sortCondition descending="1" ref="F2:F72"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="13">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="10">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="9">
       <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="8">
       <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{0A01BCD7-4554-41D2-91D0-2ACFC3DE6D6B}" name="Category 12" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1504,30 +1483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q72"/>
+  <dimension ref="B2:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.1328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.59765625" style="2" customWidth="1"/>
     <col min="6" max="9" width="13.59765625" style="3" customWidth="1"/>
     <col min="10" max="12" width="13.59765625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.9296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
     <col min="15" max="15" width="26.59765625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.86328125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.06640625" style="2"/>
+    <col min="16" max="16" width="3.265625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.73046875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="13.9">
+    <row r="2" spans="2:16" ht="13.9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,11 +1552,8 @@
       <c r="P2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="3" spans="2:16" ht="13.9" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1609,12 +1585,11 @@
       <c r="O3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P3" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="13.9" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1647,9 +1622,8 @@
         <v>90</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="5" spans="2:16" ht="13.9" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>165</v>
       </c>
@@ -1682,11 +1656,10 @@
         <v>117</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="6" spans="2:16" ht="13.9" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>70</v>
@@ -1717,9 +1690,8 @@
         <v>140</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="7" spans="2:16" ht="13.9" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>150</v>
       </c>
@@ -1751,12 +1723,11 @@
       <c r="O7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P7" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="13.9" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>153</v>
       </c>
@@ -1789,9 +1760,8 @@
         <v>102</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="9" spans="2:16" ht="13.9" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>178</v>
       </c>
@@ -1823,12 +1793,11 @@
       <c r="O9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P9" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="13.9" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1860,12 +1829,11 @@
       <c r="O10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P10" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="13.9" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>149</v>
       </c>
@@ -1898,9 +1866,8 @@
         <v>97</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="12" spans="2:16" ht="13.9" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
@@ -1933,9 +1900,8 @@
         <v>92</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="13" spans="2:16" ht="13.9" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>158</v>
       </c>
@@ -1968,9 +1934,8 @@
         <v>106</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="14" spans="2:16" ht="13.9" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>161</v>
       </c>
@@ -2003,9 +1968,8 @@
         <v>114</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="15" spans="2:16" ht="13.9" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>175</v>
       </c>
@@ -2038,9 +2002,8 @@
         <v>133</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="16" spans="2:16" ht="13.9" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2073,11 +2036,10 @@
         <v>88</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="17" spans="2:16" ht="13.9" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -2108,9 +2070,8 @@
         <v>109</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="18" spans="2:16" ht="13.9" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>155</v>
       </c>
@@ -2143,9 +2104,8 @@
         <v>103</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="19" spans="2:16" ht="13.9" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>163</v>
       </c>
@@ -2178,9 +2138,8 @@
         <v>116</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="20" spans="2:16" ht="13.9" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2213,9 +2172,8 @@
         <v>130</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="21" spans="2:16" ht="13.9" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2248,9 +2206,8 @@
         <v>135</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="22" spans="2:16" ht="13.9" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>170</v>
       </c>
@@ -2283,11 +2240,10 @@
         <v>125</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="23" spans="2:16" ht="13.9" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -2318,9 +2274,8 @@
         <v>143</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="24" spans="2:16" ht="13.9" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2353,9 +2308,8 @@
         <v>131</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="25" spans="2:16" ht="13.9" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>154</v>
       </c>
@@ -2388,11 +2342,10 @@
         <v>101</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="26" spans="2:16" ht="13.9" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -2423,9 +2376,8 @@
         <v>142</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="27" spans="2:16" ht="13.9" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2458,9 +2410,8 @@
         <v>111</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="28" spans="2:16" ht="13.9" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
@@ -2493,9 +2444,8 @@
         <v>74</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="29" spans="2:16" ht="13.9" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
@@ -2538,9 +2488,8 @@
         <v>129</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="30" spans="2:16" ht="13.9" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2573,9 +2522,8 @@
         <v>96</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="31" spans="2:16" ht="13.9" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>160</v>
       </c>
@@ -2608,9 +2556,8 @@
         <v>110</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="32" spans="2:16" ht="13.9" customHeight="1">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2643,9 +2590,8 @@
         <v>132</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="33" spans="2:16" ht="13.9" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>159</v>
       </c>
@@ -2678,9 +2624,8 @@
         <v>108</v>
       </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="34" spans="2:16" ht="13.9" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>167</v>
       </c>
@@ -2713,9 +2658,8 @@
         <v>121</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="35" spans="2:16" ht="13.9" customHeight="1">
       <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2748,9 +2692,8 @@
         <v>113</v>
       </c>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="36" spans="2:16" ht="13.9" customHeight="1">
       <c r="B36" s="2" t="s">
         <v>180</v>
       </c>
@@ -2783,9 +2726,8 @@
         <v>139</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="37" spans="2:16" ht="13.9" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>162</v>
       </c>
@@ -2818,9 +2760,8 @@
         <v>115</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="38" spans="2:16" ht="13.9" customHeight="1">
       <c r="B38" s="2" t="s">
         <v>164</v>
       </c>
@@ -2853,9 +2794,8 @@
         <v>75</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="39" spans="2:16" ht="13.9" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>182</v>
       </c>
@@ -2888,9 +2828,8 @@
         <v>81</v>
       </c>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="40" spans="2:16" ht="13.9" customHeight="1">
       <c r="B40" s="2" t="s">
         <v>166</v>
       </c>
@@ -2923,9 +2862,8 @@
         <v>120</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="41" spans="2:16" ht="13.9" customHeight="1">
       <c r="B41" s="2" t="s">
         <v>171</v>
       </c>
@@ -2958,9 +2896,8 @@
         <v>126</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="42" spans="2:16" ht="13.9" customHeight="1">
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
@@ -2993,9 +2930,8 @@
         <v>95</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="43" spans="2:16" ht="13.9" customHeight="1">
       <c r="B43" s="2" t="s">
         <v>152</v>
       </c>
@@ -3028,9 +2964,8 @@
         <v>100</v>
       </c>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="44" spans="2:16" ht="13.9" customHeight="1">
       <c r="B44" s="2" t="s">
         <v>181</v>
       </c>
@@ -3063,9 +2998,8 @@
         <v>80</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="45" spans="2:16" ht="13.9" customHeight="1">
       <c r="B45" s="2" t="s">
         <v>169</v>
       </c>
@@ -3098,9 +3032,8 @@
         <v>124</v>
       </c>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="46" spans="2:16" ht="13.9" customHeight="1">
       <c r="B46" s="2" t="s">
         <v>157</v>
       </c>
@@ -3133,9 +3066,8 @@
         <v>105</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="47" spans="2:16" ht="13.9" customHeight="1">
       <c r="B47" s="2" t="s">
         <v>156</v>
       </c>
@@ -3168,9 +3100,8 @@
         <v>104</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="48" spans="2:16" ht="13.9" customHeight="1">
       <c r="B48" s="2" t="s">
         <v>173</v>
       </c>
@@ -3203,9 +3134,8 @@
         <v>128</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="49" spans="2:16" ht="13.9" customHeight="1">
       <c r="B49" s="2" t="s">
         <v>172</v>
       </c>
@@ -3238,9 +3168,8 @@
         <v>127</v>
       </c>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="50" spans="2:16" ht="13.9" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
@@ -3273,9 +3202,8 @@
         <v>93</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="51" spans="2:16" ht="13.9" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>179</v>
       </c>
@@ -3308,9 +3236,8 @@
         <v>138</v>
       </c>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="52" spans="2:16" ht="13.9" customHeight="1">
       <c r="B52" s="2" t="s">
         <v>151</v>
       </c>
@@ -3343,9 +3270,8 @@
         <v>99</v>
       </c>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="53" spans="2:16" ht="13.9" customHeight="1">
       <c r="B53" s="2" t="s">
         <v>177</v>
       </c>
@@ -3378,9 +3304,8 @@
         <v>136</v>
       </c>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="54" spans="2:16" ht="13.9" customHeight="1">
       <c r="B54" s="2" t="s">
         <v>176</v>
       </c>
@@ -3413,9 +3338,8 @@
         <v>134</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="55" spans="2:16" ht="13.9" customHeight="1">
       <c r="B55" s="2" t="s">
         <v>168</v>
       </c>
@@ -3448,9 +3372,8 @@
         <v>122</v>
       </c>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="56" spans="2:16" ht="13.9" customHeight="1">
       <c r="B56" s="2" t="s">
         <v>86</v>
       </c>
@@ -3483,9 +3406,8 @@
         <v>94</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="57" spans="2:16" ht="13.9" customHeight="1">
       <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
@@ -3518,9 +3440,8 @@
         <v>119</v>
       </c>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="2:17" ht="13.9" customHeight="1">
+    </row>
+    <row r="58" spans="2:16" ht="13.9" customHeight="1">
       <c r="B58" s="2" t="s">
         <v>184</v>
       </c>
@@ -3541,11 +3462,11 @@
       <c r="N58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q58" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P58" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="13.9" customHeight="1">
       <c r="B59" s="2" t="s">
         <v>183</v>
       </c>
@@ -3566,31 +3487,31 @@
       <c r="N59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q59" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" ht="13.9" customHeight="1">
+      <c r="P59" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="13.9" customHeight="1">
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:17" ht="13.9" customHeight="1">
+    <row r="61" spans="2:16" ht="13.9" customHeight="1">
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:17" ht="13.9" customHeight="1">
+    <row r="62" spans="2:16" ht="13.9" customHeight="1">
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:17" ht="13.9" customHeight="1">
+    <row r="63" spans="2:16" ht="13.9" customHeight="1">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:17" ht="13.9" customHeight="1">
+    <row r="64" spans="2:16" ht="13.9" customHeight="1">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4179E0F9-9EFE-4486-885E-A1C7EC6F07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBDBD2F-46E2-4FA5-BF8C-865FD6367169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibre"/>
     </font>
   </fonts>
@@ -730,10 +730,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1486,27 +1486,27 @@
   <dimension ref="B2:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="13.59765625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="13.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="13.5703125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="13.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.59765625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.265625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.73046875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.9">
+    <row r="2" spans="2:16" ht="15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="3">
@@ -1585,7 +1585,7 @@
       <c r="O3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="B7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3">
@@ -1723,7 +1723,7 @@
       <c r="O7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       <c r="B9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3">
@@ -1793,7 +1793,7 @@
       <c r="O9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3">
@@ -1829,7 +1829,7 @@
       <c r="O10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="3">
@@ -2527,7 +2527,7 @@
       <c r="B31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3">
@@ -3462,7 +3462,7 @@
       <c r="N58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="P58" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       <c r="B59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="4"/>
@@ -3487,7 +3487,7 @@
       <c r="N59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="P59" s="7" t="s">
         <v>194</v>
       </c>
     </row>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBDBD2F-46E2-4FA5-BF8C-865FD6367169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48EB5-869B-4DAE-98D6-D73900066F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,6 +734,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -742,6 +743,60 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -802,60 +857,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1175,11 +1176,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="58">
+          <cell r="BD58">
+            <v>10083.520278603864</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="BD60">
+            <v>261.02822362422637</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1208,13 +1220,19 @@
     <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="1">
+      <calculatedColumnFormula>[1]Model!$BD$58</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="2">
+      <calculatedColumnFormula>[1]Model!$BD$60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1485,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1578,7 +1596,7 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="9"/>
       <c r="N3" s="2" t="s">
         <v>89</v>
       </c>
@@ -1614,7 +1632,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="9"/>
       <c r="N4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1648,7 +1666,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="9"/>
       <c r="N5" s="2" t="s">
         <v>91</v>
       </c>
@@ -1682,7 +1700,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="9"/>
       <c r="N6" s="2" t="s">
         <v>87</v>
       </c>
@@ -1716,7 +1734,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="9"/>
       <c r="N7" s="2" t="s">
         <v>91</v>
       </c>
@@ -1752,7 +1770,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="9"/>
       <c r="N8" s="2" t="s">
         <v>87</v>
       </c>
@@ -1786,7 +1804,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="9"/>
       <c r="N9" s="2" t="s">
         <v>91</v>
       </c>
@@ -1822,7 +1840,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="9"/>
       <c r="N10" s="2" t="s">
         <v>91</v>
       </c>
@@ -1858,7 +1876,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="9"/>
       <c r="N11" s="2" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +1910,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="9"/>
       <c r="N12" s="2" t="s">
         <v>91</v>
       </c>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="9"/>
       <c r="N13" s="2" t="s">
         <v>91</v>
       </c>
@@ -1960,7 +1978,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="9"/>
       <c r="N14" s="2" t="s">
         <v>107</v>
       </c>
@@ -1994,7 +2012,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="9"/>
       <c r="N15" s="2" t="s">
         <v>91</v>
       </c>
@@ -2028,7 +2046,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="9"/>
       <c r="N16" s="2" t="s">
         <v>87</v>
       </c>
@@ -2062,7 +2080,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="9"/>
       <c r="N17" s="2" t="s">
         <v>91</v>
       </c>
@@ -2096,7 +2114,7 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="9"/>
       <c r="N18" s="2" t="s">
         <v>91</v>
       </c>
@@ -2130,7 +2148,7 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="9"/>
       <c r="N19" s="2" t="s">
         <v>112</v>
       </c>
@@ -2164,7 +2182,7 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="9"/>
       <c r="N20" s="2" t="s">
         <v>91</v>
       </c>
@@ -2198,7 +2216,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="9"/>
       <c r="N21" s="2" t="s">
         <v>112</v>
       </c>
@@ -2232,7 +2250,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="9"/>
       <c r="N22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2266,7 +2284,7 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="9"/>
       <c r="N23" s="2" t="s">
         <v>91</v>
       </c>
@@ -2300,7 +2318,7 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="9"/>
       <c r="N24" s="2" t="s">
         <v>91</v>
       </c>
@@ -2334,7 +2352,7 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="9"/>
       <c r="N25" s="2" t="s">
         <v>91</v>
       </c>
@@ -2368,7 +2386,7 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="9"/>
       <c r="N26" s="2" t="s">
         <v>141</v>
       </c>
@@ -2402,7 +2420,7 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="9"/>
       <c r="N27" s="2" t="s">
         <v>107</v>
       </c>
@@ -2436,7 +2454,7 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="9"/>
       <c r="N28" s="2" t="s">
         <v>91</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="3">
-        <v>285</v>
+        <v>276.58999999999997</v>
       </c>
       <c r="E29" s="4">
         <f>'[1]Main | Overview'!$C$6</f>
@@ -2461,7 +2479,7 @@
       </c>
       <c r="F29" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>10978.2</v>
+        <v>10654.246800000001</v>
       </c>
       <c r="G29" s="6">
         <f>'[1]Main | Overview'!$C$8</f>
@@ -2473,11 +2491,20 @@
       </c>
       <c r="I29" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10687.2</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+        <v>10363.246800000001</v>
+      </c>
+      <c r="J29" s="3">
+        <f>[1]Model!$BD$58</f>
+        <v>10083.520278603864</v>
+      </c>
+      <c r="K29" s="3">
+        <f>[1]Model!$BD$60</f>
+        <v>261.02822362422637</v>
+      </c>
+      <c r="L29" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-5.6262975435748208E-2</v>
+      </c>
       <c r="M29" s="2" t="s">
         <v>188</v>
       </c>
@@ -2514,7 +2541,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="9"/>
       <c r="N30" s="2" t="s">
         <v>87</v>
       </c>
@@ -2548,7 +2575,7 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="9"/>
       <c r="N31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2582,7 +2609,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="9"/>
       <c r="N32" s="2" t="s">
         <v>107</v>
       </c>
@@ -2616,7 +2643,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="9"/>
       <c r="N33" s="2" t="s">
         <v>107</v>
       </c>
@@ -2650,7 +2677,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="9"/>
       <c r="N34" s="2" t="s">
         <v>91</v>
       </c>
@@ -2684,7 +2711,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="9"/>
       <c r="N35" s="2" t="s">
         <v>112</v>
       </c>
@@ -2718,7 +2745,7 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="9"/>
       <c r="N36" s="2" t="s">
         <v>91</v>
       </c>
@@ -2752,7 +2779,7 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="9"/>
       <c r="N37" s="2" t="s">
         <v>91</v>
       </c>
@@ -2786,7 +2813,7 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="9"/>
       <c r="N38" s="2" t="s">
         <v>91</v>
       </c>
@@ -2820,7 +2847,7 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="9"/>
       <c r="N39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2854,7 +2881,7 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="9"/>
       <c r="N40" s="2" t="s">
         <v>91</v>
       </c>
@@ -2888,7 +2915,7 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="9"/>
       <c r="N41" s="2" t="s">
         <v>91</v>
       </c>
@@ -2922,7 +2949,7 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="9"/>
       <c r="N42" s="2" t="s">
         <v>91</v>
       </c>
@@ -2956,7 +2983,7 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="9"/>
       <c r="N43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2990,7 +3017,7 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="9"/>
       <c r="N44" s="2" t="s">
         <v>91</v>
       </c>
@@ -3024,7 +3051,7 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="9"/>
       <c r="N45" s="2" t="s">
         <v>123</v>
       </c>
@@ -3058,7 +3085,7 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="9"/>
       <c r="N46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3092,7 +3119,7 @@
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="9"/>
       <c r="N47" s="2" t="s">
         <v>91</v>
       </c>
@@ -3126,7 +3153,7 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="9"/>
       <c r="N48" s="2" t="s">
         <v>91</v>
       </c>
@@ -3160,7 +3187,7 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="9"/>
       <c r="N49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3194,7 +3221,7 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="9"/>
       <c r="N50" s="2" t="s">
         <v>91</v>
       </c>
@@ -3228,7 +3255,7 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="9"/>
       <c r="N51" s="2" t="s">
         <v>91</v>
       </c>
@@ -3262,7 +3289,7 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="9"/>
       <c r="N52" s="2" t="s">
         <v>91</v>
       </c>
@@ -3296,7 +3323,7 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="L53" s="9"/>
       <c r="N53" s="2" t="s">
         <v>91</v>
       </c>
@@ -3330,7 +3357,7 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="9"/>
       <c r="N54" s="2" t="s">
         <v>91</v>
       </c>
@@ -3364,7 +3391,7 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="9"/>
       <c r="N55" s="2" t="s">
         <v>91</v>
       </c>
@@ -3398,7 +3425,7 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="9"/>
       <c r="N56" s="2" t="s">
         <v>91</v>
       </c>
@@ -3432,7 +3459,7 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="9"/>
       <c r="N57" s="2" t="s">
         <v>91</v>
       </c>
@@ -3459,6 +3486,9 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="9"/>
       <c r="N58" s="2" t="s">
         <v>147</v>
       </c>
@@ -3484,6 +3514,9 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>0</v>
       </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="9"/>
       <c r="N59" s="2" t="s">
         <v>146</v>
       </c>
@@ -3494,67 +3527,67 @@
     <row r="60" spans="2:16" ht="13.9" customHeight="1">
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="2:16" ht="13.9" customHeight="1">
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="2:16" ht="13.9" customHeight="1">
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" spans="2:16" ht="13.9" customHeight="1">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="9"/>
     </row>
     <row r="64" spans="2:16" ht="13.9" customHeight="1">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="10:12" ht="13.9" customHeight="1">
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" spans="10:12" ht="13.9" customHeight="1">
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" spans="10:12" ht="13.9" customHeight="1">
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" spans="10:12" ht="13.9" customHeight="1">
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="9"/>
     </row>
     <row r="69" spans="10:12" ht="13.9" customHeight="1">
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="10:12" ht="13.9" customHeight="1">
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="9"/>
     </row>
     <row r="71" spans="10:12" ht="13.9" customHeight="1">
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="9"/>
     </row>
     <row r="72" spans="10:12" ht="13.9" customHeight="1">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="L72" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48EB5-869B-4DAE-98D6-D73900066F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE326F-3545-4E7D-80E5-5CE01323E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Useful Resources" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -482,9 +485,6 @@
     <t>&lt;- Acquired by Stryker (Feb. 20, 2025) for ~$4.9 billion (an incredible 60% premium on the trading market valuation)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;- Acquired by Boston Scientific (Sep. 17, 2024) for ~$1.16 billion </t>
-  </si>
-  <si>
     <t>AtriCure</t>
   </si>
   <si>
@@ -624,17 +624,48 @@
   </si>
   <si>
     <t>Primary Penumbra Competitor</t>
+  </si>
+  <si>
+    <t>Axonics</t>
+  </si>
+  <si>
+    <t>AXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;- Acquired by Boston Scientific (Sep. 17, 2024) for ~$1.18 billion </t>
+  </si>
+  <si>
+    <t>&lt;- Acquired by Boston Scientific (Nov. 15, 2024) for ~$3.7 billion (10 months after proposal)</t>
+  </si>
+  <si>
+    <t>FDA MedIcal Devices Frontpage</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/medical-devices</t>
+  </si>
+  <si>
+    <t>Pubmed</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/37084878/</t>
+  </si>
+  <si>
+    <t>MedTech Equity News</t>
+  </si>
+  <si>
+    <t>https://www.medtechdive.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +717,12 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibre"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -722,7 +759,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,6 +772,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1035,13 +1074,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1090,13 +1129,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1114,6 +1153,61 @@
         <a:xfrm>
           <a:off x="263338" y="8258735"/>
           <a:ext cx="17481177" cy="5603"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F01CC2-CC0C-4876-BF24-63A20564B193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224118" y="10040472"/>
+          <a:ext cx="14573250" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1179,12 +1273,12 @@
       <sheetData sheetId="1">
         <row r="58">
           <cell r="BD58">
-            <v>10083.520278603864</v>
+            <v>10864.619256230168</v>
           </cell>
         </row>
         <row r="60">
           <cell r="BD60">
-            <v>261.02822362422637</v>
+            <v>281.24823339969367</v>
           </cell>
         </row>
       </sheetData>
@@ -1192,6 +1286,81 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main | Overview"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Markets | Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Clinical Trial Channel"/>
+      <sheetName val="M&amp;A Scope"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>1475.778</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>2502</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>10885</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="53">
+          <cell r="BZ53">
+            <v>9389.9160729781779</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="BZ55">
+            <v>68.364878580110513</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1503,17 +1672,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="9" width="13.5703125" style="3" customWidth="1"/>
     <col min="10" max="12" width="13.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
@@ -1550,13 +1719,13 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
@@ -1568,7 +1737,7 @@
         <v>145</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="13.9" customHeight="1">
@@ -1604,7 +1773,7 @@
         <v>118</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="13.9" customHeight="1">
@@ -1643,7 +1812,7 @@
     </row>
     <row r="5" spans="2:16" ht="13.9" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1677,7 +1846,7 @@
     </row>
     <row r="6" spans="2:16" ht="13.9" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>70</v>
@@ -1711,26 +1880,33 @@
     </row>
     <row r="7" spans="2:16" ht="13.9" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>97.78</v>
+        <v>96.2</v>
       </c>
       <c r="E7" s="4">
-        <v>1456</v>
+        <f>'[2]Main | Overview'!$C$5</f>
+        <v>1475.778</v>
       </c>
       <c r="F7" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>142367.67999999999</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>141969.84359999999</v>
+      </c>
+      <c r="G7" s="6">
+        <f>'[2]Main | Overview'!$C$7</f>
+        <v>2502</v>
+      </c>
+      <c r="H7" s="6">
+        <f>'[2]Main | Overview'!$C$8</f>
+        <v>10885</v>
+      </c>
       <c r="I7" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>142367.67999999999</v>
+        <v>150352.84359999999</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1742,12 +1918,12 @@
         <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="13.9" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -1781,7 +1957,7 @@
     </row>
     <row r="9" spans="2:16" ht="13.9" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -1812,7 +1988,7 @@
         <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="13.9" customHeight="1">
@@ -1848,12 +2024,12 @@
         <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="13.9" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1921,7 +2097,7 @@
     </row>
     <row r="13" spans="2:16" ht="13.9" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -1955,7 +2131,7 @@
     </row>
     <row r="14" spans="2:16" ht="13.9" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1989,7 +2165,7 @@
     </row>
     <row r="15" spans="2:16" ht="13.9" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2057,7 +2233,7 @@
     </row>
     <row r="17" spans="2:16" ht="13.9" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -2091,7 +2267,7 @@
     </row>
     <row r="18" spans="2:16" ht="13.9" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2125,7 +2301,7 @@
     </row>
     <row r="19" spans="2:16" ht="13.9" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>58</v>
@@ -2227,7 +2403,7 @@
     </row>
     <row r="22" spans="2:16" ht="13.9" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -2261,7 +2437,7 @@
     </row>
     <row r="23" spans="2:16" ht="13.9" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -2329,7 +2505,7 @@
     </row>
     <row r="25" spans="2:16" ht="13.9" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -2363,7 +2539,7 @@
     </row>
     <row r="26" spans="2:16" ht="13.9" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -2465,7 +2641,7 @@
     </row>
     <row r="29" spans="2:16" ht="13.9" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>65</v>
@@ -2495,18 +2671,18 @@
       </c>
       <c r="J29" s="3">
         <f>[1]Model!$BD$58</f>
-        <v>10083.520278603864</v>
+        <v>10864.619256230168</v>
       </c>
       <c r="K29" s="3">
         <f>[1]Model!$BD$60</f>
-        <v>261.02822362422637</v>
+        <v>281.24823339969367</v>
       </c>
       <c r="L29" s="9">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-5.6262975435748208E-2</v>
+        <v>1.6841655156345947E-2</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>91</v>
@@ -2552,30 +2728,47 @@
     </row>
     <row r="31" spans="2:16" ht="13.9" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3">
-        <v>70.25</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="E31" s="4">
         <v>137.4</v>
       </c>
       <c r="F31" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9652.35</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+        <v>9677.0820000000022</v>
+      </c>
+      <c r="G31" s="6">
+        <v>890.1</v>
+      </c>
+      <c r="H31" s="6">
+        <f>443.4</f>
+        <v>443.4</v>
+      </c>
       <c r="I31" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9652.35</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="9"/>
+        <v>9230.3820000000014</v>
+      </c>
+      <c r="J31" s="3">
+        <f>[3]Model!$BZ$53</f>
+        <v>9389.9160729781779</v>
+      </c>
+      <c r="K31" s="11">
+        <f>[3]Model!$BZ$55</f>
+        <v>68.364878580110513</v>
+      </c>
+      <c r="L31" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-2.9321616071127266E-2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="N31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2620,7 +2813,7 @@
     </row>
     <row r="33" spans="2:16" ht="13.9" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -2654,7 +2847,7 @@
     </row>
     <row r="34" spans="2:16" ht="13.9" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -2722,7 +2915,7 @@
     </row>
     <row r="36" spans="2:16" ht="13.9" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
@@ -2756,60 +2949,64 @@
     </row>
     <row r="37" spans="2:16" ht="13.9" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>182</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D37" s="3">
-        <v>148.80000000000001</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4">
-        <v>29.7</v>
+        <v>59.3</v>
       </c>
       <c r="F37" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4419.3600000000006</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+        <v>4744</v>
+      </c>
+      <c r="G37" s="6">
+        <f>41.141+0.067+70.397</f>
+        <v>111.605</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
       <c r="I37" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4419.3600000000006</v>
+        <v>4632.3950000000004</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="9"/>
       <c r="N37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="38" spans="2:16" ht="13.9" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3">
-        <v>100.57</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="E38" s="4">
-        <v>31.4</v>
+        <v>29.7</v>
       </c>
       <c r="F38" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3157.8979999999997</v>
+        <v>4419.3600000000006</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3157.8979999999997</v>
+        <v>4419.3600000000006</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2818,66 +3015,59 @@
         <v>91</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="2:16" ht="13.9" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="D39" s="3">
-        <v>12.65</v>
+        <v>71</v>
       </c>
       <c r="E39" s="4">
-        <v>198.8</v>
+        <v>52.11</v>
       </c>
       <c r="F39" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2514.8200000000002</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2514.8200000000002</v>
+        <v>3699.81</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3300</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="9"/>
       <c r="N39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" s="3"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="40" spans="2:16" ht="13.9" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3">
-        <v>35.07</v>
+        <v>100.57</v>
       </c>
       <c r="E40" s="4">
-        <v>54.3</v>
+        <v>31.4</v>
       </c>
       <c r="F40" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1904.3009999999999</v>
+        <v>3157.8979999999997</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1904.3009999999999</v>
+        <v>3157.8979999999997</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2886,32 +3076,32 @@
         <v>91</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="2:16" ht="13.9" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3">
-        <v>15.83</v>
+        <v>12.65</v>
       </c>
       <c r="E41" s="4">
-        <v>108.5</v>
+        <v>198.8</v>
       </c>
       <c r="F41" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1717.5550000000001</v>
+        <v>2514.8200000000002</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1717.5550000000001</v>
+        <v>2514.8200000000002</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2920,32 +3110,32 @@
         <v>91</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="2:16" ht="13.9" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D42" s="3">
-        <v>32.08</v>
+        <v>35.07</v>
       </c>
       <c r="E42" s="4">
-        <v>48.9</v>
+        <v>54.3</v>
       </c>
       <c r="F42" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1568.7119999999998</v>
+        <v>1904.3009999999999</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1568.7119999999998</v>
+        <v>1904.3009999999999</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2954,32 +3144,32 @@
         <v>91</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="2:16" ht="13.9" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3">
-        <v>48.03</v>
+        <v>15.83</v>
       </c>
       <c r="E43" s="4">
-        <v>30.9</v>
+        <v>108.5</v>
       </c>
       <c r="F43" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1484.127</v>
+        <v>1717.5550000000001</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1484.127</v>
+        <v>1717.5550000000001</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2988,32 +3178,32 @@
         <v>91</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="2:16" ht="13.9" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3">
-        <v>16.93</v>
+        <v>32.08</v>
       </c>
       <c r="E44" s="4">
-        <v>66.3</v>
+        <v>48.9</v>
       </c>
       <c r="F44" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1122.4589999999998</v>
+        <v>1568.7119999999998</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1122.4589999999998</v>
+        <v>1568.7119999999998</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3022,100 +3212,98 @@
         <v>91</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="2:16" ht="13.9" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3">
-        <v>6.63</v>
+        <v>48.03</v>
       </c>
       <c r="E45" s="4">
-        <v>146.9</v>
+        <v>30.9</v>
       </c>
       <c r="F45" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>973.947</v>
+        <v>1484.127</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>973.947</v>
+        <v>1484.127</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="9"/>
       <c r="N45" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="2:16" ht="13.9" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3">
-        <v>30.18</v>
+        <v>27.5</v>
       </c>
       <c r="E46" s="4">
-        <v>28.8</v>
+        <v>46.55</v>
       </c>
       <c r="F46" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>869.18399999999997</v>
+        <v>1280.125</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>869.18399999999997</v>
+        <v>1180</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="9"/>
       <c r="N46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P46" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" spans="2:16" ht="13.9" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3">
-        <v>11.34</v>
+        <v>16.93</v>
       </c>
       <c r="E47" s="4">
-        <v>57.7</v>
+        <v>66.3</v>
       </c>
       <c r="F47" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>654.31799999999998</v>
+        <v>1122.4589999999998</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>654.31799999999998</v>
+        <v>1122.4589999999998</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -3124,66 +3312,66 @@
         <v>91</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="2:16" ht="13.9" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D48" s="3">
-        <v>11.45</v>
+        <v>6.63</v>
       </c>
       <c r="E48" s="4">
-        <v>52.9</v>
+        <v>146.9</v>
       </c>
       <c r="F48" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>605.70499999999993</v>
+        <v>973.947</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>605.70499999999993</v>
+        <v>973.947</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="9"/>
       <c r="N48" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="2:16" ht="13.9" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D49" s="3">
-        <v>12.96</v>
+        <v>30.18</v>
       </c>
       <c r="E49" s="4">
-        <v>38.5</v>
+        <v>28.8</v>
       </c>
       <c r="F49" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>498.96000000000004</v>
+        <v>869.18399999999997</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>498.96000000000004</v>
+        <v>869.18399999999997</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3192,32 +3380,32 @@
         <v>91</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="2:16" ht="13.9" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D50" s="3">
-        <v>9.52</v>
+        <v>11.34</v>
       </c>
       <c r="E50" s="4">
-        <v>40.4</v>
+        <v>57.7</v>
       </c>
       <c r="F50" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>384.60799999999995</v>
+        <v>654.31799999999998</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>384.60799999999995</v>
+        <v>654.31799999999998</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3226,32 +3414,32 @@
         <v>91</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="2:16" ht="13.9" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D51" s="3">
-        <v>13.35</v>
+        <v>11.45</v>
       </c>
       <c r="E51" s="4">
-        <v>23.9</v>
+        <v>52.9</v>
       </c>
       <c r="F51" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>319.065</v>
+        <v>605.70499999999993</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>319.065</v>
+        <v>605.70499999999993</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3260,32 +3448,32 @@
         <v>91</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="2:16" ht="13.9" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3">
-        <v>1.29</v>
+        <v>12.96</v>
       </c>
       <c r="E52" s="4">
-        <v>185.8</v>
+        <v>38.5</v>
       </c>
       <c r="F52" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>239.68200000000002</v>
+        <v>498.96000000000004</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>239.68200000000002</v>
+        <v>498.96000000000004</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3294,32 +3482,32 @@
         <v>91</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="2:16" ht="13.9" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3">
-        <v>3.93</v>
+        <v>9.52</v>
       </c>
       <c r="E53" s="4">
-        <v>55.7</v>
+        <v>40.4</v>
       </c>
       <c r="F53" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>218.90100000000001</v>
+        <v>384.60799999999995</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>218.90100000000001</v>
+        <v>384.60799999999995</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3328,32 +3516,32 @@
         <v>91</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="2:16" ht="13.9" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3">
-        <v>4.72</v>
+        <v>13.35</v>
       </c>
       <c r="E54" s="4">
-        <v>16.5</v>
+        <v>23.9</v>
       </c>
       <c r="F54" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>77.88</v>
+        <v>319.065</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>77.88</v>
+        <v>319.065</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3362,32 +3550,32 @@
         <v>91</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="2:16" ht="13.9" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D55" s="3">
-        <v>2.5</v>
+        <v>1.29</v>
       </c>
       <c r="E55" s="4">
-        <v>20.2</v>
+        <v>185.8</v>
       </c>
       <c r="F55" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>50.5</v>
+        <v>239.68200000000002</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>50.5</v>
+        <v>239.68200000000002</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3396,32 +3584,32 @@
         <v>91</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="2:16" ht="13.9" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D56" s="3">
-        <v>0.98</v>
+        <v>3.93</v>
       </c>
       <c r="E56" s="4">
-        <v>37.6</v>
+        <v>55.7</v>
       </c>
       <c r="F56" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>36.847999999999999</v>
+        <v>218.90100000000001</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>36.847999999999999</v>
+        <v>218.90100000000001</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3430,32 +3618,32 @@
         <v>91</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="2:16" ht="13.9" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D57" s="3">
-        <v>1.42</v>
+        <v>4.72</v>
       </c>
       <c r="E57" s="4">
-        <v>8.8000000000000007</v>
+        <v>16.5</v>
       </c>
       <c r="F57" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12.496</v>
+        <v>77.88</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12.496</v>
+        <v>77.88</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3464,70 +3652,111 @@
         <v>91</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="2:16" ht="13.9" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>20.2</v>
+      </c>
       <c r="F58" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="9"/>
       <c r="N58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" s="3"/>
     </row>
     <row r="59" spans="2:16" ht="13.9" customHeight="1">
       <c r="B59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E59" s="4">
+        <v>37.6</v>
+      </c>
       <c r="F59" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>0</v>
+        <v>36.847999999999999</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>0</v>
+        <v>36.847999999999999</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="9"/>
       <c r="N59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" s="3"/>
     </row>
     <row r="60" spans="2:16" ht="13.9" customHeight="1">
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F60" s="6">
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>12.496</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>12.496</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="9"/>
+      <c r="N60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" s="3"/>
     </row>
     <row r="61" spans="2:16" ht="13.9" customHeight="1">
       <c r="J61" s="3"/>
@@ -3596,7 +3825,7 @@
     <hyperlink ref="C31" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
-    <hyperlink ref="C59" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
+    <hyperlink ref="C37" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
     <hyperlink ref="C29" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
   </hyperlinks>
@@ -3606,4 +3835,53 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B335E-5AF5-4EBA-8439-3724F125383B}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15">
+      <c r="B2" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15">
+      <c r="B5" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15">
+      <c r="B8" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE326F-3545-4E7D-80E5-5CE01323E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A83B42-C624-4822-9D98-4044E4E9A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -431,9 +434,6 @@
     <t>Dialysis Systems</t>
   </si>
   <si>
-    <t>Neurovascular</t>
-  </si>
-  <si>
     <t>Imaging/HealthTech</t>
   </si>
   <si>
@@ -638,15 +638,9 @@
     <t>&lt;- Acquired by Boston Scientific (Nov. 15, 2024) for ~$3.7 billion (10 months after proposal)</t>
   </si>
   <si>
-    <t>FDA MedIcal Devices Frontpage</t>
-  </si>
-  <si>
     <t>https://www.fda.gov/medical-devices</t>
   </si>
   <si>
-    <t>Pubmed</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/37084878/</t>
   </si>
   <si>
@@ -654,14 +648,52 @@
   </si>
   <si>
     <t>https://www.medtechdive.com/</t>
+  </si>
+  <si>
+    <t>https://www.nejm.org/</t>
+  </si>
+  <si>
+    <t>New England Journal (Primarily Pharmacology)</t>
+  </si>
+  <si>
+    <t>FDA Medical Devices Frontpage</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>FY Earnings Estimates</t>
+  </si>
+  <si>
+    <t>Next Year's Earnings Estimates</t>
+  </si>
+  <si>
+    <t>Fwd P/E</t>
+  </si>
+  <si>
+    <t>Fwd P/E (2-years)</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Thrombectomy</t>
+  </si>
+  <si>
+    <t>Lemaitre Vascular</t>
+  </si>
+  <si>
+    <t>LMAT</t>
+  </si>
+  <si>
+    <t>Q1'25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -744,12 +776,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -759,7 +802,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,7 +816,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -781,61 +830,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -896,6 +891,129 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1078,7 +1196,7 @@
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
@@ -1129,13 +1247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1188,7 +1306,7 @@
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -1250,59 +1368,6 @@
       <sheetName val="Notes | Quant Analysis"/>
       <sheetName val="Markets | Product Lines"/>
       <sheetName val="Management"/>
-      <sheetName val="Clinical Trail Channel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>38.520000000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>291</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="58">
-          <cell r="BD58">
-            <v>10864.619256230168</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="BD60">
-            <v>281.24823339969367</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main | Overview"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-      <sheetName val="Markets | Product Lines"/>
-      <sheetName val="Management"/>
       <sheetName val="Clinical Trial Channel"/>
       <sheetName val="M&amp;A Scope"/>
     </sheetNames>
@@ -1335,6 +1400,59 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main | Overview"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Markets | Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Clinical Trail Channel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>38.561999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>378.84799999999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="59">
+          <cell r="BD59">
+            <v>11771.989110515369</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="BD61">
+            <v>304.97381115324788</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1347,7 +1465,7 @@
       <sheetName val="Notes | Quant Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="53">
           <cell r="BZ53">
@@ -1360,48 +1478,259 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="C7">
+            <v>7967</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>14125</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Management"/>
+      <sheetName val="Markets"/>
+      <sheetName val="Debt"/>
+      <sheetName val="IMS"/>
+      <sheetName val="IP"/>
+      <sheetName val="Master Pipeline"/>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Stelara"/>
+      <sheetName val="Remicade"/>
+      <sheetName val="Imbruvica"/>
+      <sheetName val="Darzalex"/>
+      <sheetName val="Carvykti"/>
+      <sheetName val="Talvey"/>
+      <sheetName val="Tremfya"/>
+      <sheetName val="Xarelto"/>
+      <sheetName val="Tecvayli"/>
+      <sheetName val="TAR-200"/>
+      <sheetName val="icotrokinra"/>
+      <sheetName val="Ponvory"/>
+      <sheetName val="nipocalimab"/>
+      <sheetName val="Invega"/>
+      <sheetName val="Sustenna"/>
+      <sheetName val="Simponi"/>
+      <sheetName val="Consta"/>
+      <sheetName val="Procrit"/>
+      <sheetName val="Velcade"/>
+      <sheetName val="Topamax"/>
+      <sheetName val="Prezista"/>
+      <sheetName val="Rybrevant"/>
+      <sheetName val="Intelence"/>
+      <sheetName val="Concerta"/>
+      <sheetName val="Contraceptives"/>
+      <sheetName val="riplivirine"/>
+      <sheetName val="canagliflozin"/>
+      <sheetName val="abiraterone"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="telaprevir"/>
+      <sheetName val="Consumer Model"/>
+      <sheetName val="MD&amp;D"/>
+      <sheetName val="DePuy"/>
+      <sheetName val="DePuy Model"/>
+      <sheetName val="LifeScan"/>
+      <sheetName val="Vision"/>
+      <sheetName val="Cardiovascular"/>
+      <sheetName val="EndoSurgery"/>
+      <sheetName val="Ethicon"/>
+      <sheetName val="Ultram"/>
+      <sheetName val="Acquisitions"/>
+      <sheetName val="Levaquin"/>
+      <sheetName val="Aciphex"/>
+      <sheetName val="Doripenem"/>
+      <sheetName val="Tapentadol"/>
+      <sheetName val="Comfyde"/>
+      <sheetName val="Natrecor"/>
+      <sheetName val="Diagnostics"/>
+      <sheetName val="Risperdal"/>
+      <sheetName val="Duragesic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="3">
+          <cell r="R3">
+            <v>2406</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="R5">
+            <v>38781</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="R6">
+            <v>47900</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>587.9</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3975.8999999999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>597.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:P72" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B2:P72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:P72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:T72" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="B2:T72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:T72">
     <sortCondition descending="1" ref="F2:F72"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="10">
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="9">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="13">
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="8">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="12">
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="1">
-      <calculatedColumnFormula>[1]Model!$BD$58</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="10">
+      <calculatedColumnFormula>[2]Model!$BD$59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="2">
-      <calculatedColumnFormula>[1]Model!$BD$60</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="9">
+      <calculatedColumnFormula>[2]Model!$BD$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="8">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="Next Year's Earnings Estimates" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd P/E" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd P/E (2-years)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1670,13 +1999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1684,16 +2013,27 @@
     <col min="4" max="4" width="12.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="9" width="13.5703125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="13.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="13.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3" style="2" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15">
+    <row r="1" spans="1:20" ht="14.25">
+      <c r="A1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,28 +2059,40 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.9" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1748,250 +2100,293 @@
         <v>60</v>
       </c>
       <c r="D3" s="3">
-        <v>152.51</v>
+        <v>155.25</v>
       </c>
       <c r="E3" s="4">
-        <v>2407.616</v>
+        <f>[5]Main!$R$3</f>
+        <v>2406</v>
       </c>
       <c r="F3" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>367185.51616</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>373531.5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>[5]Main!$R$5</f>
+        <v>38781</v>
+      </c>
+      <c r="H3" s="6">
+        <f>[5]Main!$R$6</f>
+        <v>47900</v>
+      </c>
       <c r="I3" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>367185.51616</v>
+        <v>382650.5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2"/>
+      <c r="Q3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T3" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="13.9" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>129.72</v>
+        <v>128.99</v>
       </c>
       <c r="E4" s="4">
         <v>1734</v>
       </c>
       <c r="F4" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>224934.48</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>223668.66</v>
+      </c>
+      <c r="G4" s="6">
+        <f>[4]Sheet1!$C$7</f>
+        <v>7967</v>
+      </c>
+      <c r="H4" s="6">
+        <f>[4]Sheet1!$C$8</f>
+        <v>14125</v>
+      </c>
       <c r="I4" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>224934.48</v>
+        <v>229826.66</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T4" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="13.9" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>481.07</v>
+        <v>487.58</v>
       </c>
       <c r="E5" s="4">
         <v>356.6</v>
       </c>
       <c r="F5" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>171549.56200000001</v>
+        <v>173871.02799999999</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>171549.56200000001</v>
+        <v>173871.02799999999</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="2"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.9" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="3">
-        <v>435.05</v>
+        <v>431.7</v>
       </c>
       <c r="E6" s="4">
         <v>380.8</v>
       </c>
       <c r="F6" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>165667.04</v>
+        <v>164391.35999999999</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>165667.04</v>
+        <v>164391.35999999999</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="2"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.9" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>96.2</v>
+        <v>100.88</v>
       </c>
       <c r="E7" s="4">
-        <f>'[2]Main | Overview'!$C$5</f>
+        <f>'[1]Main | Overview'!$C$5</f>
         <v>1475.778</v>
       </c>
       <c r="F7" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>141969.84359999999</v>
+        <v>148876.48464000001</v>
       </c>
       <c r="G7" s="6">
-        <f>'[2]Main | Overview'!$C$7</f>
+        <f>'[1]Main | Overview'!$C$7</f>
         <v>2502</v>
       </c>
       <c r="H7" s="6">
-        <f>'[2]Main | Overview'!$C$8</f>
+        <f>'[1]Main | Overview'!$C$8</f>
         <v>10885</v>
       </c>
       <c r="I7" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>150352.84359999999</v>
+        <v>157259.48464000001</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="2"/>
+      <c r="Q7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T7" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="13.9" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3">
-        <v>189.4</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4">
         <v>719.2</v>
       </c>
       <c r="F8" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>136216.48000000001</v>
+        <v>140244</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>136216.48000000001</v>
+        <v>140244</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="2"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.9" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>341.8</v>
+        <v>362.05</v>
       </c>
       <c r="E9" s="4">
         <v>381.4</v>
       </c>
       <c r="F9" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>130362.51999999999</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>138085.87</v>
+      </c>
+      <c r="G9" s="6">
+        <f>3850+834</f>
+        <v>4684</v>
+      </c>
+      <c r="H9" s="6">
+        <f>2159+13325</f>
+        <v>15484</v>
+      </c>
       <c r="I9" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>130362.51999999999</v>
+        <v>148885.87</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="2"/>
+      <c r="Q9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="13.9" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1999,69 +2394,81 @@
         <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>82.31</v>
+        <v>85.07</v>
       </c>
       <c r="E10" s="4">
         <v>1315</v>
       </c>
       <c r="F10" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>108237.65000000001</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>111867.04999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <f>1240+6682</f>
+        <v>7922</v>
+      </c>
+      <c r="H10" s="6">
+        <f>2622+23935</f>
+        <v>26557</v>
+      </c>
       <c r="I10" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>108237.65000000001</v>
+        <v>130502.04999999999</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="9"/>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="2"/>
+      <c r="Q10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T10" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.9" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>204.5</v>
+        <v>201.49</v>
       </c>
       <c r="E11" s="4">
         <v>289.10000000000002</v>
       </c>
       <c r="F11" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>59120.950000000004</v>
+        <v>58250.759000000005</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>59120.950000000004</v>
+        <v>58250.759000000005</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9"/>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="2"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.9" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2069,407 +2476,442 @@
         <v>51</v>
       </c>
       <c r="D12" s="3">
-        <v>92.05</v>
+        <v>93.7</v>
       </c>
       <c r="E12" s="4">
         <v>494.6</v>
       </c>
       <c r="F12" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>45527.93</v>
+        <v>46344.020000000004</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>45527.93</v>
+        <v>46344.020000000004</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="9"/>
-      <c r="N12" s="2" t="s">
+      <c r="M12" s="2"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" ht="13.9" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>70.5</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="E13" s="4">
-        <v>588.6</v>
+        <f>[6]Main!$C$6</f>
+        <v>587.9</v>
       </c>
       <c r="F13" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>41496.300000000003</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>43692.727999999996</v>
+      </c>
+      <c r="G13" s="6">
+        <f>[6]Main!$C$8</f>
+        <v>3975.8999999999996</v>
+      </c>
+      <c r="H13" s="6">
+        <f>[6]Main!$C$9</f>
+        <v>597.5</v>
+      </c>
       <c r="I13" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>41496.300000000003</v>
+        <v>40314.327999999994</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9"/>
-      <c r="N13" s="2" t="s">
+      <c r="M13" s="2"/>
+      <c r="Q13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T13" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="13.9" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="3">
-        <v>402.38</v>
+        <v>426.94</v>
       </c>
       <c r="E14" s="4">
         <v>81.599999999999994</v>
       </c>
       <c r="F14" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32834.207999999999</v>
+        <v>34838.303999999996</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32834.207999999999</v>
+        <v>34838.303999999996</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="9"/>
-      <c r="N14" s="2" t="s">
+      <c r="M14" s="2"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.9" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3">
-        <v>210.39</v>
+        <v>222</v>
       </c>
       <c r="E15" s="4">
         <v>146.9</v>
       </c>
       <c r="F15" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>30906.290999999997</v>
+        <v>32611.800000000003</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>30906.290999999997</v>
+        <v>32611.800000000003</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="9"/>
-      <c r="N15" s="2" t="s">
+      <c r="M15" s="2"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.9" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3">
-        <v>102.67</v>
+        <v>65.2</v>
       </c>
       <c r="E16" s="4">
-        <v>285.2</v>
+        <v>457</v>
       </c>
       <c r="F16" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>29281.484</v>
+        <v>29796.400000000001</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>29281.484</v>
+        <v>29796.400000000001</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="9"/>
-      <c r="N16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M16" s="2"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:20" ht="13.9" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>62.95</v>
+        <v>102.7</v>
       </c>
       <c r="E17" s="4">
-        <v>457</v>
+        <v>285.2</v>
       </c>
       <c r="F17" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>28768.15</v>
+        <v>29290.04</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>28768.15</v>
+        <v>29290.04</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="9"/>
-      <c r="N17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M17" s="2"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="2:20" ht="13.9" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3">
-        <v>69.849999999999994</v>
+        <v>66.75</v>
       </c>
       <c r="E18" s="4">
         <v>390.7</v>
       </c>
       <c r="F18" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>27290.394999999997</v>
+        <v>26079.224999999999</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27290.394999999997</v>
+        <v>26079.224999999999</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="9"/>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="2"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" ht="13.9" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="3">
-        <v>149.94999999999999</v>
+        <v>147</v>
       </c>
       <c r="E19" s="4">
         <v>176.1</v>
       </c>
       <c r="F19" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>26406.194999999996</v>
+        <v>25886.7</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>26406.194999999996</v>
+        <v>25886.7</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
-      <c r="N19" s="2" t="s">
+      <c r="M19" s="2"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" ht="13.9" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>23.61</v>
+        <v>223.87</v>
       </c>
       <c r="E20" s="4">
-        <v>925</v>
+        <v>98.9</v>
       </c>
       <c r="F20" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21839.25</v>
+        <v>22140.743000000002</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21839.25</v>
+        <v>22140.743000000002</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="9"/>
-      <c r="N20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M20" s="2"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="2:20" ht="13.9" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3">
-        <v>220.02</v>
+        <v>23.72</v>
       </c>
       <c r="E21" s="4">
-        <v>98.9</v>
+        <v>925</v>
       </c>
       <c r="F21" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21759.978000000003</v>
+        <v>21941</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21759.978000000003</v>
+        <v>21941</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
-      <c r="N21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M21" s="2"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="2:20" ht="13.9" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3">
-        <v>1016.65</v>
+        <v>1046.23</v>
       </c>
       <c r="E22" s="4">
         <v>20.9</v>
       </c>
       <c r="F22" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21247.984999999997</v>
+        <v>21866.206999999999</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21247.984999999997</v>
+        <v>21866.206999999999</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="9"/>
-      <c r="N22" s="2" t="s">
+      <c r="M22" s="2"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="2:20" ht="13.9" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="3">
-        <v>101.13</v>
+        <v>99.45</v>
       </c>
       <c r="E23" s="4">
         <v>199.1</v>
       </c>
       <c r="F23" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>20134.983</v>
+        <v>19800.494999999999</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>20134.983</v>
+        <v>19800.494999999999</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="9"/>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="2"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="2:20" ht="13.9" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2477,101 +2919,107 @@
         <v>34</v>
       </c>
       <c r="D24" s="3">
-        <v>250.74</v>
+        <v>250</v>
       </c>
       <c r="E24" s="4">
         <v>70.2</v>
       </c>
       <c r="F24" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>17601.948</v>
+        <v>17550</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>17601.948</v>
+        <v>17550</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="9"/>
-      <c r="N24" s="2" t="s">
+      <c r="M24" s="2"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="2:20" ht="13.9" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3">
-        <v>78.23</v>
+        <v>82.41</v>
       </c>
       <c r="E25" s="4">
         <v>199.6</v>
       </c>
       <c r="F25" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15614.708000000001</v>
+        <v>16449.036</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15614.708000000001</v>
+        <v>16449.036</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="2"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" ht="13.9" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="3">
-        <v>205.19</v>
+        <v>218.18</v>
       </c>
       <c r="E26" s="4">
         <v>72.3</v>
       </c>
       <c r="F26" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>14835.236999999999</v>
+        <v>15774.414000000001</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>14835.236999999999</v>
+        <v>15774.414000000001</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="9"/>
-      <c r="N26" s="2" t="s">
+      <c r="M26" s="2"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" ht="13.9" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2579,33 +3027,35 @@
         <v>32</v>
       </c>
       <c r="D27" s="3">
-        <v>58.8</v>
+        <v>58.36</v>
       </c>
       <c r="E27" s="4">
         <v>231.7</v>
       </c>
       <c r="F27" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13623.96</v>
+        <v>13522.011999999999</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13623.96</v>
+        <v>13522.011999999999</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="9"/>
-      <c r="N27" s="2" t="s">
+      <c r="M27" s="2"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" ht="13.9" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
@@ -2613,86 +3063,89 @@
         <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>169</v>
+        <v>176.15</v>
       </c>
       <c r="E28" s="4">
         <v>73.8</v>
       </c>
       <c r="F28" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12472.199999999999</v>
+        <v>12999.87</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12472.199999999999</v>
+        <v>12999.87</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="9"/>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="2"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="2:20" ht="13.9" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="3">
-        <v>276.58999999999997</v>
+        <v>293</v>
       </c>
       <c r="E29" s="4">
-        <f>'[1]Main | Overview'!$C$6</f>
-        <v>38.520000000000003</v>
+        <f>'[2]Main | Overview'!$C$6</f>
+        <v>38.561999999999998</v>
       </c>
       <c r="F29" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>10654.246800000001</v>
+        <v>11298.665999999999</v>
       </c>
       <c r="G29" s="6">
-        <f>'[1]Main | Overview'!$C$8</f>
-        <v>291</v>
+        <f>'[2]Main | Overview'!$C$8</f>
+        <v>378.84799999999996</v>
       </c>
       <c r="H29" s="6">
-        <f>'[1]Main | Overview'!$C$9</f>
+        <f>'[2]Main | Overview'!$C$9</f>
         <v>0</v>
       </c>
       <c r="I29" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10363.246800000001</v>
+        <v>10919.817999999999</v>
       </c>
       <c r="J29" s="3">
-        <f>[1]Model!$BD$58</f>
-        <v>10864.619256230168</v>
+        <f>[2]Model!$BD$59</f>
+        <v>11771.989110515369</v>
       </c>
       <c r="K29" s="3">
-        <f>[1]Model!$BD$60</f>
-        <v>281.24823339969367</v>
+        <f>[2]Model!$BD$61</f>
+        <v>304.97381115324788</v>
       </c>
       <c r="L29" s="9">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>1.6841655156345947E-2</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N29" s="2" t="s">
+        <v>4.0866249669788024E-2</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="Q29" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="2:20" ht="13.9" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2700,48 +3153,50 @@
         <v>29</v>
       </c>
       <c r="D30" s="3">
-        <v>15.4</v>
+        <v>15.47</v>
       </c>
       <c r="E30" s="4">
         <v>680.8</v>
       </c>
       <c r="F30" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>10484.32</v>
+        <v>10531.976000000001</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10484.32</v>
+        <v>10531.976000000001</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="9"/>
-      <c r="N30" s="2" t="s">
+      <c r="M30" s="2"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.9" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3">
-        <v>70.430000000000007</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="E31" s="4">
         <v>137.4</v>
       </c>
       <c r="F31" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9677.0820000000022</v>
+        <v>9863.9460000000017</v>
       </c>
       <c r="G31" s="6">
         <v>890.1</v>
@@ -2752,32 +3207,33 @@
       </c>
       <c r="I31" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9230.3820000000014</v>
+        <v>9417.246000000001</v>
       </c>
       <c r="J31" s="3">
         <f>[3]Model!$BZ$53</f>
         <v>9389.9160729781779</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="3">
         <f>[3]Model!$BZ$55</f>
         <v>68.364878580110513</v>
       </c>
       <c r="L31" s="9">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-2.9321616071127266E-2</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N31" s="2" t="s">
+        <v>-4.7710285832142207E-2</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="Q31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="2:20" ht="13.9" customHeight="1">
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2785,101 +3241,107 @@
         <v>38</v>
       </c>
       <c r="D32" s="3">
-        <v>41.44</v>
+        <v>42.32</v>
       </c>
       <c r="E32" s="4">
         <v>216.1</v>
       </c>
       <c r="F32" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8955.1839999999993</v>
+        <v>9145.351999999999</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8955.1839999999993</v>
+        <v>9145.351999999999</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="9"/>
-      <c r="N32" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="2:20" ht="13.9" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3">
-        <v>43.77</v>
+        <v>157.6</v>
       </c>
       <c r="E33" s="4">
-        <v>185.6</v>
+        <v>53.6</v>
       </c>
       <c r="F33" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8123.7120000000004</v>
+        <v>8447.36</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8123.7120000000004</v>
+        <v>8447.36</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="9"/>
-      <c r="N33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M33" s="2"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="2:20" ht="13.9" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3">
-        <v>151.19999999999999</v>
+        <v>44.55</v>
       </c>
       <c r="E34" s="4">
-        <v>53.6</v>
+        <v>185.6</v>
       </c>
       <c r="F34" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8104.32</v>
+        <v>8268.48</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8104.32</v>
+        <v>8268.48</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="9"/>
-      <c r="N34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M34" s="2"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="2:20" ht="13.9" customHeight="1">
       <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2887,69 +3349,75 @@
         <v>40</v>
       </c>
       <c r="D35" s="3">
-        <v>63.29</v>
+        <v>63.92</v>
       </c>
       <c r="E35" s="4">
         <v>124.2</v>
       </c>
       <c r="F35" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>7860.6180000000004</v>
+        <v>7938.8640000000005</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7860.6180000000004</v>
+        <v>7938.8640000000005</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="9"/>
-      <c r="N35" s="2" t="s">
+      <c r="M35" s="2"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="2:20" ht="13.9" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3">
-        <v>128.37</v>
+        <v>135</v>
       </c>
       <c r="E36" s="4">
         <v>46.3</v>
       </c>
       <c r="F36" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>5943.5309999999999</v>
+        <v>6250.5</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>5943.5309999999999</v>
+        <v>6250.5</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="9"/>
-      <c r="N36" s="2" t="s">
+      <c r="M36" s="2"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="13.9" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>45</v>
@@ -2978,53 +3446,57 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="9"/>
-      <c r="N37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M37" s="2"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="13.9" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="3">
-        <v>148.80000000000001</v>
+        <v>149.62</v>
       </c>
       <c r="E38" s="4">
         <v>29.7</v>
       </c>
       <c r="F38" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4419.3600000000006</v>
+        <v>4443.7139999999999</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4419.3600000000006</v>
+        <v>4443.7139999999999</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="9"/>
-      <c r="N38" s="2" t="s">
+      <c r="M38" s="2"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="2:20" ht="13.9" customHeight="1">
       <c r="B39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D39" s="3">
         <v>71</v>
@@ -3042,781 +3514,891 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="9"/>
-      <c r="N39" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M39" s="2"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="13.9" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="3">
-        <v>100.57</v>
+        <v>103.95</v>
       </c>
       <c r="E40" s="4">
         <v>31.4</v>
       </c>
       <c r="F40" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3157.8979999999997</v>
+        <v>3264.0299999999997</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3157.8979999999997</v>
+        <v>3264.0299999999997</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="9"/>
-      <c r="N40" s="2" t="s">
+      <c r="M40" s="2"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="S40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" ht="13.9" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="3">
-        <v>12.65</v>
+        <v>12.99</v>
       </c>
       <c r="E41" s="4">
         <v>198.8</v>
       </c>
       <c r="F41" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2514.8200000000002</v>
+        <v>2582.4120000000003</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2514.8200000000002</v>
+        <v>2582.4120000000003</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="9"/>
-      <c r="N41" s="2" t="s">
+      <c r="M41" s="2"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="2:20" ht="13.9" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="D42" s="3">
-        <v>35.07</v>
+        <v>90.61</v>
       </c>
       <c r="E42" s="4">
-        <v>54.3</v>
+        <v>22.56</v>
       </c>
       <c r="F42" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1904.3009999999999</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+        <v>2044.1615999999999</v>
+      </c>
+      <c r="G42" s="6">
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
       <c r="I42" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1904.3009999999999</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>2044.1615999999999</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="9"/>
-      <c r="N42" s="2" t="s">
+      <c r="M42" s="2"/>
+      <c r="Q42" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S42" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="13.9" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="3">
-        <v>15.83</v>
+        <v>17.86</v>
       </c>
       <c r="E43" s="4">
         <v>108.5</v>
       </c>
       <c r="F43" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1717.5550000000001</v>
+        <v>1937.81</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1717.5550000000001</v>
+        <v>1937.81</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="9"/>
-      <c r="N43" s="2" t="s">
+      <c r="M43" s="2"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="S43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" ht="13.9" customHeight="1">
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="2:20" ht="13.9" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D44" s="3">
-        <v>32.08</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="E44" s="4">
-        <v>48.9</v>
+        <v>54.3</v>
       </c>
       <c r="F44" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1568.7119999999998</v>
+        <v>1934.7090000000001</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1568.7119999999998</v>
+        <v>1934.7090000000001</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="9"/>
-      <c r="N44" s="2" t="s">
+      <c r="M44" s="2"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="2:20" ht="13.9" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3">
-        <v>48.03</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="E45" s="4">
-        <v>30.9</v>
+        <v>48.9</v>
       </c>
       <c r="F45" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1484.127</v>
+        <v>1658.1989999999998</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1484.127</v>
+        <v>1658.1989999999998</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="9"/>
-      <c r="N45" s="2" t="s">
+      <c r="M45" s="2"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="2:20" ht="13.9" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3">
-        <v>27.5</v>
+        <v>49.71</v>
       </c>
       <c r="E46" s="4">
-        <v>46.55</v>
+        <v>30.9</v>
       </c>
       <c r="F46" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1280.125</v>
+        <v>1536.039</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
-        <v>1180</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>1536.039</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="9"/>
-      <c r="N46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M46" s="2"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" spans="2:20" ht="13.9" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3">
-        <v>16.93</v>
+        <v>27.5</v>
       </c>
       <c r="E47" s="4">
-        <v>66.3</v>
+        <v>46.55</v>
       </c>
       <c r="F47" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1122.4589999999998</v>
+        <v>1280.125</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1122.4589999999998</v>
+        <v>1180</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="9"/>
-      <c r="N47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M47" s="2"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="13.9" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3">
-        <v>6.63</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="E48" s="4">
-        <v>146.9</v>
+        <v>66.3</v>
       </c>
       <c r="F48" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>973.947</v>
+        <v>1126.4369999999999</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>973.947</v>
+        <v>1126.4369999999999</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="9"/>
-      <c r="N48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M48" s="2"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="2:20" ht="13.9" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D49" s="3">
-        <v>30.18</v>
+        <v>6.76</v>
       </c>
       <c r="E49" s="4">
-        <v>28.8</v>
+        <v>146.9</v>
       </c>
       <c r="F49" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>869.18399999999997</v>
+        <v>993.04399999999998</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>869.18399999999997</v>
+        <v>993.04399999999998</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="9"/>
-      <c r="N49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M49" s="2"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="2:20" ht="13.9" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3">
-        <v>11.34</v>
+        <v>30.03</v>
       </c>
       <c r="E50" s="4">
-        <v>57.7</v>
+        <v>28.8</v>
       </c>
       <c r="F50" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>654.31799999999998</v>
+        <v>864.86400000000003</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>654.31799999999998</v>
+        <v>864.86400000000003</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="9"/>
-      <c r="N50" s="2" t="s">
+      <c r="M50" s="2"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" spans="2:20" ht="13.9" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3">
-        <v>11.45</v>
+        <v>11.24</v>
       </c>
       <c r="E51" s="4">
-        <v>52.9</v>
+        <v>57.7</v>
       </c>
       <c r="F51" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>605.70499999999993</v>
+        <v>648.548</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>605.70499999999993</v>
+        <v>648.548</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="9"/>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="2"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="2:20" ht="13.9" customHeight="1">
       <c r="B52" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3">
-        <v>12.96</v>
+        <v>11.5</v>
       </c>
       <c r="E52" s="4">
-        <v>38.5</v>
+        <v>52.9</v>
       </c>
       <c r="F52" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>498.96000000000004</v>
+        <v>608.35</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>498.96000000000004</v>
+        <v>608.35</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="9"/>
-      <c r="N52" s="2" t="s">
+      <c r="M52" s="2"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="2:20" ht="13.9" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D53" s="3">
-        <v>9.52</v>
+        <v>13.43</v>
       </c>
       <c r="E53" s="4">
-        <v>40.4</v>
+        <v>38.5</v>
       </c>
       <c r="F53" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>384.60799999999995</v>
+        <v>517.05499999999995</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>384.60799999999995</v>
+        <v>517.05499999999995</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="9"/>
-      <c r="N53" s="2" t="s">
+      <c r="M53" s="2"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="2:20" ht="13.9" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3">
-        <v>13.35</v>
+        <v>9.35</v>
       </c>
       <c r="E54" s="4">
-        <v>23.9</v>
+        <v>40.4</v>
       </c>
       <c r="F54" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>319.065</v>
+        <v>377.73999999999995</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>319.065</v>
+        <v>377.73999999999995</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="9"/>
-      <c r="N54" s="2" t="s">
+      <c r="M54" s="2"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="13.9" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D55" s="3">
-        <v>1.29</v>
+        <v>13.5</v>
       </c>
       <c r="E55" s="4">
-        <v>185.8</v>
+        <v>23.9</v>
       </c>
       <c r="F55" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>239.68200000000002</v>
+        <v>322.64999999999998</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>239.68200000000002</v>
+        <v>322.64999999999998</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="9"/>
-      <c r="N55" s="2" t="s">
+      <c r="M55" s="2"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="2:20" ht="13.9" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3">
-        <v>3.93</v>
+        <v>1.37</v>
       </c>
       <c r="E56" s="4">
-        <v>55.7</v>
+        <v>185.8</v>
       </c>
       <c r="F56" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>218.90100000000001</v>
+        <v>254.54600000000005</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>218.90100000000001</v>
+        <v>254.54600000000005</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="9"/>
-      <c r="N56" s="2" t="s">
+      <c r="M56" s="2"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="2:20" ht="13.9" customHeight="1">
       <c r="B57" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D57" s="3">
-        <v>4.72</v>
+        <v>4.25</v>
       </c>
       <c r="E57" s="4">
-        <v>16.5</v>
+        <v>55.7</v>
       </c>
       <c r="F57" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>77.88</v>
+        <v>236.72500000000002</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>77.88</v>
+        <v>236.72500000000002</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="9"/>
-      <c r="N57" s="2" t="s">
+      <c r="M57" s="2"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="2:20" ht="13.9" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D58" s="3">
-        <v>2.5</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E58" s="4">
-        <v>20.2</v>
+        <v>16.5</v>
       </c>
       <c r="F58" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>50.5</v>
+        <v>77.385000000000005</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>50.5</v>
+        <v>77.385000000000005</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="9"/>
-      <c r="N58" s="2" t="s">
+      <c r="M58" s="2"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="2:20" ht="13.9" customHeight="1">
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D59" s="3">
-        <v>0.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E59" s="4">
-        <v>37.6</v>
+        <v>20.2</v>
       </c>
       <c r="F59" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>36.847999999999999</v>
+        <v>41.813999999999993</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>36.847999999999999</v>
+        <v>41.813999999999993</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="9"/>
-      <c r="N59" s="2" t="s">
+      <c r="M59" s="2"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="2:20" ht="13.9" customHeight="1">
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1.42</v>
+        <v>0.94</v>
       </c>
       <c r="E60" s="4">
-        <v>8.8000000000000007</v>
+        <v>37.6</v>
       </c>
       <c r="F60" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12.496</v>
+        <v>35.344000000000001</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12.496</v>
+        <v>35.344000000000001</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="9"/>
-      <c r="N60" s="2" t="s">
+      <c r="M60" s="2"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="2:16" ht="13.9" customHeight="1">
+      <c r="S60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="2:20" ht="13.9" customHeight="1">
+      <c r="B61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="E61" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F61" s="6">
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>13.024000000000001</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>13.024000000000001</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M61" s="2"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="2:20" ht="13.9" customHeight="1">
+      <c r="E62" s="4"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M62" s="2"/>
+      <c r="Q62" s="12"/>
+    </row>
+    <row r="63" spans="2:20" ht="13.9" customHeight="1">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="2:16" ht="13.9" customHeight="1">
+      <c r="M63" s="2"/>
+      <c r="Q63" s="12"/>
+    </row>
+    <row r="64" spans="2:20" ht="13.9" customHeight="1">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M64" s="2"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row r="65" spans="10:17" ht="13.9" customHeight="1">
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M65" s="2"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="66" spans="10:17" ht="13.9" customHeight="1">
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M66" s="2"/>
+      <c r="Q66" s="12"/>
+    </row>
+    <row r="67" spans="10:17" ht="13.9" customHeight="1">
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M67" s="2"/>
+      <c r="Q67" s="12"/>
+    </row>
+    <row r="68" spans="10:17" ht="13.9" customHeight="1">
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M68" s="2"/>
+      <c r="Q68" s="12"/>
+    </row>
+    <row r="69" spans="10:17" ht="13.9" customHeight="1">
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M69" s="2"/>
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="70" spans="10:17" ht="13.9" customHeight="1">
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M70" s="2"/>
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="71" spans="10:17" ht="13.9" customHeight="1">
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="10:12" ht="13.9" customHeight="1">
+      <c r="M71" s="2"/>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="10:17" ht="13.9" customHeight="1">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="9"/>
+      <c r="M72" s="2"/>
+      <c r="Q72" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3828,21 +4410,24 @@
     <hyperlink ref="C37" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
     <hyperlink ref="C29" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
+    <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B335E-5AF5-4EBA-8439-3724F125383B}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3853,32 +4438,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15">
       <c r="B2" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
       <c r="B8" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15">
+      <c r="B11" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A83B42-C624-4822-9D98-4044E4E9A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC33A24-EFB8-45C9-95A1-3554F4EA19D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,6 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="216">
   <si>
     <t>Name</t>
   </si>
@@ -623,9 +619,6 @@
     <t xml:space="preserve">Thermo Fisher  </t>
   </si>
   <si>
-    <t>Primary Penumbra Competitor</t>
-  </si>
-  <si>
     <t>Axonics</t>
   </si>
   <si>
@@ -668,12 +661,6 @@
     <t>Next Year's Earnings Estimates</t>
   </si>
   <si>
-    <t>Fwd P/E</t>
-  </si>
-  <si>
-    <t>Fwd P/E (2-years)</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -687,6 +674,21 @@
   </si>
   <si>
     <t>Q1'25</t>
+  </si>
+  <si>
+    <t>Direct Competitive Overlap w Penumbra</t>
+  </si>
+  <si>
+    <t>Fwd. P/E</t>
+  </si>
+  <si>
+    <t>Fwd. P/E (2-years)</t>
+  </si>
+  <si>
+    <t>β (1-year avg.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1σ ± move </t>
   </si>
 </sst>
 </file>
@@ -697,7 +699,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +757,18 @@
       <color theme="1"/>
       <name val="Calibre"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibre"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -796,13 +810,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,14 +838,108 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{EA16B43E-A6A0-4CF5-8C0B-FD4E502DB7FC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -926,58 +1035,6 @@
         <name val="Calibre"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1192,14 +1249,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1214,8 +1271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252132" y="6701118"/>
-          <a:ext cx="17492383" cy="5603"/>
+          <a:off x="241260" y="6938950"/>
+          <a:ext cx="17689155" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1247,14 +1304,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1269,8 +1326,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="263338" y="8258735"/>
-          <a:ext cx="17481177" cy="5603"/>
+          <a:off x="252466" y="8468720"/>
+          <a:ext cx="17677949" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1302,13 +1359,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1368,64 +1425,16 @@
       <sheetName val="Notes | Quant Analysis"/>
       <sheetName val="Markets | Product Lines"/>
       <sheetName val="Management"/>
-      <sheetName val="Clinical Trial Channel"/>
-      <sheetName val="M&amp;A Scope"/>
+      <sheetName val="Clinical Trail Channel"/>
+      <sheetName val="Peripheral Thrombectomy"/>
+      <sheetName val="Neuro Thrombectomy"/>
+      <sheetName val="Peripheral Embolization"/>
+      <sheetName val="Neuro Embolization"/>
+      <sheetName val="Access"/>
+      <sheetName val="Neurosurgical Tools"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>1475.778</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>2502</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>10885</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main | Overview"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-      <sheetName val="Markets | Product Lines"/>
-      <sheetName val="Management"/>
-      <sheetName val="Clinical Trail Channel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>38.561999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>378.84799999999996</v>
-          </cell>
-        </row>
         <row r="9">
           <cell r="C9">
             <v>0</v>
@@ -1435,12 +1444,12 @@
       <sheetData sheetId="1">
         <row r="59">
           <cell r="BD59">
-            <v>11771.989110515369</v>
+            <v>12198.536959271867</v>
           </cell>
         </row>
         <row r="61">
           <cell r="BD61">
-            <v>304.97381115324788</v>
+            <v>316.024273556266</v>
           </cell>
         </row>
       </sheetData>
@@ -1448,12 +1457,18 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1484,253 +1499,52 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7">
-            <v>7967</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>14125</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Management"/>
-      <sheetName val="Markets"/>
-      <sheetName val="Debt"/>
-      <sheetName val="IMS"/>
-      <sheetName val="IP"/>
-      <sheetName val="Master Pipeline"/>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Stelara"/>
-      <sheetName val="Remicade"/>
-      <sheetName val="Imbruvica"/>
-      <sheetName val="Darzalex"/>
-      <sheetName val="Carvykti"/>
-      <sheetName val="Talvey"/>
-      <sheetName val="Tremfya"/>
-      <sheetName val="Xarelto"/>
-      <sheetName val="Tecvayli"/>
-      <sheetName val="TAR-200"/>
-      <sheetName val="icotrokinra"/>
-      <sheetName val="Ponvory"/>
-      <sheetName val="nipocalimab"/>
-      <sheetName val="Invega"/>
-      <sheetName val="Sustenna"/>
-      <sheetName val="Simponi"/>
-      <sheetName val="Consta"/>
-      <sheetName val="Procrit"/>
-      <sheetName val="Velcade"/>
-      <sheetName val="Topamax"/>
-      <sheetName val="Prezista"/>
-      <sheetName val="Rybrevant"/>
-      <sheetName val="Intelence"/>
-      <sheetName val="Concerta"/>
-      <sheetName val="Contraceptives"/>
-      <sheetName val="riplivirine"/>
-      <sheetName val="canagliflozin"/>
-      <sheetName val="abiraterone"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="telaprevir"/>
-      <sheetName val="Consumer Model"/>
-      <sheetName val="MD&amp;D"/>
-      <sheetName val="DePuy"/>
-      <sheetName val="DePuy Model"/>
-      <sheetName val="LifeScan"/>
-      <sheetName val="Vision"/>
-      <sheetName val="Cardiovascular"/>
-      <sheetName val="EndoSurgery"/>
-      <sheetName val="Ethicon"/>
-      <sheetName val="Ultram"/>
-      <sheetName val="Acquisitions"/>
-      <sheetName val="Levaquin"/>
-      <sheetName val="Aciphex"/>
-      <sheetName val="Doripenem"/>
-      <sheetName val="Tapentadol"/>
-      <sheetName val="Comfyde"/>
-      <sheetName val="Natrecor"/>
-      <sheetName val="Diagnostics"/>
-      <sheetName val="Risperdal"/>
-      <sheetName val="Duragesic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="3">
-          <cell r="R3">
-            <v>2406</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="R5">
-            <v>38781</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="R6">
-            <v>47900</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>587.9</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>3975.8999999999996</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>597.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:T72" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="B2:T72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:T72">
-    <sortCondition descending="1" ref="F2:F72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:V72" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="B2:V72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:V72">
+    <sortCondition ref="C2:C72"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="14">
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="16">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="13">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="15">
+      <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="12">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="14">
+      <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="13">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="10">
-      <calculatedColumnFormula>[2]Model!$BD$59</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="12">
+      <calculatedColumnFormula>[1]Model!$BD$59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="9">
-      <calculatedColumnFormula>[2]Model!$BD$61</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="11">
+      <calculatedColumnFormula>[1]Model!$BD$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="4">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="Next Year's Earnings Estimates" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd P/E" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd P/E (2-years)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="Next Year's Earnings Estimates" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="1">
+      <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1999,13 +1813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2014,26 +1828,27 @@
     <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="9" width="13.5703125" style="3" customWidth="1"/>
     <col min="10" max="11" width="13.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="8.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3" style="2" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="18" width="8.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="3" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25">
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,2258 +1882,2927 @@
       <c r="L2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13.9" customHeight="1">
+    <row r="3" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3">
-        <v>155.25</v>
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>107.07</v>
       </c>
       <c r="E3" s="4">
-        <f>[5]Main!$R$3</f>
-        <v>2406</v>
+        <v>285.2</v>
       </c>
       <c r="F3" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>373531.5</v>
-      </c>
-      <c r="G3" s="3">
-        <f>[5]Main!$R$5</f>
-        <v>38781</v>
-      </c>
-      <c r="H3" s="6">
-        <f>[5]Main!$R$6</f>
-        <v>47900</v>
-      </c>
+        <v>30536.363999999998</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>382650.5</v>
+        <v>30536.363999999998</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="2"/>
-      <c r="Q3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="13.9" customHeight="1">
+      <c r="M3" s="15"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>128.99</v>
+      <c r="D4" s="2">
+        <v>129.4</v>
       </c>
       <c r="E4" s="4">
         <v>1734</v>
       </c>
       <c r="F4" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>223668.66</v>
+        <v>224379.6</v>
       </c>
       <c r="G4" s="6">
-        <f>[4]Sheet1!$C$7</f>
         <v>7967</v>
       </c>
       <c r="H4" s="6">
-        <f>[4]Sheet1!$C$8</f>
         <v>14125</v>
       </c>
       <c r="I4" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>229826.66</v>
+        <v>230537.60000000001</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="13.9" customHeight="1">
+      <c r="V4" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>487.58</v>
+        <v>51</v>
+      </c>
+      <c r="D5" s="2">
+        <v>97.61</v>
       </c>
       <c r="E5" s="4">
-        <v>356.6</v>
+        <v>494.6</v>
       </c>
       <c r="F5" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>173871.02799999999</v>
+        <v>48277.906000000003</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>173871.02799999999</v>
+        <v>48277.906000000003</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="2"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="2" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3">
-        <v>431.7</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>194.84</v>
       </c>
       <c r="E6" s="4">
-        <v>380.8</v>
+        <v>73.8</v>
       </c>
       <c r="F6" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>164391.35999999999</v>
+        <v>14379.191999999999</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>164391.35999999999</v>
+        <v>14379.191999999999</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="2"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.9" customHeight="1">
+      <c r="M6" s="15"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100.88</v>
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.89</v>
       </c>
       <c r="E7" s="4">
-        <f>'[1]Main | Overview'!$C$5</f>
-        <v>1475.778</v>
+        <v>40.4</v>
       </c>
       <c r="F7" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>148876.48464000001</v>
-      </c>
-      <c r="G7" s="6">
-        <f>'[1]Main | Overview'!$C$7</f>
-        <v>2502</v>
-      </c>
-      <c r="H7" s="6">
-        <f>'[1]Main | Overview'!$C$8</f>
-        <v>10885</v>
-      </c>
+        <v>399.55599999999998</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>157259.48464000001</v>
+        <v>399.55599999999998</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="2"/>
-      <c r="Q7" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3">
-        <v>195</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.04</v>
       </c>
       <c r="E8" s="4">
-        <v>719.2</v>
+        <v>37.6</v>
       </c>
       <c r="F8" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>140244</v>
+        <v>39.104000000000006</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>140244</v>
+        <v>39.104000000000006</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="2"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.9" customHeight="1">
+      <c r="M8" s="15"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>362.05</v>
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31.03</v>
       </c>
       <c r="E9" s="4">
-        <v>381.4</v>
+        <v>48.9</v>
       </c>
       <c r="F9" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>138085.87</v>
-      </c>
-      <c r="G9" s="6">
-        <f>3850+834</f>
-        <v>4684</v>
-      </c>
-      <c r="H9" s="6">
-        <f>2159+13325</f>
-        <v>15484</v>
-      </c>
+        <v>1517.367</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>148885.87</v>
+        <v>1517.367</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="2"/>
-      <c r="Q9" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>85.07</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12.99</v>
       </c>
       <c r="E10" s="4">
-        <v>1315</v>
+        <v>680.8</v>
       </c>
       <c r="F10" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>111867.04999999999</v>
-      </c>
-      <c r="G10" s="6">
-        <f>1240+6682</f>
-        <v>7922</v>
-      </c>
-      <c r="H10" s="6">
-        <f>2622+23935</f>
-        <v>26557</v>
-      </c>
+        <v>8843.5919999999987</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>130502.04999999999</v>
+        <v>8843.5919999999987</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="2"/>
-      <c r="Q10" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="7" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="13.9" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="D11" s="3">
-        <v>201.49</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4">
-        <v>289.10000000000002</v>
+        <v>52.11</v>
       </c>
       <c r="F11" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>58250.759000000005</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>58250.759000000005</v>
+        <v>3699.81</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3300</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="2"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.9" customHeight="1">
+      <c r="M11" s="15"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3">
-        <v>93.7</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>205.6</v>
       </c>
       <c r="E12" s="4">
-        <v>494.6</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="F12" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>46344.020000000004</v>
+        <v>59438.960000000006</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>46344.020000000004</v>
+        <v>59438.960000000006</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="2"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="2" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
-        <v>74.319999999999993</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>103.59</v>
       </c>
       <c r="E13" s="4">
-        <f>[6]Main!$C$6</f>
-        <v>587.9</v>
+        <v>1476</v>
       </c>
       <c r="F13" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>43692.727999999996</v>
+        <v>152898.84</v>
       </c>
       <c r="G13" s="6">
-        <f>[6]Main!$C$8</f>
-        <v>3975.8999999999996</v>
+        <v>2502</v>
       </c>
       <c r="H13" s="6">
-        <f>[6]Main!$C$9</f>
-        <v>597.5</v>
+        <v>10885</v>
       </c>
       <c r="I13" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>40314.327999999994</v>
+        <v>161281.84</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
-      <c r="Q13" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="M13" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
-        <v>426.94</v>
+        <v>55</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.32</v>
       </c>
       <c r="E14" s="4">
-        <v>81.599999999999994</v>
+        <v>185.8</v>
       </c>
       <c r="F14" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>34838.303999999996</v>
+        <v>245.25600000000003</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>34838.303999999996</v>
+        <v>245.25600000000003</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="2"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="13.9" customHeight="1">
+      <c r="M14" s="15"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3">
-        <v>222</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="2">
+        <v>49.6</v>
       </c>
       <c r="E15" s="4">
-        <v>146.9</v>
+        <v>30.9</v>
       </c>
       <c r="F15" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32611.800000000003</v>
+        <v>1532.6399999999999</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32611.800000000003</v>
+        <v>1532.6399999999999</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="2" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="13.9" customHeight="1">
+      <c r="U15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3">
-        <v>65.2</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="2">
+        <v>82.8</v>
       </c>
       <c r="E16" s="4">
-        <v>457</v>
+        <v>199.6</v>
       </c>
       <c r="F16" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>29796.400000000001</v>
+        <v>16526.879999999997</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>29796.400000000001</v>
+        <v>16526.879999999997</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="2"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="2" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>102.7</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>196.01</v>
       </c>
       <c r="E17" s="4">
-        <v>285.2</v>
+        <v>719.2</v>
       </c>
       <c r="F17" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>29290.04</v>
+        <v>140970.39199999999</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>29290.04</v>
+        <v>140970.39199999999</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="2"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="2" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
-        <v>66.75</v>
+      <c r="D18" s="2">
+        <v>71</v>
       </c>
       <c r="E18" s="4">
         <v>390.7</v>
       </c>
       <c r="F18" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>26079.224999999999</v>
+        <v>27739.7</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>26079.224999999999</v>
+        <v>27739.7</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="2"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="2" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="2:20" ht="13.9" customHeight="1">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="3">
-        <v>147</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12.9</v>
       </c>
       <c r="E19" s="4">
-        <v>176.1</v>
+        <v>57.7</v>
       </c>
       <c r="F19" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>25886.7</v>
+        <v>744.33</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>25886.7</v>
+        <v>744.33</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="2"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M19" s="15"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3">
-        <v>223.87</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30.17</v>
       </c>
       <c r="E20" s="4">
-        <v>98.9</v>
+        <v>28.8</v>
       </c>
       <c r="F20" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22140.743000000002</v>
+        <v>868.89600000000007</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22140.743000000002</v>
+        <v>868.89600000000007</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="2"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M20" s="15"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="3">
-        <v>23.72</v>
+        <v>156</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>74.510000000000005</v>
       </c>
       <c r="E21" s="4">
-        <v>925</v>
+        <v>588</v>
       </c>
       <c r="F21" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21941</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>43811.880000000005</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3976</v>
+      </c>
+      <c r="H21" s="6">
+        <v>598</v>
+      </c>
       <c r="I21" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21941</v>
+        <v>40433.880000000005</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="2"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="2" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1046.23</v>
+        <v>36</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45.64</v>
       </c>
       <c r="E22" s="4">
-        <v>20.9</v>
+        <v>185.6</v>
       </c>
       <c r="F22" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21866.206999999999</v>
+        <v>8470.7839999999997</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21866.206999999999</v>
+        <v>8470.7839999999997</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="2"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M22" s="15"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="T22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3">
-        <v>99.45</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>70.33</v>
       </c>
       <c r="E23" s="4">
-        <v>199.1</v>
+        <v>457</v>
       </c>
       <c r="F23" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>19800.494999999999</v>
+        <v>32140.809999999998</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>19800.494999999999</v>
+        <v>32140.809999999998</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="2"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="2" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3">
-        <v>250</v>
+        <v>158</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>73.5</v>
       </c>
       <c r="E24" s="4">
-        <v>70.2</v>
+        <v>137.4</v>
       </c>
       <c r="F24" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>17550</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>10098.9</v>
+      </c>
+      <c r="G24" s="6">
+        <v>890.1</v>
+      </c>
+      <c r="H24" s="6">
+        <f>443.4</f>
+        <v>443.4</v>
+      </c>
       <c r="I24" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>17550</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="2"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="2" t="s">
+        <v>9652.1999999999989</v>
+      </c>
+      <c r="J24" s="3">
+        <f>[2]Model!$BZ$53</f>
+        <v>9389.9160729781779</v>
+      </c>
+      <c r="K24" s="3">
+        <f>[2]Model!$BZ$55</f>
+        <v>68.364878580110513</v>
+      </c>
+      <c r="L24" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-6.9865597549516822E-2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O24" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="P24" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>21.366279069767444</v>
+      </c>
+      <c r="R24" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>18.75</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3">
-        <v>82.41</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <v>57</v>
       </c>
       <c r="E25" s="4">
-        <v>199.6</v>
+        <v>231.7</v>
       </c>
       <c r="F25" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16449.036</v>
+        <v>13206.9</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>16449.036</v>
+        <v>13206.9</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="2"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M25" s="15"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="12"/>
+      <c r="T25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="3">
-        <v>218.18</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="2">
+        <v>64.510000000000005</v>
       </c>
       <c r="E26" s="4">
-        <v>72.3</v>
+        <v>124.2</v>
       </c>
       <c r="F26" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15774.414000000001</v>
+        <v>8012.1420000000007</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15774.414000000001</v>
+        <v>8012.1420000000007</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="2"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M26" s="15"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="3">
-        <v>58.36</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="2">
+        <v>429.7</v>
       </c>
       <c r="E27" s="4">
-        <v>231.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F27" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13522.011999999999</v>
+        <v>35063.519999999997</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13522.011999999999</v>
+        <v>35063.519999999997</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="2"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="2" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3">
-        <v>176.15</v>
+        <v>57</v>
+      </c>
+      <c r="D28" s="2">
+        <v>159.94</v>
       </c>
       <c r="E28" s="4">
-        <v>73.8</v>
+        <v>29.7</v>
       </c>
       <c r="F28" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12999.87</v>
+        <v>4750.2179999999998</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12999.87</v>
+        <v>4750.2179999999998</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="2"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="2" t="s">
+      <c r="M28" s="15"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="12"/>
+      <c r="T28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="3">
-        <v>293</v>
+        <v>161</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2">
+        <v>155.03</v>
       </c>
       <c r="E29" s="4">
-        <f>'[2]Main | Overview'!$C$6</f>
-        <v>38.561999999999998</v>
+        <v>176.1</v>
       </c>
       <c r="F29" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11298.665999999999</v>
-      </c>
-      <c r="G29" s="6">
-        <f>'[2]Main | Overview'!$C$8</f>
-        <v>378.84799999999996</v>
-      </c>
-      <c r="H29" s="6">
-        <f>'[2]Main | Overview'!$C$9</f>
-        <v>0</v>
-      </c>
+        <v>27300.782999999999</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10919.817999999999</v>
-      </c>
-      <c r="J29" s="3">
-        <f>[2]Model!$BD$59</f>
-        <v>11771.989110515369</v>
-      </c>
-      <c r="K29" s="3">
-        <f>[2]Model!$BD$61</f>
-        <v>304.97381115324788</v>
-      </c>
-      <c r="L29" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>4.0866249669788024E-2</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="Q29" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="2:20" ht="13.9" customHeight="1">
+        <v>27300.782999999999</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
-        <v>15.47</v>
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>107.98</v>
       </c>
       <c r="E30" s="4">
-        <v>680.8</v>
+        <v>31.4</v>
       </c>
       <c r="F30" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>10531.976000000001</v>
+        <v>3390.5720000000001</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10531.976000000001</v>
+        <v>3390.5720000000001</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="2"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M30" s="15"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="12"/>
+      <c r="T30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3">
-        <v>71.790000000000006</v>
+        <v>163</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>516.88</v>
       </c>
       <c r="E31" s="4">
-        <v>137.4</v>
+        <v>356.6</v>
       </c>
       <c r="F31" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9863.9460000000017</v>
-      </c>
-      <c r="G31" s="6">
-        <v>890.1</v>
-      </c>
-      <c r="H31" s="6">
-        <f>443.4</f>
-        <v>443.4</v>
-      </c>
+        <v>184319.408</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9417.246000000001</v>
-      </c>
-      <c r="J31" s="3">
-        <f>[3]Model!$BZ$53</f>
-        <v>9389.9160729781779</v>
-      </c>
-      <c r="K31" s="3">
-        <f>[3]Model!$BZ$55</f>
-        <v>68.364878580110513</v>
-      </c>
-      <c r="L31" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-4.7710285832142207E-2</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="Q31" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R31" s="2" t="s">
+        <v>184319.408</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="12"/>
+      <c r="T31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="3">
-        <v>42.32</v>
+        <v>76</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2">
+        <v>155.94999999999999</v>
       </c>
       <c r="E32" s="4">
-        <v>216.1</v>
+        <v>2406</v>
       </c>
       <c r="F32" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9145.351999999999</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>375215.69999999995</v>
+      </c>
+      <c r="G32" s="3">
+        <v>38781</v>
+      </c>
+      <c r="H32" s="6">
+        <v>47900</v>
+      </c>
       <c r="I32" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9145.351999999999</v>
+        <v>384334.69999999995</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="2"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M32" s="15"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="3">
-        <v>157.6</v>
+        <v>61</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.46</v>
       </c>
       <c r="E33" s="4">
-        <v>53.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F33" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8447.36</v>
+        <v>12.848000000000001</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8447.36</v>
+        <v>12.848000000000001</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="2"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="2" t="s">
+      <c r="M33" s="15"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="12"/>
+      <c r="T33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="3">
-        <v>44.55</v>
+        <v>62</v>
+      </c>
+      <c r="D34" s="2">
+        <v>36.909999999999997</v>
       </c>
       <c r="E34" s="4">
-        <v>185.6</v>
+        <v>54.3</v>
       </c>
       <c r="F34" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8268.48</v>
+        <v>2004.2129999999997</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8268.48</v>
+        <v>2004.2129999999997</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="2"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M34" s="15"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="12"/>
+      <c r="T34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="3">
-        <v>63.92</v>
+        <v>209</v>
+      </c>
+      <c r="D35" s="2">
+        <v>90.3</v>
       </c>
       <c r="E35" s="4">
-        <v>124.2</v>
+        <v>22.56</v>
       </c>
       <c r="F35" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>7938.8640000000005</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+        <v>2037.1679999999999</v>
+      </c>
+      <c r="G35" s="6">
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
       <c r="I35" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7938.8640000000005</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>2037.1679999999999</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="2"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M35" s="15"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="3">
-        <v>135</v>
+        <v>43</v>
+      </c>
+      <c r="D36" s="2">
+        <v>162</v>
       </c>
       <c r="E36" s="4">
-        <v>46.3</v>
+        <v>53.6</v>
       </c>
       <c r="F36" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>6250.5</v>
+        <v>8683.2000000000007</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>6250.5</v>
+        <v>8683.2000000000007</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="2"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="2" t="s">
+      <c r="M36" s="15"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="12"/>
+      <c r="T36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="3">
-        <v>80</v>
+        <v>166</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2.65</v>
       </c>
       <c r="E37" s="4">
-        <v>59.3</v>
+        <v>20.2</v>
       </c>
       <c r="F37" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4744</v>
-      </c>
-      <c r="G37" s="6">
-        <f>41.141+0.067+70.397</f>
-        <v>111.605</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
+        <v>53.529999999999994</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4632.3950000000004</v>
+        <v>53.529999999999994</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="2"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M37" s="15"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="12"/>
+      <c r="T37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="3">
-        <v>149.62</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
+        <v>84.7</v>
       </c>
       <c r="E38" s="4">
-        <v>29.7</v>
+        <v>1315</v>
       </c>
       <c r="F38" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4443.7139999999999</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+        <v>111380.5</v>
+      </c>
+      <c r="G38" s="6">
+        <f>1240+6682</f>
+        <v>7922</v>
+      </c>
+      <c r="H38" s="6">
+        <f>2622+23935</f>
+        <v>26557</v>
+      </c>
       <c r="I38" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4443.7139999999999</v>
+        <v>130015.5</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="2"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="2" t="s">
+      <c r="M38" s="15"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="3">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6.74</v>
       </c>
       <c r="E39" s="4">
-        <v>52.11</v>
+        <v>146.9</v>
       </c>
       <c r="F39" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3699.81</v>
-      </c>
-      <c r="I39" s="3">
-        <v>3300</v>
+        <v>990.10600000000011</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>990.10600000000011</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="2"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M39" s="15"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="3">
-        <v>103.95</v>
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1076.01</v>
       </c>
       <c r="E40" s="4">
-        <v>31.4</v>
+        <v>20.9</v>
       </c>
       <c r="F40" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3264.0299999999997</v>
+        <v>22488.608999999997</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3264.0299999999997</v>
+        <v>22488.608999999997</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="2"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M40" s="15"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D41" s="3">
-        <v>12.99</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4">
-        <v>198.8</v>
+        <v>59.3</v>
       </c>
       <c r="F41" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2582.4120000000003</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+        <v>4744</v>
+      </c>
+      <c r="G41" s="6">
+        <f>41.141+0.067+70.397</f>
+        <v>111.605</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
       <c r="I41" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2582.4120000000003</v>
+        <v>4632.3950000000004</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="2"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M41" s="15"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="3">
-        <v>90.61</v>
+        <v>42</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18.989999999999998</v>
       </c>
       <c r="E42" s="4">
-        <v>22.56</v>
+        <v>108.5</v>
       </c>
       <c r="F42" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2044.1615999999999</v>
-      </c>
-      <c r="G42" s="6">
-        <f>25.61+274.112</f>
-        <v>299.72200000000004</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
+        <v>2060.415</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2044.1615999999999</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>2060.415</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="2"/>
-      <c r="Q42" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R42" s="2" t="s">
+      <c r="M42" s="15"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S42" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
-        <v>17.86</v>
+        <v>63</v>
+      </c>
+      <c r="D43" s="2">
+        <v>13.91</v>
       </c>
       <c r="E43" s="4">
-        <v>108.5</v>
+        <v>38.5</v>
       </c>
       <c r="F43" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1937.81</v>
+        <v>535.53499999999997</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1937.81</v>
+        <v>535.53499999999997</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="2"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="2" t="s">
+      <c r="M43" s="15"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="3">
-        <v>35.630000000000003</v>
+        <v>64</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10.85</v>
       </c>
       <c r="E44" s="4">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F44" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1934.7090000000001</v>
+        <v>573.96499999999992</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1934.7090000000001</v>
+        <v>573.96499999999992</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="2"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="2" t="s">
+      <c r="M44" s="15"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="3">
-        <v>33.909999999999997</v>
+        <v>172</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2">
+        <v>294.44</v>
       </c>
       <c r="E45" s="4">
-        <v>48.9</v>
+        <v>38.6</v>
       </c>
       <c r="F45" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1658.1989999999998</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+        <v>11365.384</v>
+      </c>
+      <c r="G45" s="6">
+        <v>379</v>
+      </c>
+      <c r="H45" s="6">
+        <f>'[1]Main | Overview'!$C$9</f>
+        <v>0</v>
+      </c>
       <c r="I45" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1658.1989999999998</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="2"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="2" t="s">
+        <v>10986.384</v>
+      </c>
+      <c r="J45" s="3">
+        <f>[1]Model!$BD$59</f>
+        <v>12198.536959271867</v>
+      </c>
+      <c r="K45" s="3">
+        <f>[1]Model!$BD$61</f>
+        <v>316.024273556266</v>
+      </c>
+      <c r="L45" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>7.3306186510888383E-2</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="N45" s="9">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="P45" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>77.484210526315792</v>
+      </c>
+      <c r="R45" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>56.623076923076923</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="3">
-        <v>49.71</v>
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25.35</v>
       </c>
       <c r="E46" s="4">
-        <v>30.9</v>
+        <v>925</v>
       </c>
       <c r="F46" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1536.039</v>
+        <v>23448.75</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1536.039</v>
+        <v>23448.75</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="2"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="2" t="s">
+      <c r="M46" s="15"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="T46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="3">
-        <v>27.5</v>
+        <v>34</v>
+      </c>
+      <c r="D47" s="2">
+        <v>253.29</v>
       </c>
       <c r="E47" s="4">
-        <v>46.55</v>
+        <v>70.2</v>
       </c>
       <c r="F47" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1280.125</v>
+        <v>17780.957999999999</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
-        <v>1180</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>17780.957999999999</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="2"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M47" s="15"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="12"/>
+      <c r="T47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="3">
-        <v>16.989999999999998</v>
+        <v>38</v>
+      </c>
+      <c r="D48" s="2">
+        <v>41.31</v>
       </c>
       <c r="E48" s="4">
-        <v>66.3</v>
+        <v>216.1</v>
       </c>
       <c r="F48" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1126.4369999999999</v>
+        <v>8927.0910000000003</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1126.4369999999999</v>
+        <v>8927.0910000000003</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="2"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M48" s="15"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" s="12"/>
+      <c r="T48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6.76</v>
+        <v>18</v>
+      </c>
+      <c r="D49" s="2">
+        <v>236.59</v>
       </c>
       <c r="E49" s="4">
         <v>146.9</v>
       </c>
       <c r="F49" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>993.04399999999998</v>
+        <v>34755.071000000004</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>993.04399999999998</v>
+        <v>34755.071000000004</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="2"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M49" s="15"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="12"/>
+      <c r="T49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D50" s="3">
-        <v>30.03</v>
+        <v>27.5</v>
       </c>
       <c r="E50" s="4">
-        <v>28.8</v>
+        <v>46.55</v>
       </c>
       <c r="F50" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>864.86400000000003</v>
+        <v>1280.125</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>864.86400000000003</v>
+        <v>1180</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="2"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M50" s="15"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="12"/>
+      <c r="T50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="3">
-        <v>11.24</v>
+        <v>67</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.3499999999999996</v>
       </c>
       <c r="E51" s="4">
-        <v>57.7</v>
+        <v>16.5</v>
       </c>
       <c r="F51" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>648.548</v>
+        <v>71.774999999999991</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>648.548</v>
+        <v>71.774999999999991</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="2"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="2" t="s">
+      <c r="M51" s="15"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="3">
-        <v>11.5</v>
+        <v>27</v>
+      </c>
+      <c r="D52" s="2">
+        <v>225</v>
       </c>
       <c r="E52" s="4">
-        <v>52.9</v>
+        <v>98.9</v>
       </c>
       <c r="F52" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>608.35</v>
+        <v>22252.5</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>608.35</v>
+        <v>22252.5</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="2"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M52" s="15"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="12"/>
+      <c r="T52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3">
-        <v>13.43</v>
+        <v>68</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.25</v>
       </c>
       <c r="E53" s="4">
-        <v>38.5</v>
+        <v>55.7</v>
       </c>
       <c r="F53" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>517.05499999999995</v>
+        <v>236.72500000000002</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>517.05499999999995</v>
+        <v>236.72500000000002</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="2"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="2" t="s">
+      <c r="M53" s="15"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="12"/>
+      <c r="T53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S53" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="3">
-        <v>9.35</v>
+        <v>176</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>373.94</v>
       </c>
       <c r="E54" s="4">
-        <v>40.4</v>
+        <v>381.4</v>
       </c>
       <c r="F54" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>377.73999999999995</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+        <v>142620.71599999999</v>
+      </c>
+      <c r="G54" s="6">
+        <f>3850+834</f>
+        <v>4684</v>
+      </c>
+      <c r="H54" s="6">
+        <f>2159+13325</f>
+        <v>15484</v>
+      </c>
       <c r="I54" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>377.73999999999995</v>
+        <v>153420.71599999999</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="2"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="2" t="s">
+      <c r="M54" s="15"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V54" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="3">
-        <v>13.5</v>
+      <c r="D55" s="2">
+        <v>14.13</v>
       </c>
       <c r="E55" s="4">
         <v>23.9</v>
       </c>
       <c r="F55" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>322.64999999999998</v>
+        <v>337.70699999999999</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>322.64999999999998</v>
+        <v>337.70699999999999</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="2"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="2" t="s">
+      <c r="M55" s="15"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S55" s="12"/>
+      <c r="T55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="U55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="2:20" ht="13.9" customHeight="1">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1.37</v>
+        <v>41</v>
+      </c>
+      <c r="D56" s="2">
+        <v>137.75</v>
       </c>
       <c r="E56" s="4">
-        <v>185.8</v>
+        <v>46.3</v>
       </c>
       <c r="F56" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>254.54600000000005</v>
+        <v>6377.8249999999998</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>254.54600000000005</v>
+        <v>6377.8249999999998</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="2"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="2" t="s">
+      <c r="M56" s="15"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S56" s="12"/>
+      <c r="T56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="3">
-        <v>4.25</v>
+        <v>70</v>
+      </c>
+      <c r="D57" s="2">
+        <v>431.7</v>
       </c>
       <c r="E57" s="4">
-        <v>55.7</v>
+        <v>380.8</v>
       </c>
       <c r="F57" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>236.72500000000002</v>
+        <v>164391.35999999999</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>236.72500000000002</v>
+        <v>164391.35999999999</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="2"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M57" s="15"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S57" s="12"/>
+      <c r="T57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="3">
-        <v>4.6900000000000004</v>
+        <v>71</v>
+      </c>
+      <c r="D58" s="2">
+        <v>18.46</v>
       </c>
       <c r="E58" s="4">
-        <v>16.5</v>
+        <v>66.3</v>
       </c>
       <c r="F58" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>77.385000000000005</v>
+        <v>1223.8979999999999</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>77.385000000000005</v>
+        <v>1223.8979999999999</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="2"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="2" t="s">
+      <c r="M58" s="15"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S58" s="12"/>
+      <c r="T58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2.0699999999999998</v>
+        <v>24</v>
+      </c>
+      <c r="D59" s="2">
+        <v>211.29</v>
       </c>
       <c r="E59" s="4">
-        <v>20.2</v>
+        <v>72.3</v>
       </c>
       <c r="F59" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>41.813999999999993</v>
+        <v>15276.266999999998</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>41.813999999999993</v>
+        <v>15276.266999999998</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="2"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M59" s="15"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S59" s="12"/>
+      <c r="T59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.94</v>
+        <v>44</v>
+      </c>
+      <c r="D60" s="2">
+        <v>14.28</v>
       </c>
       <c r="E60" s="4">
-        <v>37.6</v>
+        <v>198.8</v>
       </c>
       <c r="F60" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>35.344000000000001</v>
+        <v>2838.864</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>35.344000000000001</v>
+        <v>2838.864</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="2"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="2" t="s">
+      <c r="M60" s="15"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R60" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S60" s="12"/>
+      <c r="T60" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1.48</v>
+        <v>25</v>
+      </c>
+      <c r="D61" s="2">
+        <v>103.21</v>
       </c>
       <c r="E61" s="4">
-        <v>8.8000000000000007</v>
+        <v>199.1</v>
       </c>
       <c r="F61" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13.024000000000001</v>
+        <v>20549.110999999997</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13.024000000000001</v>
+        <v>20549.110999999997</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="2"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="2" t="s">
+      <c r="M61" s="15"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R61" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S61" s="12"/>
+      <c r="T61" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="2:20" ht="13.9" customHeight="1">
+      <c r="U61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -4327,92 +4811,114 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="2"/>
-      <c r="Q62" s="12"/>
-    </row>
-    <row r="63" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M62" s="15"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="2"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="2"/>
-      <c r="Q63" s="12"/>
-    </row>
-    <row r="64" spans="2:20" ht="13.9" customHeight="1">
+      <c r="M63" s="15"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="2"/>
+      <c r="S63" s="12"/>
+    </row>
+    <row r="64" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="2"/>
-      <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M64" s="15"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="2"/>
+      <c r="S64" s="12"/>
+    </row>
+    <row r="65" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="2"/>
-      <c r="Q65" s="12"/>
-    </row>
-    <row r="66" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M65" s="15"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="2"/>
+      <c r="S65" s="12"/>
+    </row>
+    <row r="66" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="2"/>
-      <c r="Q66" s="12"/>
-    </row>
-    <row r="67" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M66" s="15"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="2"/>
+      <c r="S66" s="12"/>
+    </row>
+    <row r="67" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="2"/>
-      <c r="Q67" s="12"/>
-    </row>
-    <row r="68" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M67" s="15"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="2"/>
+      <c r="S67" s="12"/>
+    </row>
+    <row r="68" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="2"/>
-      <c r="Q68" s="12"/>
-    </row>
-    <row r="69" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M68" s="15"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="2"/>
+      <c r="S68" s="12"/>
+    </row>
+    <row r="69" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="2"/>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M69" s="15"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="2"/>
+      <c r="S69" s="12"/>
+    </row>
+    <row r="70" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="2"/>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M70" s="15"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="2"/>
+      <c r="S70" s="12"/>
+    </row>
+    <row r="71" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="2"/>
-      <c r="Q71" s="12"/>
-    </row>
-    <row r="72" spans="10:17" ht="13.9" customHeight="1">
+      <c r="M71" s="15"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="2"/>
+      <c r="S71" s="12"/>
+    </row>
+    <row r="72" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="2"/>
-      <c r="Q72" s="12"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="2"/>
+      <c r="S72" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
-    <hyperlink ref="C31" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
-    <hyperlink ref="C37" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
+    <hyperlink ref="C38" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
+    <hyperlink ref="C41" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
+    <hyperlink ref="C45" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
+    <hyperlink ref="C54" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
     <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>
@@ -4430,50 +4936,50 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="2" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15">
-      <c r="B5" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15">
-      <c r="B8" s="10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="2" t="s">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15">
-      <c r="B11" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC33A24-EFB8-45C9-95A1-3554F4EA19D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710781D4-B9C0-4AB3-A6A2-92E6BA3E36A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -190,9 +191,6 @@
     <t>GMED</t>
   </si>
   <si>
-    <t>MBOT</t>
-  </si>
-  <si>
     <t>DHR</t>
   </si>
   <si>
@@ -202,9 +200,6 @@
     <t>ANGO</t>
   </si>
   <si>
-    <t>APYX</t>
-  </si>
-  <si>
     <t>ATRC</t>
   </si>
   <si>
@@ -226,9 +221,6 @@
     <t>JNJ</t>
   </si>
   <si>
-    <t>LFWD</t>
-  </si>
-  <si>
     <t>LIVN</t>
   </si>
   <si>
@@ -244,9 +236,6 @@
     <t>PHG</t>
   </si>
   <si>
-    <t>SRTS</t>
-  </si>
-  <si>
     <t>STIM</t>
   </si>
   <si>
@@ -274,9 +263,6 @@
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
-    <t>Lifeward (formerly ReWalk Robotics)</t>
-  </si>
-  <si>
     <t>Broadline Medical Devices</t>
   </si>
   <si>
@@ -301,9 +287,6 @@
     <t>AngioDynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">Apyx Medical </t>
-  </si>
-  <si>
     <t>Life Sciences</t>
   </si>
   <si>
@@ -325,9 +308,6 @@
     <t>Vascular Intervention</t>
   </si>
   <si>
-    <t>Electrosurgery</t>
-  </si>
-  <si>
     <t>Cardiac Ablation</t>
   </si>
   <si>
@@ -400,18 +380,12 @@
     <t>Pharmaceuticals/Devices</t>
   </si>
   <si>
-    <t>Rehabilitation Robotics</t>
-  </si>
-  <si>
     <t>Neuromodulation</t>
   </si>
   <si>
     <t>Patient Monitoring</t>
   </si>
   <si>
-    <t>Micro-Robotic Surgery</t>
-  </si>
-  <si>
     <t>Biologics</t>
   </si>
   <si>
@@ -442,9 +416,6 @@
     <t>Respiratory Therapy</t>
   </si>
   <si>
-    <t>Radiation Therapy</t>
-  </si>
-  <si>
     <t>Sterilization</t>
   </si>
   <si>
@@ -541,9 +512,6 @@
     <t xml:space="preserve">Masimo </t>
   </si>
   <si>
-    <t xml:space="preserve">Microbot Medical </t>
-  </si>
-  <si>
     <t>MiMedx Group</t>
   </si>
   <si>
@@ -565,9 +533,6 @@
     <t xml:space="preserve">ResMed </t>
   </si>
   <si>
-    <t>Sensus Healthcare</t>
-  </si>
-  <si>
     <t>Neuronetics</t>
   </si>
   <si>
@@ -658,9 +623,6 @@
     <t>FY Earnings Estimates</t>
   </si>
   <si>
-    <t>Next Year's Earnings Estimates</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -689,6 +651,12 @@
   </si>
   <si>
     <t xml:space="preserve">1σ ± move </t>
+  </si>
+  <si>
+    <t>FY Earnings Estimates (2-years)</t>
+  </si>
+  <si>
+    <t># of Employees</t>
   </si>
 </sst>
 </file>
@@ -699,7 +667,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,8 +807,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -849,7 +817,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -866,79 +834,6 @@
         <name val="Calibre"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1018,6 +913,7 @@
         <name val="Calibre"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1035,6 +931,95 @@
         <name val="Calibre"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1249,14 +1234,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86637</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92240</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1271,8 +1256,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241260" y="6938950"/>
-          <a:ext cx="17689155" cy="5603"/>
+          <a:off x="232121" y="6648239"/>
+          <a:ext cx="18473698" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1304,14 +1289,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>81033</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>86636</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>94919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1326,8 +1311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252466" y="8468720"/>
-          <a:ext cx="17677949" cy="5603"/>
+          <a:off x="246285" y="8115164"/>
+          <a:ext cx="17723565" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1359,14 +1344,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1381,8 +1366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="224118" y="10040472"/>
-          <a:ext cx="14573250" cy="5603"/>
+          <a:off x="218271" y="6732301"/>
+          <a:ext cx="17734771" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1420,6 +1405,37 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="53">
+          <cell r="BZ53">
+            <v>9389.9160729781779</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="BZ55">
+            <v>68.364878580110513</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Main | Overview"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
@@ -1443,12 +1459,12 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="59">
-          <cell r="BD59">
+          <cell r="BU59">
             <v>12198.536959271867</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="BD61">
+          <cell r="BU61">
             <v>316.024273556266</v>
           </cell>
         </row>
@@ -1468,83 +1484,53 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="53">
-          <cell r="BZ53">
-            <v>9389.9160729781779</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="BZ55">
-            <v>68.364878580110513</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:V72" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="B2:V72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:V72">
-    <sortCondition ref="C2:C72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:W72" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="B2:W72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W72">
+    <sortCondition descending="1" ref="F2:F72"/>
   </sortState>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="16">
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="17">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="15">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="14">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="12">
-      <calculatedColumnFormula>[1]Model!$BD$59</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
+      <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="11">
-      <calculatedColumnFormula>[1]Model!$BD$61</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
+      <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="Next Year's Earnings Estimates" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="1">
+    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="FY Earnings Estimates (2-years)" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="6">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="0">
-      <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="5">
+      <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{D887EC50-85A5-45A9-9F01-59353ED69EB2}" name="# of Employees" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1813,13 +1799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1831,24 +1817,26 @@
     <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="18" width="8.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="3" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="14.25">
       <c r="A1" s="13" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B1" s="3"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,108 +1862,128 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13.9" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="2">
-        <v>107.07</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>285.2</v>
+        <v>2406</v>
       </c>
       <c r="F3" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>30536.363999999998</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>374854.80000000005</v>
+      </c>
+      <c r="G3" s="3">
+        <v>38781</v>
+      </c>
+      <c r="H3" s="6">
+        <v>47900</v>
+      </c>
       <c r="I3" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>30536.363999999998</v>
+        <v>383973.80000000005</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="15"/>
+      <c r="M3" s="2">
+        <v>0.48</v>
+      </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="2" t="s">
-        <v>87</v>
+      <c r="O3" s="15">
+        <v>10.61</v>
+      </c>
+      <c r="P3" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>14.684260131950991</v>
+      </c>
+      <c r="R3" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>14.036036036036037</v>
+      </c>
+      <c r="S3" s="2">
+        <v>138100</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.9" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>129.4</v>
+        <v>134.38999999999999</v>
       </c>
       <c r="E4" s="4">
         <v>1734</v>
       </c>
       <c r="F4" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>224379.6</v>
+        <v>233032.25999999998</v>
       </c>
       <c r="G4" s="6">
         <v>7967</v>
@@ -1985,2824 +1993,2716 @@
       </c>
       <c r="I4" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>230537.60000000001</v>
+        <v>239190.25999999998</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="16">
+        <v>0.8</v>
+      </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>186</v>
+      <c r="O4" s="15">
+        <v>5.16</v>
+      </c>
+      <c r="P4" s="15">
+        <v>5.68</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>26.04457364341085</v>
+      </c>
+      <c r="R4" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>23.660211267605632</v>
+      </c>
+      <c r="S4" s="2">
+        <v>114000</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="13.9" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>97.61</v>
+        <v>528.99</v>
       </c>
       <c r="E5" s="4">
-        <v>494.6</v>
+        <v>356.6</v>
       </c>
       <c r="F5" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>48277.906000000003</v>
+        <v>188637.834</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>48277.906000000003</v>
+        <v>188637.834</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="15"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="12"/>
       <c r="U5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="13.9" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
-        <v>194.84</v>
+        <v>423</v>
       </c>
       <c r="E6" s="4">
-        <v>73.8</v>
+        <v>380.8</v>
       </c>
       <c r="F6" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>14379.191999999999</v>
+        <v>161078.39999999999</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>14379.191999999999</v>
+        <v>161078.39999999999</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="15"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="12"/>
       <c r="U6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="13.9" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>9.89</v>
+        <v>104.98</v>
       </c>
       <c r="E7" s="4">
-        <v>40.4</v>
+        <v>1476</v>
       </c>
       <c r="F7" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>399.55599999999998</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>154950.48000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2502</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10885</v>
+      </c>
       <c r="I7" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>399.55599999999998</v>
+        <v>163333.48000000001</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="2" t="s">
+      <c r="M7" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O7" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="P7" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>30.517441860465119</v>
+      </c>
+      <c r="R7" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>26.780612244897959</v>
+      </c>
+      <c r="S7" s="2">
+        <v>53000</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="13.9" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2">
-        <v>1.04</v>
+        <v>198.43</v>
       </c>
       <c r="E8" s="4">
-        <v>37.6</v>
+        <v>719.2</v>
       </c>
       <c r="F8" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>39.104000000000006</v>
+        <v>142710.856</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>39.104000000000006</v>
+        <v>142710.856</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="15"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="12"/>
       <c r="U8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.9" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>164</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>31.03</v>
+        <v>373.67</v>
       </c>
       <c r="E9" s="4">
-        <v>48.9</v>
+        <v>381.4</v>
       </c>
       <c r="F9" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1517.367</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>142517.73800000001</v>
+      </c>
+      <c r="G9" s="6">
+        <f>3850+834</f>
+        <v>4684</v>
+      </c>
+      <c r="H9" s="6">
+        <f>2159+13325</f>
+        <v>15484</v>
+      </c>
       <c r="I9" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1517.367</v>
+        <v>153317.73800000001</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="2" t="s">
-        <v>91</v>
+      <c r="M9" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="O9" s="15">
+        <v>13.44</v>
+      </c>
+      <c r="P9" s="15">
+        <v>14.87</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>27.802827380952383</v>
+      </c>
+      <c r="R9" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>25.129119031607264</v>
+      </c>
+      <c r="S9" s="2">
+        <v>53000</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13.9" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>12.99</v>
+        <v>85.25</v>
       </c>
       <c r="E10" s="4">
-        <v>680.8</v>
+        <v>1315</v>
       </c>
       <c r="F10" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8843.5919999999987</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>112103.75</v>
+      </c>
+      <c r="G10" s="6">
+        <f>1240+6682</f>
+        <v>7922</v>
+      </c>
+      <c r="H10" s="6">
+        <f>2622+23935</f>
+        <v>26557</v>
+      </c>
       <c r="I10" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8843.5919999999987</v>
+        <v>130738.75</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="15"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="2" t="s">
-        <v>87</v>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" s="2">
+        <v>95000</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.9" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="3">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>169.5</v>
       </c>
       <c r="E11" s="4">
-        <v>52.11</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="F11" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3699.81</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3300</v>
+        <v>49002.450000000004</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>49002.450000000004</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="15"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.9" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
-        <v>205.6</v>
+        <v>98.3</v>
       </c>
       <c r="E12" s="4">
-        <v>289.10000000000002</v>
+        <v>494.6</v>
       </c>
       <c r="F12" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>59438.960000000006</v>
+        <v>48619.18</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>59438.960000000006</v>
+        <v>48619.18</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="15"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="12"/>
       <c r="U12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.9" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>103.59</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="E13" s="4">
-        <v>1476</v>
+        <v>588</v>
       </c>
       <c r="F13" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>152898.84</v>
+        <v>44482.200000000004</v>
       </c>
       <c r="G13" s="6">
-        <v>2502</v>
+        <v>3976</v>
       </c>
       <c r="H13" s="6">
-        <v>10885</v>
+        <v>598</v>
       </c>
       <c r="I13" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>161281.84</v>
+        <v>41104.200000000004</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="15">
-        <v>0.73</v>
+      <c r="M13" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="N13" s="9"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>91</v>
+      <c r="O13" s="15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="P13" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>30.627530364372468</v>
+      </c>
+      <c r="R13" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>27.509090909090911</v>
+      </c>
+      <c r="S13" s="2">
+        <v>15800</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="13.9" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>1.32</v>
+        <v>471.31</v>
       </c>
       <c r="E14" s="4">
-        <v>185.8</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F14" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>245.25600000000003</v>
+        <v>38458.896000000001</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>245.25600000000003</v>
+        <v>38458.896000000001</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="15"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="12"/>
       <c r="U14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.9" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>49.6</v>
+        <v>239.95</v>
       </c>
       <c r="E15" s="4">
-        <v>30.9</v>
+        <v>146.9</v>
       </c>
       <c r="F15" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1532.6399999999999</v>
+        <v>35248.654999999999</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1532.6399999999999</v>
+        <v>35248.654999999999</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="15"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="12"/>
       <c r="U15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.9" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
-        <v>82.8</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="E16" s="4">
-        <v>199.6</v>
+        <v>457</v>
       </c>
       <c r="F16" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16526.879999999997</v>
+        <v>32565.820000000003</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>16526.879999999997</v>
+        <v>32565.820000000003</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="15"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="12"/>
       <c r="U16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="2:23" ht="13.9" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2">
-        <v>196.01</v>
+        <v>81.28</v>
       </c>
       <c r="E17" s="4">
-        <v>719.2</v>
+        <v>390.7</v>
       </c>
       <c r="F17" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>140970.39199999999</v>
+        <v>31756.095999999998</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>140970.39199999999</v>
+        <v>31756.095999999998</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="15"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="2" t="s">
-        <v>87</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="12"/>
       <c r="U17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="2:23" ht="13.9" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>71</v>
+        <v>108.5</v>
       </c>
       <c r="E18" s="4">
-        <v>390.7</v>
+        <v>285.2</v>
       </c>
       <c r="F18" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>27739.7</v>
+        <v>30944.199999999997</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27739.7</v>
+        <v>30944.199999999997</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="15"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R18" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="12"/>
       <c r="U18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" ht="13.9" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2">
-        <v>12.9</v>
+        <v>156.01</v>
       </c>
       <c r="E19" s="4">
-        <v>57.7</v>
+        <v>176.1</v>
       </c>
       <c r="F19" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>744.33</v>
+        <v>27473.360999999997</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>744.33</v>
+        <v>27473.360999999997</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="15"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="12"/>
       <c r="U19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:23" ht="13.9" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2">
-        <v>30.17</v>
+        <v>25.59</v>
       </c>
       <c r="E20" s="4">
-        <v>28.8</v>
+        <v>925</v>
       </c>
       <c r="F20" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>868.89600000000007</v>
+        <v>23670.75</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>868.89600000000007</v>
+        <v>23670.75</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="15"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="12"/>
       <c r="U20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23" ht="13.9" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
+        <v>157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>74.510000000000005</v>
+        <v>1100.01</v>
       </c>
       <c r="E21" s="4">
-        <v>588</v>
+        <v>20.9</v>
       </c>
       <c r="F21" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>43811.880000000005</v>
-      </c>
-      <c r="G21" s="6">
-        <v>3976</v>
-      </c>
-      <c r="H21" s="6">
-        <v>598</v>
-      </c>
+        <v>22990.208999999999</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>40433.880000000005</v>
+        <v>22990.208999999999</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="15"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="12"/>
       <c r="U21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23" ht="13.9" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>45.64</v>
+        <v>224.81</v>
       </c>
       <c r="E22" s="4">
-        <v>185.6</v>
+        <v>98.9</v>
       </c>
       <c r="F22" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8470.7839999999997</v>
+        <v>22233.709000000003</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8470.7839999999997</v>
+        <v>22233.709000000003</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="15"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="2" t="s">
-        <v>107</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="12"/>
       <c r="U22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23" ht="13.9" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2">
-        <v>70.33</v>
+        <v>102.38</v>
       </c>
       <c r="E23" s="4">
-        <v>457</v>
+        <v>199.1</v>
       </c>
       <c r="F23" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32140.809999999998</v>
+        <v>20383.858</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32140.809999999998</v>
+        <v>20383.858</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="15"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="12"/>
       <c r="U23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="2:23" ht="13.9" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="2">
-        <v>73.5</v>
+        <v>257.89999999999998</v>
       </c>
       <c r="E24" s="4">
-        <v>137.4</v>
+        <v>70.2</v>
       </c>
       <c r="F24" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>10098.9</v>
-      </c>
-      <c r="G24" s="6">
-        <v>890.1</v>
-      </c>
-      <c r="H24" s="6">
-        <f>443.4</f>
-        <v>443.4</v>
-      </c>
+        <v>18104.579999999998</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9652.1999999999989</v>
-      </c>
-      <c r="J24" s="3">
-        <f>[2]Model!$BZ$53</f>
-        <v>9389.9160729781779</v>
-      </c>
-      <c r="K24" s="3">
-        <f>[2]Model!$BZ$55</f>
-        <v>68.364878580110513</v>
-      </c>
-      <c r="L24" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-6.9865597549516822E-2</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0.73</v>
-      </c>
-      <c r="N24" s="9">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O24" s="16">
-        <v>3.44</v>
-      </c>
-      <c r="P24" s="16">
-        <v>3.92</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>21.366279069767444</v>
-      </c>
-      <c r="R24" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>18.75</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>18104.579999999998</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="12"/>
       <c r="U24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="2:23" ht="13.9" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
-        <v>57</v>
+        <v>83.09</v>
       </c>
       <c r="E25" s="4">
-        <v>231.7</v>
+        <v>199.6</v>
       </c>
       <c r="F25" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13206.9</v>
+        <v>16584.763999999999</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13206.9</v>
+        <v>16584.763999999999</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="15"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="2" t="s">
-        <v>107</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="12"/>
       <c r="U25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="2:23" ht="13.9" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>64.510000000000005</v>
+        <v>211.29</v>
       </c>
       <c r="E26" s="4">
-        <v>124.2</v>
+        <v>72.3</v>
       </c>
       <c r="F26" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8012.1420000000007</v>
+        <v>15276.266999999998</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8012.1420000000007</v>
+        <v>15276.266999999998</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="15"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="2" t="s">
-        <v>112</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="12"/>
       <c r="U26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="2:23" ht="13.9" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>429.7</v>
+        <v>179.8</v>
       </c>
       <c r="E27" s="4">
-        <v>81.599999999999994</v>
+        <v>73.8</v>
       </c>
       <c r="F27" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>35063.519999999997</v>
+        <v>13269.24</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>35063.519999999997</v>
+        <v>13269.24</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="15"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="2" t="s">
-        <v>107</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="12"/>
       <c r="U27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="2:23" ht="13.9" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>159.94</v>
+        <v>53.5</v>
       </c>
       <c r="E28" s="4">
-        <v>29.7</v>
+        <v>231.7</v>
       </c>
       <c r="F28" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4750.2179999999998</v>
+        <v>12395.949999999999</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4750.2179999999998</v>
+        <v>12395.949999999999</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="15"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="12"/>
       <c r="U28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" ht="13.9" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="2">
-        <v>155.03</v>
+        <v>296</v>
       </c>
       <c r="E29" s="4">
-        <v>176.1</v>
+        <v>38.6</v>
       </c>
       <c r="F29" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>27300.782999999999</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+        <v>11425.6</v>
+      </c>
+      <c r="G29" s="6">
+        <v>379</v>
+      </c>
+      <c r="H29" s="6">
+        <f>'[2]Main | Overview'!$C$9</f>
+        <v>0</v>
+      </c>
       <c r="I29" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27300.782999999999</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="2" t="s">
-        <v>112</v>
+        <v>11046.6</v>
+      </c>
+      <c r="J29" s="3">
+        <f>[2]Model!$BU$59</f>
+        <v>12198.536959271867</v>
+      </c>
+      <c r="K29" s="3">
+        <f>[2]Model!$BU$61</f>
+        <v>316.024273556266</v>
+      </c>
+      <c r="L29" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>6.7649572825222881E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="N29" s="9">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="O29" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="P29" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>77.89473684210526</v>
+      </c>
+      <c r="R29" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>56.92307692307692</v>
+      </c>
+      <c r="S29" s="2">
+        <v>4500</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="13.9" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="2">
-        <v>107.98</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="E30" s="4">
-        <v>31.4</v>
+        <v>137.4</v>
       </c>
       <c r="F30" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3390.5720000000001</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+        <v>9891.4259999999995</v>
+      </c>
+      <c r="G30" s="6">
+        <v>890.1</v>
+      </c>
+      <c r="H30" s="6">
+        <f>443.4</f>
+        <v>443.4</v>
+      </c>
       <c r="I30" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3390.5720000000001</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="15"/>
+        <v>9444.7259999999987</v>
+      </c>
+      <c r="J30" s="3">
+        <f>[1]Model!$BZ$53</f>
+        <v>9389.9160729781779</v>
+      </c>
+      <c r="K30" s="3">
+        <f>[1]Model!$BZ$55</f>
+        <v>68.364878580110513</v>
+      </c>
+      <c r="L30" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-5.0355902484921278E-2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.29</v>
+      </c>
       <c r="N30" s="9"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="2" t="s">
-        <v>91</v>
+      <c r="O30" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>20.927325581395348</v>
+      </c>
+      <c r="R30" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>18.364795918367346</v>
+      </c>
+      <c r="S30" s="2">
+        <v>5300</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" ht="13.9" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
-        <v>516.88</v>
+        <v>51.7</v>
       </c>
       <c r="E31" s="4">
-        <v>356.6</v>
+        <v>185.6</v>
       </c>
       <c r="F31" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>184319.408</v>
+        <v>9595.52</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>184319.408</v>
+        <v>9595.52</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="15"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
       <c r="Q31" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="12"/>
       <c r="U31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="2:23" ht="13.9" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="2">
-        <v>155.94999999999999</v>
+        <v>43.13</v>
       </c>
       <c r="E32" s="4">
-        <v>2406</v>
+        <v>216.1</v>
       </c>
       <c r="F32" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>375215.69999999995</v>
-      </c>
-      <c r="G32" s="3">
-        <v>38781</v>
-      </c>
-      <c r="H32" s="6">
-        <v>47900</v>
-      </c>
+        <v>9320.393</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>384334.69999999995</v>
+        <v>9320.393</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="15"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
       <c r="Q32" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>89</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="12"/>
       <c r="U32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="2:23" ht="13.9" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2">
-        <v>1.46</v>
+        <v>165.87</v>
       </c>
       <c r="E33" s="4">
-        <v>8.8000000000000007</v>
+        <v>53.6</v>
       </c>
       <c r="F33" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12.848000000000001</v>
+        <v>8890.6319999999996</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12.848000000000001</v>
+        <v>8890.6319999999996</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="15"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="12"/>
       <c r="U33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="2:23" ht="13.9" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
-        <v>36.909999999999997</v>
+        <v>12.87</v>
       </c>
       <c r="E34" s="4">
-        <v>54.3</v>
+        <v>680.8</v>
       </c>
       <c r="F34" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2004.2129999999997</v>
+        <v>8761.8959999999988</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2004.2129999999997</v>
+        <v>8761.8959999999988</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="15"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="12"/>
       <c r="U34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="2:23" ht="13.9" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2">
-        <v>90.3</v>
+        <v>65.3</v>
       </c>
       <c r="E35" s="4">
-        <v>22.56</v>
+        <v>124.2</v>
       </c>
       <c r="F35" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2037.1679999999999</v>
-      </c>
-      <c r="G35" s="6">
-        <f>25.61+274.112</f>
-        <v>299.72200000000004</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
+        <v>8110.26</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2037.1679999999999</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>8110.26</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="15"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="12"/>
       <c r="U35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="2:23" ht="13.9" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>162</v>
+        <v>126.44</v>
       </c>
       <c r="E36" s="4">
-        <v>53.6</v>
+        <v>46.3</v>
       </c>
       <c r="F36" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8683.2000000000007</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>5854.1719999999996</v>
+      </c>
+      <c r="G36" s="6">
+        <v>243.2</v>
+      </c>
+      <c r="H36" s="6">
+        <f>96.9+1661.5</f>
+        <v>1758.4</v>
+      </c>
       <c r="I36" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8683.2000000000007</v>
+        <v>7369.3719999999994</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="15"/>
+      <c r="M36" s="2">
+        <v>1.19</v>
+      </c>
       <c r="N36" s="9"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="2" t="s">
-        <v>91</v>
+      <c r="O36" s="15">
+        <v>13.37</v>
+      </c>
+      <c r="P36" s="15">
+        <v>14.02</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>9.4569932685115941</v>
+      </c>
+      <c r="R36" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>9.0185449358059913</v>
+      </c>
+      <c r="S36" s="2">
+        <v>14100</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="13.9" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2">
-        <v>2.65</v>
+        <v>159.81</v>
       </c>
       <c r="E37" s="4">
-        <v>20.2</v>
+        <v>29.7</v>
       </c>
       <c r="F37" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>53.529999999999994</v>
+        <v>4746.357</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>53.529999999999994</v>
+        <v>4746.357</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="15"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="12"/>
       <c r="U37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="2:23" ht="13.9" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2">
-        <v>84.7</v>
+        <v>45</v>
+      </c>
+      <c r="D38" s="3">
+        <v>80</v>
       </c>
       <c r="E38" s="4">
-        <v>1315</v>
+        <v>59.3</v>
       </c>
       <c r="F38" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>111380.5</v>
+        <v>4744</v>
       </c>
       <c r="G38" s="6">
-        <f>1240+6682</f>
-        <v>7922</v>
+        <f>41.141+0.067+70.397</f>
+        <v>111.605</v>
       </c>
       <c r="H38" s="6">
-        <f>2622+23935</f>
-        <v>26557</v>
+        <v>0</v>
       </c>
       <c r="I38" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>130015.5</v>
+        <v>4632.3950000000004</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="15"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="12"/>
+      <c r="U38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" ht="13.9" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2">
-        <v>6.74</v>
+        <v>131.5</v>
       </c>
       <c r="E39" s="4">
-        <v>146.9</v>
+        <v>31.4</v>
       </c>
       <c r="F39" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>990.10600000000011</v>
+        <v>4129.0999999999995</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>990.10600000000011</v>
+        <v>4129.0999999999995</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="15"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="2" t="s">
-        <v>123</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="12"/>
       <c r="U39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" ht="13.9" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1076.01</v>
+        <v>181</v>
+      </c>
+      <c r="D40" s="3">
+        <v>71</v>
       </c>
       <c r="E40" s="4">
-        <v>20.9</v>
+        <v>52.11</v>
       </c>
       <c r="F40" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22488.608999999997</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22488.608999999997</v>
+        <v>3699.81</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3300</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="15"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="12"/>
+      <c r="U40" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="13.9" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="3">
-        <v>80</v>
+        <v>168</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2">
+        <v>14.07</v>
       </c>
       <c r="E41" s="4">
-        <v>59.3</v>
+        <v>198.8</v>
       </c>
       <c r="F41" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4744</v>
-      </c>
-      <c r="G41" s="6">
-        <f>41.141+0.067+70.397</f>
-        <v>111.605</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
+        <v>2797.1160000000004</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4632.3950000000004</v>
+        <v>2797.1160000000004</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="15"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="12"/>
+      <c r="U41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="2:23" ht="13.9" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2">
-        <v>18.989999999999998</v>
+        <v>36.78</v>
       </c>
       <c r="E42" s="4">
-        <v>108.5</v>
+        <v>54.3</v>
       </c>
       <c r="F42" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2060.415</v>
+        <v>1997.154</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2060.415</v>
+        <v>1997.154</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="15"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S42" s="12"/>
-      <c r="T42" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="12"/>
       <c r="U42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="2:23" ht="13.9" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
-        <v>13.91</v>
+        <v>18.09</v>
       </c>
       <c r="E43" s="4">
-        <v>38.5</v>
+        <v>108.5</v>
       </c>
       <c r="F43" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>535.53499999999997</v>
+        <v>1962.7649999999999</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>535.53499999999997</v>
+        <v>1962.7649999999999</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="15"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S43" s="12"/>
-      <c r="T43" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="12"/>
       <c r="U43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="2:23" ht="13.9" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>195</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D44" s="2">
-        <v>10.85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4">
-        <v>52.9</v>
+        <v>22.56</v>
       </c>
       <c r="F44" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>573.96499999999992</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+        <v>1849.9199999999998</v>
+      </c>
+      <c r="G44" s="6">
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
       <c r="I44" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>573.96499999999992</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>1849.9199999999998</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="15"/>
+      <c r="M44" s="2">
+        <v>0.88</v>
+      </c>
       <c r="N44" s="9"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R44" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S44" s="12"/>
-      <c r="T44" s="2" t="s">
-        <v>91</v>
+      <c r="O44" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="P44" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>38.139534883720934</v>
+      </c>
+      <c r="R44" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>34.45378151260504</v>
+      </c>
+      <c r="S44" s="2">
+        <v>651</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="13.9" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="2">
-        <v>294.44</v>
+        <v>57.68</v>
       </c>
       <c r="E45" s="4">
-        <v>38.6</v>
+        <v>30.9</v>
       </c>
       <c r="F45" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11365.384</v>
-      </c>
-      <c r="G45" s="6">
-        <v>379</v>
-      </c>
-      <c r="H45" s="6">
-        <f>'[1]Main | Overview'!$C$9</f>
-        <v>0</v>
-      </c>
+        <v>1782.3119999999999</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>10986.384</v>
-      </c>
-      <c r="J45" s="3">
-        <f>[1]Model!$BD$59</f>
-        <v>12198.536959271867</v>
-      </c>
-      <c r="K45" s="3">
-        <f>[1]Model!$BD$61</f>
-        <v>316.024273556266</v>
-      </c>
-      <c r="L45" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>7.3306186510888383E-2</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0.53</v>
-      </c>
-      <c r="N45" s="9">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O45" s="16">
-        <v>3.8</v>
-      </c>
-      <c r="P45" s="16">
-        <v>5.2</v>
-      </c>
-      <c r="Q45" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>77.484210526315792</v>
-      </c>
-      <c r="R45" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>56.623076923076923</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>1782.3119999999999</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="12"/>
       <c r="U45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="2:23" ht="13.9" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2">
-        <v>25.35</v>
+        <v>30.02</v>
       </c>
       <c r="E46" s="4">
-        <v>925</v>
+        <v>48.9</v>
       </c>
       <c r="F46" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23448.75</v>
+        <v>1467.9779999999998</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23448.75</v>
+        <v>1467.9779999999998</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="15"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
       <c r="Q46" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="12"/>
-      <c r="T46" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="12"/>
       <c r="U46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="2:23" ht="13.9" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D47" s="2">
-        <v>253.29</v>
+        <v>21.48</v>
       </c>
       <c r="E47" s="4">
-        <v>70.2</v>
+        <v>66.3</v>
       </c>
       <c r="F47" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>17780.957999999999</v>
+        <v>1424.124</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>17780.957999999999</v>
+        <v>1424.124</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="15"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
       <c r="Q47" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="12"/>
       <c r="U47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="2:23" ht="13.9" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="2">
-        <v>41.31</v>
+        <v>68</v>
+      </c>
+      <c r="D48" s="3">
+        <v>27.5</v>
       </c>
       <c r="E48" s="4">
-        <v>216.1</v>
+        <v>46.55</v>
       </c>
       <c r="F48" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8927.0910000000003</v>
+        <v>1280.125</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8927.0910000000003</v>
+        <v>1180</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="15"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
       <c r="Q48" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="12"/>
-      <c r="T48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="12"/>
+      <c r="U48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="13.9" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2">
-        <v>236.59</v>
+        <v>33.39</v>
       </c>
       <c r="E49" s="4">
-        <v>146.9</v>
+        <v>28.8</v>
       </c>
       <c r="F49" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>34755.071000000004</v>
+        <v>961.63200000000006</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>34755.071000000004</v>
+        <v>961.63200000000006</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="15"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
       <c r="Q49" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R49" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="12"/>
       <c r="U49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="2:23" ht="13.9" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="3">
-        <v>27.5</v>
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>6.32</v>
       </c>
       <c r="E50" s="4">
-        <v>46.55</v>
+        <v>146.9</v>
       </c>
       <c r="F50" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1280.125</v>
+        <v>928.40800000000013</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
-        <v>1180</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>928.40800000000013</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="15"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
       <c r="Q50" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R50" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="12"/>
+      <c r="U50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="2:23" ht="13.9" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2">
-        <v>4.3499999999999996</v>
+        <v>12.73</v>
       </c>
       <c r="E51" s="4">
-        <v>16.5</v>
+        <v>57.7</v>
       </c>
       <c r="F51" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>71.774999999999991</v>
+        <v>734.52100000000007</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>71.774999999999991</v>
+        <v>734.52100000000007</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="15"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
       <c r="Q51" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S51" s="12"/>
-      <c r="T51" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="12"/>
       <c r="U51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="2:23" ht="13.9" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2">
-        <v>225</v>
+        <v>12.7</v>
       </c>
       <c r="E52" s="4">
-        <v>98.9</v>
+        <v>52.9</v>
       </c>
       <c r="F52" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22252.5</v>
+        <v>671.82999999999993</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22252.5</v>
+        <v>671.82999999999993</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="15"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
       <c r="Q52" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R52" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="2" t="s">
-        <v>112</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="12"/>
       <c r="U52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="2:23" ht="13.9" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D53" s="2">
-        <v>4.25</v>
+        <v>14.3</v>
       </c>
       <c r="E53" s="4">
-        <v>55.7</v>
+        <v>38.5</v>
       </c>
       <c r="F53" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>236.72500000000002</v>
+        <v>550.55000000000007</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>236.72500000000002</v>
+        <v>550.55000000000007</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="15"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R53" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S53" s="12"/>
-      <c r="T53" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="12"/>
       <c r="U53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="2:23" ht="13.9" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D54" s="2">
-        <v>373.94</v>
+        <v>9.33</v>
       </c>
       <c r="E54" s="4">
-        <v>381.4</v>
+        <v>40.4</v>
       </c>
       <c r="F54" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>142620.71599999999</v>
-      </c>
-      <c r="G54" s="6">
-        <f>3850+834</f>
-        <v>4684</v>
-      </c>
-      <c r="H54" s="6">
-        <f>2159+13325</f>
-        <v>15484</v>
-      </c>
+        <v>376.93200000000002</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>153420.71599999999</v>
+        <v>376.93200000000002</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="15"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="12"/>
       <c r="U54" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" ht="13.9" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" s="2">
-        <v>14.13</v>
+        <v>14.03</v>
       </c>
       <c r="E55" s="4">
         <v>23.9</v>
       </c>
       <c r="F55" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>337.70699999999999</v>
+        <v>335.31699999999995</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>337.70699999999999</v>
+        <v>335.31699999999995</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="15"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S55" s="12"/>
-      <c r="T55" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" s="12"/>
       <c r="U55" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="2:23" ht="13.9" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D56" s="2">
-        <v>137.75</v>
+        <v>1.4</v>
       </c>
       <c r="E56" s="4">
-        <v>46.3</v>
+        <v>185.8</v>
       </c>
       <c r="F56" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>6377.8249999999998</v>
+        <v>260.12</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>6377.8249999999998</v>
+        <v>260.12</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="15"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
       <c r="Q56" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S56" s="12"/>
-      <c r="T56" s="2" t="s">
-        <v>91</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="12"/>
       <c r="U56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="2:23" ht="13.9" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2">
-        <v>431.7</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E57" s="4">
-        <v>380.8</v>
+        <v>55.7</v>
       </c>
       <c r="F57" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>164391.35999999999</v>
+        <v>256.77700000000004</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>164391.35999999999</v>
+        <v>256.77700000000004</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="15"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
       <c r="Q57" s="2" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R57" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57" s="12"/>
-      <c r="T57" s="2" t="s">
-        <v>87</v>
-      </c>
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="12"/>
       <c r="U57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="2">
-        <v>18.46</v>
-      </c>
-      <c r="E58" s="4">
-        <v>66.3</v>
-      </c>
-      <c r="F58" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1223.8979999999999</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="2:23" ht="13.9" customHeight="1">
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1223.8979999999999</v>
-      </c>
+      <c r="I58" s="6"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="15"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S58" s="12"/>
-      <c r="T58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="2">
-        <v>211.29</v>
-      </c>
-      <c r="E59" s="4">
-        <v>72.3</v>
-      </c>
-      <c r="F59" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15276.266999999998</v>
-      </c>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="T58" s="12"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="2:23" ht="13.9" customHeight="1">
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15276.266999999998</v>
-      </c>
+      <c r="I59" s="6"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="15"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R59" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S59" s="12"/>
-      <c r="T59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2">
-        <v>14.28</v>
-      </c>
-      <c r="E60" s="4">
-        <v>198.8</v>
-      </c>
-      <c r="F60" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2838.864</v>
-      </c>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="T59" s="12"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="2:23" ht="13.9" customHeight="1">
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2838.864</v>
-      </c>
+      <c r="I60" s="6"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="15"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R60" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60" s="12"/>
-      <c r="T60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="2">
-        <v>103.21</v>
-      </c>
-      <c r="E61" s="4">
-        <v>199.1</v>
-      </c>
-      <c r="F61" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>20549.110999999997</v>
-      </c>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="T60" s="12"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="2:23" ht="13.9" customHeight="1">
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>20549.110999999997</v>
-      </c>
+      <c r="I61" s="6"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="15"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R61" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[Next Year''s Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61" s="12"/>
-      <c r="T61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="T61" s="12"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="2:23" ht="13.9" customHeight="1">
       <c r="E62" s="4"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -4811,119 +4711,109 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="15"/>
       <c r="N62" s="9"/>
       <c r="O62" s="2"/>
-      <c r="S62" s="12"/>
-    </row>
-    <row r="63" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T62" s="12"/>
+    </row>
+    <row r="63" spans="2:23" ht="13.9" customHeight="1">
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="15"/>
       <c r="N63" s="9"/>
       <c r="O63" s="2"/>
-      <c r="S63" s="12"/>
-    </row>
-    <row r="64" spans="2:22" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T63" s="12"/>
+    </row>
+    <row r="64" spans="2:23" ht="13.9" customHeight="1">
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="15"/>
       <c r="N64" s="9"/>
       <c r="O64" s="2"/>
-      <c r="S64" s="12"/>
-    </row>
-    <row r="65" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T64" s="12"/>
+    </row>
+    <row r="65" spans="10:20" ht="13.9" customHeight="1">
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="15"/>
       <c r="N65" s="9"/>
       <c r="O65" s="2"/>
-      <c r="S65" s="12"/>
-    </row>
-    <row r="66" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T65" s="12"/>
+    </row>
+    <row r="66" spans="10:20" ht="13.9" customHeight="1">
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="15"/>
       <c r="N66" s="9"/>
       <c r="O66" s="2"/>
-      <c r="S66" s="12"/>
-    </row>
-    <row r="67" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T66" s="12"/>
+    </row>
+    <row r="67" spans="10:20" ht="13.9" customHeight="1">
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="15"/>
       <c r="N67" s="9"/>
       <c r="O67" s="2"/>
-      <c r="S67" s="12"/>
-    </row>
-    <row r="68" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T67" s="12"/>
+    </row>
+    <row r="68" spans="10:20" ht="13.9" customHeight="1">
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="15"/>
       <c r="N68" s="9"/>
       <c r="O68" s="2"/>
-      <c r="S68" s="12"/>
-    </row>
-    <row r="69" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T68" s="12"/>
+    </row>
+    <row r="69" spans="10:20" ht="13.9" customHeight="1">
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="15"/>
       <c r="N69" s="9"/>
       <c r="O69" s="2"/>
-      <c r="S69" s="12"/>
-    </row>
-    <row r="70" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T69" s="12"/>
+    </row>
+    <row r="70" spans="10:20" ht="13.9" customHeight="1">
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="15"/>
       <c r="N70" s="9"/>
       <c r="O70" s="2"/>
-      <c r="S70" s="12"/>
-    </row>
-    <row r="71" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T70" s="12"/>
+    </row>
+    <row r="71" spans="10:20" ht="13.9" customHeight="1">
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="15"/>
       <c r="N71" s="9"/>
       <c r="O71" s="2"/>
-      <c r="S71" s="12"/>
-    </row>
-    <row r="72" spans="10:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T71" s="12"/>
+    </row>
+    <row r="72" spans="10:20" ht="13.9" customHeight="1">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="15"/>
       <c r="N72" s="9"/>
       <c r="O72" s="2"/>
-      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
-    <hyperlink ref="C32" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
-    <hyperlink ref="C38" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
-    <hyperlink ref="C41" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
-    <hyperlink ref="C45" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
-    <hyperlink ref="C54" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
+    <hyperlink ref="C38" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
+    <hyperlink ref="C29" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
     <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4936,50 +4826,50 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15">
       <c r="B2" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="C3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15">
       <c r="B5" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="C6" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15">
       <c r="B8" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="C9" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15">
       <c r="B11" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710781D4-B9C0-4AB3-A6A2-92E6BA3E36A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AEFFE3-E562-4411-B96F-CE135CF2058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="207">
   <si>
     <t>Name</t>
   </si>
@@ -657,6 +657,12 @@
   </si>
   <si>
     <t># of Employees</t>
+  </si>
+  <si>
+    <t>Baxter International</t>
+  </si>
+  <si>
+    <t>BAX</t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF2F75B5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F75B5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F75B5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F75B5"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1234,13 +1260,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1344,13 +1370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>97931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>103534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1485,52 +1511,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:W72" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:W72" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B2:W72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W72">
-    <sortCondition descending="1" ref="F2:F72"/>
+    <sortCondition ref="C2:C72"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{05528B30-84E5-47F8-B34B-D68B609D23DB}" name="Ticker" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="21">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="20">
       <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="19">
       <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="18">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="17">
       <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="16">
       <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="15">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="FY Earnings Estimates (2-years)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="6">
+    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="FY Earnings Estimates (2-years)" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="10">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="9">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{D887EC50-85A5-45A9-9F01-59353ED69EB2}" name="# of Employees" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{D887EC50-85A5-45A9-9F01-59353ED69EB2}" name="# of Employees" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="Category 1" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="Category 2" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1801,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1906,67 +1932,49 @@
     </row>
     <row r="3" spans="1:23" ht="13.9" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2">
-        <v>155.80000000000001</v>
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16">
+        <v>108.37</v>
       </c>
       <c r="E3" s="4">
-        <v>2406</v>
+        <v>285.2</v>
       </c>
       <c r="F3" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>374854.80000000005</v>
-      </c>
-      <c r="G3" s="3">
-        <v>38781</v>
-      </c>
-      <c r="H3" s="6">
-        <v>47900</v>
-      </c>
+        <v>30907.124</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>383973.80000000005</v>
+        <v>30907.124</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="2">
-        <v>0.48</v>
-      </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="15">
-        <v>10.61</v>
-      </c>
-      <c r="P3" s="15">
-        <v>11.1</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>14.684260131950991</v>
-      </c>
-      <c r="R3" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>14.036036036036037</v>
-      </c>
-      <c r="S3" s="2">
-        <v>138100</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" s="12"/>
       <c r="U3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="13.9" customHeight="1">
       <c r="B4" s="2" t="s">
@@ -1975,15 +1983,15 @@
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>134.38999999999999</v>
+      <c r="D4" s="16">
+        <v>132.6</v>
       </c>
       <c r="E4" s="4">
         <v>1734</v>
       </c>
       <c r="F4" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>233032.25999999998</v>
+        <v>229928.4</v>
       </c>
       <c r="G4" s="6">
         <v>7967</v>
@@ -1993,7 +2001,7 @@
       </c>
       <c r="I4" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>239190.25999999998</v>
+        <v>236086.39999999999</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2010,11 +2018,11 @@
       </c>
       <c r="Q4" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>26.04457364341085</v>
+        <v>25.697674418604649</v>
       </c>
       <c r="R4" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>23.660211267605632</v>
+        <v>23.345070422535212</v>
       </c>
       <c r="S4" s="2">
         <v>114000</v>
@@ -2034,26 +2042,26 @@
     </row>
     <row r="5" spans="1:23" ht="13.9" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>528.99</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="16">
+        <v>97.38</v>
       </c>
       <c r="E5" s="4">
-        <v>356.6</v>
+        <v>494.6</v>
       </c>
       <c r="F5" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>188637.834</v>
+        <v>48164.148000000001</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>188637.834</v>
+        <v>48164.148000000001</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2074,32 +2082,32 @@
         <v>85</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="13.9" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2">
-        <v>423</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="16">
+        <v>177.61</v>
       </c>
       <c r="E6" s="4">
-        <v>380.8</v>
+        <v>73.8</v>
       </c>
       <c r="F6" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>161078.39999999999</v>
+        <v>13107.618</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>161078.39999999999</v>
+        <v>13107.618</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2117,74 +2125,56 @@
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="13.9" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>104.98</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16">
+        <v>9.02</v>
       </c>
       <c r="E7" s="4">
-        <v>1476</v>
+        <v>40.4</v>
       </c>
       <c r="F7" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>154950.48000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2502</v>
-      </c>
-      <c r="H7" s="6">
-        <v>10885</v>
-      </c>
+        <v>364.40799999999996</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>163333.48000000001</v>
+        <v>364.40799999999996</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="N7" s="9">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O7" s="15">
-        <v>3.44</v>
-      </c>
-      <c r="P7" s="15">
-        <v>3.92</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>30.517441860465119</v>
-      </c>
-      <c r="R7" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>26.780612244897959</v>
-      </c>
-      <c r="S7" s="2">
-        <v>53000</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="12"/>
       <c r="U7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>198</v>
@@ -2192,26 +2182,26 @@
     </row>
     <row r="8" spans="1:23" ht="13.9" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2">
-        <v>198.43</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="16">
+        <v>29.07</v>
       </c>
       <c r="E8" s="4">
-        <v>719.2</v>
+        <v>48.9</v>
       </c>
       <c r="F8" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>142710.856</v>
+        <v>1421.5229999999999</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>142710.856</v>
+        <v>1421.5229999999999</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2229,109 +2219,84 @@
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="13.9" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>373.67</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="16">
+        <v>12.63</v>
       </c>
       <c r="E9" s="4">
-        <v>381.4</v>
+        <v>680.8</v>
       </c>
       <c r="F9" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>142517.73800000001</v>
-      </c>
-      <c r="G9" s="6">
-        <f>3850+834</f>
-        <v>4684</v>
-      </c>
-      <c r="H9" s="6">
-        <f>2159+13325</f>
-        <v>15484</v>
-      </c>
+        <v>8598.5040000000008</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>153317.73800000001</v>
+        <v>8598.5040000000008</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="O9" s="15">
-        <v>13.44</v>
-      </c>
-      <c r="P9" s="15">
-        <v>14.87</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>27.802827380952383</v>
-      </c>
-      <c r="R9" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>25.129119031607264</v>
-      </c>
-      <c r="S9" s="2">
-        <v>53000</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="12"/>
       <c r="U9" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="13.9" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>85.25</v>
+        <v>180</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="3">
+        <v>71</v>
       </c>
       <c r="E10" s="4">
-        <v>1315</v>
+        <v>52.11</v>
       </c>
       <c r="F10" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>112103.75</v>
-      </c>
-      <c r="G10" s="6">
-        <f>1240+6682</f>
-        <v>7922</v>
-      </c>
-      <c r="H10" s="6">
-        <f>2622+23935</f>
-        <v>26557</v>
+        <v>3699.81</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>130738.75</v>
+        <v>3300</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2347,90 +2312,97 @@
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="2">
-        <v>95000</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>198</v>
+      <c r="T10" s="12"/>
+      <c r="U10" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13.9" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>169.5</v>
+        <v>205</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="16">
+        <v>30.87</v>
       </c>
       <c r="E11" s="4">
-        <v>289.10000000000002</v>
+        <v>510.9</v>
       </c>
       <c r="F11" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>49002.450000000004</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>15771.483</v>
+      </c>
+      <c r="G11" s="6">
+        <f>1679</f>
+        <v>1679</v>
+      </c>
+      <c r="H11" s="6">
+        <f>2126+626+10374</f>
+        <v>13126</v>
+      </c>
       <c r="I11" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>49002.450000000004</v>
+        <v>27218.483</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9"/>
+      <c r="M11" s="2">
+        <v>0.63</v>
+      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="12"/>
+      <c r="O11" s="15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P11" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>12.298804780876495</v>
+      </c>
+      <c r="R11" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>11.349264705882353</v>
+      </c>
+      <c r="S11" s="2">
+        <v>38000</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U11" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="13.9" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2">
-        <v>98.3</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="16">
+        <v>167.35</v>
       </c>
       <c r="E12" s="4">
-        <v>494.6</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="F12" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>48619.18</v>
+        <v>48380.885000000002</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>48619.18</v>
+        <v>48380.885000000002</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2451,69 +2423,71 @@
         <v>85</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" ht="13.9" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>75.650000000000006</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="16">
+        <v>104.05</v>
       </c>
       <c r="E13" s="4">
-        <v>588</v>
+        <v>1476</v>
       </c>
       <c r="F13" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>44482.200000000004</v>
+        <v>153577.79999999999</v>
       </c>
       <c r="G13" s="6">
-        <v>3976</v>
+        <v>2502</v>
       </c>
       <c r="H13" s="6">
-        <v>598</v>
+        <v>10885</v>
       </c>
       <c r="I13" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>41104.200000000004</v>
+        <v>161960.79999999999</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N13" s="9"/>
+        <v>0.73</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.38E-2</v>
+      </c>
       <c r="O13" s="15">
-        <v>2.4700000000000002</v>
+        <v>3.44</v>
       </c>
       <c r="P13" s="15">
-        <v>2.75</v>
+        <v>3.92</v>
       </c>
       <c r="Q13" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>30.627530364372468</v>
+        <v>30.247093023255815</v>
       </c>
       <c r="R13" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>27.509090909090911</v>
+        <v>26.543367346938776</v>
       </c>
       <c r="S13" s="2">
-        <v>15800</v>
+        <v>53000</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>198</v>
@@ -2521,26 +2495,26 @@
     </row>
     <row r="14" spans="1:23" ht="13.9" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>471.31</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1.28</v>
       </c>
       <c r="E14" s="4">
-        <v>81.599999999999994</v>
+        <v>185.8</v>
       </c>
       <c r="F14" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>38458.896000000001</v>
+        <v>237.82400000000001</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>38458.896000000001</v>
+        <v>237.82400000000001</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2558,35 +2532,40 @@
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" ht="13.9" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>239.95</v>
+        <v>140</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16">
+        <v>56.97</v>
       </c>
       <c r="E15" s="4">
-        <v>146.9</v>
+        <v>30.97</v>
       </c>
       <c r="F15" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>35248.654999999999</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>1764.3608999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.35485</v>
+      </c>
+      <c r="H15" s="6">
+        <f>0.714+891.443</f>
+        <v>892.15700000000004</v>
+      </c>
       <c r="I15" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>35248.654999999999</v>
+        <v>2656.1630500000001</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2602,37 +2581,39 @@
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="12"/>
+      <c r="T15" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="13.9" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>71.260000000000005</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="16">
+        <v>81.569999999999993</v>
       </c>
       <c r="E16" s="4">
-        <v>457</v>
+        <v>199.6</v>
       </c>
       <c r="F16" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32565.820000000003</v>
+        <v>16281.371999999998</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32565.820000000003</v>
+        <v>16281.371999999998</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2653,32 +2634,32 @@
         <v>85</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="2:23" ht="13.9" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2">
-        <v>81.28</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="16">
+        <v>197.4</v>
       </c>
       <c r="E17" s="4">
-        <v>390.7</v>
+        <v>719.2</v>
       </c>
       <c r="F17" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>31756.095999999998</v>
+        <v>141970.08000000002</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>31756.095999999998</v>
+        <v>141970.08000000002</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2696,35 +2677,35 @@
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="2:23" ht="13.9" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <v>108.5</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="16">
+        <v>80.27</v>
       </c>
       <c r="E18" s="4">
-        <v>285.2</v>
+        <v>390.7</v>
       </c>
       <c r="F18" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>30944.199999999997</v>
+        <v>31361.488999999998</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>30944.199999999997</v>
+        <v>31361.488999999998</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2742,35 +2723,35 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="2:23" ht="13.9" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2">
-        <v>156.01</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="16">
+        <v>12.46</v>
       </c>
       <c r="E19" s="4">
-        <v>176.1</v>
+        <v>57.7</v>
       </c>
       <c r="F19" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>27473.360999999997</v>
+        <v>718.94200000000012</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27473.360999999997</v>
+        <v>718.94200000000012</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2788,35 +2769,35 @@
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="2:23" ht="13.9" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25.59</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="16">
+        <v>33.520000000000003</v>
       </c>
       <c r="E20" s="4">
-        <v>925</v>
+        <v>28.8</v>
       </c>
       <c r="F20" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23670.75</v>
+        <v>965.37600000000009</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23670.75</v>
+        <v>965.37600000000009</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2837,78 +2818,96 @@
         <v>85</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="2:23" ht="13.9" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1100.01</v>
+        <v>146</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="16">
+        <v>75.11</v>
       </c>
       <c r="E21" s="4">
-        <v>20.9</v>
+        <v>588</v>
       </c>
       <c r="F21" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22990.208999999999</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>44164.68</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3976</v>
+      </c>
+      <c r="H21" s="6">
+        <v>598</v>
+      </c>
       <c r="I21" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22990.208999999999</v>
+        <v>40786.68</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
+      <c r="M21" s="2">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="N21" s="9"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="12"/>
+      <c r="O21" s="15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>30.40890688259109</v>
+      </c>
+      <c r="R21" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>27.312727272727273</v>
+      </c>
+      <c r="S21" s="2">
+        <v>15800</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="U21" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="W21" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="2:23" ht="13.9" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2">
-        <v>224.81</v>
+        <v>36</v>
+      </c>
+      <c r="D22" s="16">
+        <v>53.33</v>
       </c>
       <c r="E22" s="4">
-        <v>98.9</v>
+        <v>185.6</v>
       </c>
       <c r="F22" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22233.709000000003</v>
+        <v>9898.0479999999989</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22233.709000000003</v>
+        <v>9898.0479999999989</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2926,35 +2925,35 @@
       </c>
       <c r="T22" s="12"/>
       <c r="U22" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="2:23" ht="13.9" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2">
-        <v>102.38</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="16">
+        <v>69.5</v>
       </c>
       <c r="E23" s="4">
-        <v>199.1</v>
+        <v>457</v>
       </c>
       <c r="F23" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>20383.858</v>
+        <v>31761.5</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>20383.858</v>
+        <v>31761.5</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2975,78 +2974,104 @@
         <v>85</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="2:23" ht="13.9" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2">
-        <v>257.89999999999998</v>
+        <v>148</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16">
+        <v>69.25</v>
       </c>
       <c r="E24" s="4">
-        <v>70.2</v>
+        <v>137.4</v>
       </c>
       <c r="F24" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>18104.579999999998</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>9514.9500000000007</v>
+      </c>
+      <c r="G24" s="6">
+        <v>890.1</v>
+      </c>
+      <c r="H24" s="6">
+        <f>443.4</f>
+        <v>443.4</v>
+      </c>
       <c r="I24" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18104.579999999998</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="9"/>
+        <v>9068.25</v>
+      </c>
+      <c r="J24" s="3">
+        <f>[1]Model!$BZ$53</f>
+        <v>9389.9160729781779</v>
+      </c>
+      <c r="K24" s="3">
+        <f>[1]Model!$BZ$55</f>
+        <v>68.364878580110513</v>
+      </c>
+      <c r="L24" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-1.278153674930671E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.29</v>
+      </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="12"/>
+      <c r="O24" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="P24" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>20.130813953488371</v>
+      </c>
+      <c r="R24" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>17.665816326530614</v>
+      </c>
+      <c r="S24" s="2">
+        <v>5300</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="U24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="2:23" ht="13.9" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2">
-        <v>83.09</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="16">
+        <v>52.73</v>
       </c>
       <c r="E25" s="4">
-        <v>199.6</v>
+        <v>231.7</v>
       </c>
       <c r="F25" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16584.763999999999</v>
+        <v>12217.540999999999</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>16584.763999999999</v>
+        <v>12217.540999999999</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -3064,35 +3089,35 @@
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="2:23" ht="13.9" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2">
-        <v>211.29</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="16">
+        <v>66.58</v>
       </c>
       <c r="E26" s="4">
-        <v>72.3</v>
+        <v>124.2</v>
       </c>
       <c r="F26" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15276.266999999998</v>
+        <v>8269.2360000000008</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15276.266999999998</v>
+        <v>8269.2360000000008</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -3110,35 +3135,35 @@
       </c>
       <c r="T26" s="12"/>
       <c r="U26" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="2:23" ht="13.9" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2">
-        <v>179.8</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="16">
+        <v>475.07</v>
       </c>
       <c r="E27" s="4">
-        <v>73.8</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F27" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13269.24</v>
+        <v>38765.712</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13269.24</v>
+        <v>38765.712</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3156,35 +3181,35 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="2:23" ht="13.9" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2">
-        <v>53.5</v>
+        <v>55</v>
+      </c>
+      <c r="D28" s="16">
+        <v>160</v>
       </c>
       <c r="E28" s="4">
-        <v>231.7</v>
+        <v>29.7</v>
       </c>
       <c r="F28" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12395.949999999999</v>
+        <v>4752</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12395.949999999999</v>
+        <v>4752</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -3202,181 +3227,127 @@
       </c>
       <c r="T28" s="12"/>
       <c r="U28" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="2:23" ht="13.9" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2">
-        <v>296</v>
+        <v>151</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="16">
+        <v>152.30000000000001</v>
       </c>
       <c r="E29" s="4">
-        <v>38.6</v>
+        <v>176.1</v>
       </c>
       <c r="F29" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11425.6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>379</v>
-      </c>
-      <c r="H29" s="6">
-        <f>'[2]Main | Overview'!$C$9</f>
-        <v>0</v>
-      </c>
+        <v>26820.030000000002</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>11046.6</v>
-      </c>
-      <c r="J29" s="3">
-        <f>[2]Model!$BU$59</f>
-        <v>12198.536959271867</v>
-      </c>
-      <c r="K29" s="3">
-        <f>[2]Model!$BU$61</f>
-        <v>316.024273556266</v>
-      </c>
-      <c r="L29" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>6.7649572825222881E-2</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="N29" s="9">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O29" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="P29" s="15">
-        <v>5.2</v>
-      </c>
-      <c r="Q29" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>77.89473684210526</v>
-      </c>
-      <c r="R29" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>56.92307692307692</v>
-      </c>
-      <c r="S29" s="2">
-        <v>4500</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>197</v>
-      </c>
+        <v>26820.030000000002</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="12"/>
       <c r="U29" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="2:23" ht="13.9" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2">
-        <v>71.989999999999995</v>
+        <v>152</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="16">
+        <v>135.35</v>
       </c>
       <c r="E30" s="4">
-        <v>137.4</v>
+        <v>31.4</v>
       </c>
       <c r="F30" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9891.4259999999995</v>
-      </c>
-      <c r="G30" s="6">
-        <v>890.1</v>
-      </c>
-      <c r="H30" s="6">
-        <f>443.4</f>
-        <v>443.4</v>
-      </c>
+        <v>4249.99</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9444.7259999999987</v>
-      </c>
-      <c r="J30" s="3">
-        <f>[1]Model!$BZ$53</f>
-        <v>9389.9160729781779</v>
-      </c>
-      <c r="K30" s="3">
-        <f>[1]Model!$BZ$55</f>
-        <v>68.364878580110513</v>
-      </c>
-      <c r="L30" s="9">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-5.0355902484921278E-2</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1.29</v>
-      </c>
+        <v>4249.99</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="2">
-        <v>3.44</v>
-      </c>
-      <c r="P30" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="Q30" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>20.927325581395348</v>
-      </c>
-      <c r="R30" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>18.364795918367346</v>
-      </c>
-      <c r="S30" s="2">
-        <v>5300</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="12"/>
       <c r="U30" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="2:23" ht="13.9" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2">
-        <v>51.7</v>
+        <v>10</v>
+      </c>
+      <c r="D31" s="16">
+        <v>532.79999999999995</v>
       </c>
       <c r="E31" s="4">
-        <v>185.6</v>
+        <v>356.6</v>
       </c>
       <c r="F31" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9595.52</v>
+        <v>189996.47999999998</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9595.52</v>
+        <v>189996.47999999998</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3394,81 +3365,99 @@
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="2:23" ht="13.9" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43.13</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="16">
+        <v>155.30000000000001</v>
       </c>
       <c r="E32" s="4">
-        <v>216.1</v>
+        <v>2406</v>
       </c>
       <c r="F32" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9320.393</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>373651.80000000005</v>
+      </c>
+      <c r="G32" s="3">
+        <v>38781</v>
+      </c>
+      <c r="H32" s="6">
+        <v>47900</v>
+      </c>
       <c r="I32" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9320.393</v>
+        <v>382770.80000000005</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="9"/>
+      <c r="M32" s="2">
+        <v>0.48</v>
+      </c>
       <c r="N32" s="9"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="12"/>
+      <c r="O32" s="15">
+        <v>10.61</v>
+      </c>
+      <c r="P32" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>14.637134778510841</v>
+      </c>
+      <c r="R32" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>13.990990990990992</v>
+      </c>
+      <c r="S32" s="2">
+        <v>138100</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U32" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W32" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="33" spans="2:23" ht="13.9" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="2">
-        <v>165.87</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="16">
+        <v>37.340000000000003</v>
       </c>
       <c r="E33" s="4">
-        <v>53.6</v>
+        <v>54.3</v>
       </c>
       <c r="F33" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8890.6319999999996</v>
+        <v>2027.5620000000001</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8890.6319999999996</v>
+        <v>2027.5620000000001</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3489,78 +3478,97 @@
         <v>85</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="2:23" ht="13.9" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2">
-        <v>12.87</v>
+        <v>195</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="16">
+        <v>76.42</v>
       </c>
       <c r="E34" s="4">
-        <v>680.8</v>
+        <v>22.56</v>
       </c>
       <c r="F34" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8761.8959999999988</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>1724.0352</v>
+      </c>
+      <c r="G34" s="6">
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
       <c r="I34" s="6">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8761.8959999999988</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>1724.0352</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="9"/>
+      <c r="M34" s="2">
+        <v>0.88</v>
+      </c>
       <c r="N34" s="9"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="12"/>
+      <c r="O34" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="P34" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>35.544186046511633</v>
+      </c>
+      <c r="R34" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>32.109243697478995</v>
+      </c>
+      <c r="S34" s="2">
+        <v>651</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="U34" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W34" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="35" spans="2:23" ht="13.9" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2">
-        <v>65.3</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="16">
+        <v>162.86000000000001</v>
       </c>
       <c r="E35" s="4">
-        <v>124.2</v>
+        <v>53.6</v>
       </c>
       <c r="F35" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8110.26</v>
+        <v>8729.2960000000003</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8110.26</v>
+        <v>8729.2960000000003</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3578,73 +3586,74 @@
       </c>
       <c r="T35" s="12"/>
       <c r="U35" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="2:23" ht="13.9" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2">
-        <v>126.44</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="16">
+        <v>83.77</v>
       </c>
       <c r="E36" s="4">
-        <v>46.3</v>
+        <v>1315</v>
       </c>
       <c r="F36" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>5854.1719999999996</v>
+        <v>110157.54999999999</v>
       </c>
       <c r="G36" s="6">
-        <v>243.2</v>
+        <f>1240+6682</f>
+        <v>7922</v>
       </c>
       <c r="H36" s="6">
-        <f>96.9+1661.5</f>
-        <v>1758.4</v>
+        <f>2622+23935</f>
+        <v>26557</v>
       </c>
       <c r="I36" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7369.3719999999994</v>
+        <v>128792.54999999999</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="9"/>
       <c r="M36" s="2">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="15">
-        <v>13.37</v>
+        <v>5.46</v>
       </c>
       <c r="P36" s="15">
-        <v>14.02</v>
+        <v>5.82</v>
       </c>
       <c r="Q36" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>9.4569932685115941</v>
+        <v>15.342490842490841</v>
       </c>
       <c r="R36" s="2">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>9.0185449358059913</v>
+        <v>14.393470790378005</v>
       </c>
       <c r="S36" s="2">
-        <v>14100</v>
+        <v>95000</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="W36" s="7" t="s">
         <v>198</v>
@@ -3652,26 +3661,26 @@
     </row>
     <row r="37" spans="2:23" ht="13.9" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="2">
-        <v>159.81</v>
+        <v>30</v>
+      </c>
+      <c r="D37" s="16">
+        <v>6.72</v>
       </c>
       <c r="E37" s="4">
-        <v>29.7</v>
+        <v>146.9</v>
       </c>
       <c r="F37" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4746.357</v>
+        <v>987.16800000000001</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4746.357</v>
+        <v>987.16800000000001</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3689,40 +3698,35 @@
       </c>
       <c r="T37" s="12"/>
       <c r="U37" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="W37" s="3"/>
     </row>
     <row r="38" spans="2:23" ht="13.9" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="3">
-        <v>80</v>
+        <v>157</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1091.1300000000001</v>
       </c>
       <c r="E38" s="4">
-        <v>59.3</v>
+        <v>20.9</v>
       </c>
       <c r="F38" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4744</v>
-      </c>
-      <c r="G38" s="6">
-        <f>41.141+0.067+70.397</f>
-        <v>111.605</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
+        <v>22804.617000000002</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4632.3950000000004</v>
+        <v>22804.617000000002</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3739,35 +3743,41 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="12"/>
-      <c r="U38" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="W38" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="U38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W38" s="3"/>
     </row>
     <row r="39" spans="2:23" ht="13.9" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="2">
-        <v>131.5</v>
+        <v>169</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3">
+        <v>80</v>
       </c>
       <c r="E39" s="4">
-        <v>31.4</v>
+        <v>59.3</v>
       </c>
       <c r="F39" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4129.0999999999995</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+        <v>4744</v>
+      </c>
+      <c r="G39" s="6">
+        <f>41.141+0.067+70.397</f>
+        <v>111.605</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
       <c r="I39" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4129.0999999999995</v>
+        <v>4632.3950000000004</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3784,39 +3794,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="12"/>
-      <c r="U39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W39" s="3"/>
+      <c r="U39" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="40" spans="2:23" ht="13.9" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="3">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17.68</v>
       </c>
       <c r="E40" s="4">
-        <v>52.11</v>
+        <v>108.5</v>
       </c>
       <c r="F40" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3699.81</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>3300</v>
+        <v>1918.28</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>1918.28</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3833,32 +3839,36 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="12"/>
-      <c r="U40" s="11" t="s">
-        <v>183</v>
-      </c>
+      <c r="U40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" s="3"/>
     </row>
     <row r="41" spans="2:23" ht="13.9" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2">
-        <v>14.07</v>
+        <v>13.97</v>
       </c>
       <c r="E41" s="4">
-        <v>198.8</v>
+        <v>38.5</v>
       </c>
       <c r="F41" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2797.1160000000004</v>
+        <v>537.84500000000003</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2797.1160000000004</v>
+        <v>537.84500000000003</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -3879,32 +3889,32 @@
         <v>85</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="W41" s="3"/>
     </row>
     <row r="42" spans="2:23" ht="13.9" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2">
-        <v>36.78</v>
+        <v>12.19</v>
       </c>
       <c r="E42" s="4">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F42" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1997.154</v>
+        <v>644.851</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1997.154</v>
+        <v>644.851</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3925,143 +3935,152 @@
         <v>85</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="W42" s="3"/>
     </row>
     <row r="43" spans="2:23" ht="13.9" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>161</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D43" s="2">
-        <v>18.09</v>
+        <v>297.95999999999998</v>
       </c>
       <c r="E43" s="4">
-        <v>108.5</v>
+        <v>38.6</v>
       </c>
       <c r="F43" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1962.7649999999999</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+        <v>11501.255999999999</v>
+      </c>
+      <c r="G43" s="6">
+        <v>379</v>
+      </c>
+      <c r="H43" s="6">
+        <f>'[2]Main | Overview'!$C$9</f>
+        <v>0</v>
+      </c>
       <c r="I43" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1962.7649999999999</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R43" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="12"/>
+        <v>11122.255999999999</v>
+      </c>
+      <c r="J43" s="3">
+        <f>[2]Model!$BU$59</f>
+        <v>12198.536959271867</v>
+      </c>
+      <c r="K43" s="3">
+        <f>[2]Model!$BU$61</f>
+        <v>316.024273556266</v>
+      </c>
+      <c r="L43" s="9">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>6.0626505424439481E-2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="N43" s="9">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="O43" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="P43" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>78.410526315789468</v>
+      </c>
+      <c r="R43" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>57.3</v>
+      </c>
+      <c r="S43" s="2">
+        <v>4500</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="W43" s="3"/>
     </row>
     <row r="44" spans="2:23" ht="13.9" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>196</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="2">
-        <v>82</v>
+        <v>25.64</v>
       </c>
       <c r="E44" s="4">
-        <v>22.56</v>
+        <v>925</v>
       </c>
       <c r="F44" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1849.9199999999998</v>
-      </c>
-      <c r="G44" s="6">
-        <f>25.61+274.112</f>
-        <v>299.72200000000004</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
+        <v>23717</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="6">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1849.9199999999998</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>23717</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="2">
-        <v>0.88</v>
-      </c>
       <c r="N44" s="9"/>
-      <c r="O44" s="15">
-        <v>2.15</v>
-      </c>
-      <c r="P44" s="15">
-        <v>2.38</v>
-      </c>
-      <c r="Q44" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>38.139534883720934</v>
-      </c>
-      <c r="R44" s="2">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>34.45378151260504</v>
-      </c>
-      <c r="S44" s="2">
-        <v>651</v>
-      </c>
-      <c r="T44" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="2" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="12"/>
       <c r="U44" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="W44" s="3"/>
     </row>
     <row r="45" spans="2:23" ht="13.9" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
-        <v>57.68</v>
+        <v>258.79000000000002</v>
       </c>
       <c r="E45" s="4">
-        <v>30.9</v>
+        <v>70.2</v>
       </c>
       <c r="F45" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1782.3119999999999</v>
+        <v>18167.058000000001</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1782.3119999999999</v>
+        <v>18167.058000000001</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4082,32 +4101,32 @@
         <v>85</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="W45" s="3"/>
     </row>
     <row r="46" spans="2:23" ht="13.9" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2">
-        <v>30.02</v>
+        <v>42.81</v>
       </c>
       <c r="E46" s="4">
-        <v>48.9</v>
+        <v>216.1</v>
       </c>
       <c r="F46" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1467.9779999999998</v>
+        <v>9251.241</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1467.9779999999998</v>
+        <v>9251.241</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4125,35 +4144,35 @@
       </c>
       <c r="T46" s="12"/>
       <c r="U46" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="W46" s="3"/>
     </row>
     <row r="47" spans="2:23" ht="13.9" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2">
-        <v>21.48</v>
+        <v>240.66</v>
       </c>
       <c r="E47" s="4">
-        <v>66.3</v>
+        <v>146.9</v>
       </c>
       <c r="F47" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1424.124</v>
+        <v>35352.953999999998</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1424.124</v>
+        <v>35352.953999999998</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -4174,7 +4193,7 @@
         <v>85</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="W47" s="3"/>
     </row>
@@ -4224,72 +4243,90 @@
     </row>
     <row r="49" spans="2:23" ht="13.9" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2">
-        <v>33.39</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="16">
+        <v>224.3</v>
       </c>
       <c r="E49" s="4">
-        <v>28.8</v>
+        <v>98.9</v>
       </c>
       <c r="F49" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>961.63200000000006</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+        <v>22183.270000000004</v>
+      </c>
+      <c r="G49" s="6">
+        <f>1937.9+172.2</f>
+        <v>2110.1</v>
+      </c>
+      <c r="H49" s="6">
+        <f>80+2156.2</f>
+        <v>2236.1999999999998</v>
+      </c>
       <c r="I49" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>961.63200000000006</v>
+        <v>22309.370000000006</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="9"/>
+      <c r="M49" s="2">
+        <v>0.96</v>
+      </c>
       <c r="N49" s="9"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="12"/>
+      <c r="O49" s="15">
+        <v>9.1</v>
+      </c>
+      <c r="P49" s="15">
+        <v>9.99</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>24.64835164835165</v>
+      </c>
+      <c r="R49" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>22.452452452452452</v>
+      </c>
+      <c r="S49" s="2">
+        <v>18000</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U49" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="W49" s="3"/>
     </row>
     <row r="50" spans="2:23" ht="13.9" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="2">
-        <v>6.32</v>
+        <v>64</v>
+      </c>
+      <c r="D50" s="16">
+        <v>4.59</v>
       </c>
       <c r="E50" s="4">
-        <v>146.9</v>
+        <v>55.7</v>
       </c>
       <c r="F50" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>928.40800000000013</v>
+        <v>255.66300000000001</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>928.40800000000013</v>
+        <v>255.66300000000001</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4307,81 +4344,103 @@
       </c>
       <c r="T50" s="12"/>
       <c r="U50" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="W50" s="3"/>
     </row>
     <row r="51" spans="2:23" ht="13.9" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="2">
-        <v>12.73</v>
+        <v>164</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="16">
+        <v>381.36</v>
       </c>
       <c r="E51" s="4">
-        <v>57.7</v>
+        <v>381.4</v>
       </c>
       <c r="F51" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>734.52100000000007</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+        <v>145450.704</v>
+      </c>
+      <c r="G51" s="6">
+        <f>3850+834</f>
+        <v>4684</v>
+      </c>
+      <c r="H51" s="6">
+        <f>2159+13325</f>
+        <v>15484</v>
+      </c>
       <c r="I51" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>734.52100000000007</v>
+        <v>156250.704</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R51" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T51" s="12"/>
+      <c r="M51" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="O51" s="15">
+        <v>13.44</v>
+      </c>
+      <c r="P51" s="15">
+        <v>14.87</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>28.375000000000004</v>
+      </c>
+      <c r="R51" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>25.646267652992606</v>
+      </c>
+      <c r="S51" s="2">
+        <v>53000</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U51" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W51" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="52" spans="2:23" ht="13.9" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="2">
-        <v>12.7</v>
+        <v>65</v>
+      </c>
+      <c r="D52" s="16">
+        <v>11.4</v>
       </c>
       <c r="E52" s="4">
-        <v>52.9</v>
+        <v>23.9</v>
       </c>
       <c r="F52" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>671.82999999999993</v>
+        <v>272.45999999999998</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>671.82999999999993</v>
+        <v>272.45999999999998</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -4402,78 +4461,97 @@
         <v>85</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W52" s="3"/>
     </row>
     <row r="53" spans="2:23" ht="13.9" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="2">
-        <v>14.3</v>
+        <v>41</v>
+      </c>
+      <c r="D53" s="16">
+        <v>123</v>
       </c>
       <c r="E53" s="4">
-        <v>38.5</v>
+        <v>46.3</v>
       </c>
       <c r="F53" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>550.55000000000007</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+        <v>5694.9</v>
+      </c>
+      <c r="G53" s="6">
+        <v>243.2</v>
+      </c>
+      <c r="H53" s="6">
+        <f>96.9+1661.5</f>
+        <v>1758.4</v>
+      </c>
       <c r="I53" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>550.55000000000007</v>
+        <v>7210.1</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="9"/>
+      <c r="M53" s="2">
+        <v>1.19</v>
+      </c>
       <c r="N53" s="9"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R53" s="2" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="12"/>
+      <c r="O53" s="15">
+        <v>13.37</v>
+      </c>
+      <c r="P53" s="15">
+        <v>14.02</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>9.1997008227374728</v>
+      </c>
+      <c r="R53" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>8.7731811697574891</v>
+      </c>
+      <c r="S53" s="2">
+        <v>14100</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="U53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W53" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="54" spans="2:23" ht="13.9" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="2">
-        <v>9.33</v>
+        <v>66</v>
+      </c>
+      <c r="D54" s="16">
+        <v>422</v>
       </c>
       <c r="E54" s="4">
-        <v>40.4</v>
+        <v>380.8</v>
       </c>
       <c r="F54" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>376.93200000000002</v>
+        <v>160697.60000000001</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>376.93200000000002</v>
+        <v>160697.60000000001</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -4491,37 +4569,35 @@
       </c>
       <c r="T54" s="12"/>
       <c r="U54" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W54" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="W54" s="3"/>
     </row>
     <row r="55" spans="2:23" ht="13.9" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2">
-        <v>14.03</v>
+        <v>67</v>
+      </c>
+      <c r="D55" s="16">
+        <v>22</v>
       </c>
       <c r="E55" s="4">
-        <v>23.9</v>
+        <v>66.3</v>
       </c>
       <c r="F55" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>335.31699999999995</v>
+        <v>1458.6</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>335.31699999999995</v>
+        <v>1458.6</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4542,32 +4618,32 @@
         <v>85</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="W55" s="3"/>
     </row>
     <row r="56" spans="2:23" ht="13.9" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.4</v>
+        <v>24</v>
+      </c>
+      <c r="D56" s="16">
+        <v>210.98</v>
       </c>
       <c r="E56" s="4">
-        <v>185.8</v>
+        <v>72.3</v>
       </c>
       <c r="F56" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>260.12</v>
+        <v>15253.853999999999</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>260.12</v>
+        <v>15253.853999999999</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4585,35 +4661,35 @@
       </c>
       <c r="T56" s="12"/>
       <c r="U56" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="W56" s="3"/>
     </row>
     <row r="57" spans="2:23" ht="13.9" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4.6100000000000003</v>
+        <v>44</v>
+      </c>
+      <c r="D57" s="16">
+        <v>13.84</v>
       </c>
       <c r="E57" s="4">
-        <v>55.7</v>
+        <v>198.8</v>
       </c>
       <c r="F57" s="6">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>256.77700000000004</v>
+        <v>2751.3920000000003</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>256.77700000000004</v>
+        <v>2751.3920000000003</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4634,24 +4710,71 @@
         <v>85</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="W57" s="3"/>
     </row>
     <row r="58" spans="2:23" ht="13.9" customHeight="1">
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="B58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="16">
+        <v>90.25</v>
+      </c>
+      <c r="E58" s="4">
+        <v>199.1</v>
+      </c>
+      <c r="F58" s="6">
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>17968.774999999998</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1384.5</v>
+      </c>
+      <c r="H58" s="6">
+        <f>600+6576.3</f>
+        <v>7176.3</v>
+      </c>
+      <c r="I58" s="6">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>23760.574999999997</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="9"/>
+      <c r="M58" s="2">
+        <v>0.78</v>
+      </c>
       <c r="N58" s="9"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="T58" s="12"/>
+      <c r="O58" s="15">
+        <v>8.09</v>
+      </c>
+      <c r="P58" s="15">
+        <v>8.56</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>11.1557478368356</v>
+      </c>
+      <c r="R58" s="2">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>10.54322429906542</v>
+      </c>
+      <c r="S58" s="2">
+        <v>17000</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="W58" s="3"/>
     </row>
     <row r="59" spans="2:23" ht="13.9" customHeight="1">
@@ -4798,22 +4921,26 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
-    <hyperlink ref="C30" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
-    <hyperlink ref="C38" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
+    <hyperlink ref="C36" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
+    <hyperlink ref="C39" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
+    <hyperlink ref="C43" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
+    <hyperlink ref="C51" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
     <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
-    <hyperlink ref="C44" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
+    <hyperlink ref="C34" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
+    <hyperlink ref="C58" r:id="rId13" xr:uid="{BF852F1D-304C-4230-82DC-C6786B6DA415}"/>
+    <hyperlink ref="C49" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4822,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B335E-5AF5-4EBA-8439-3724F125383B}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738BF1A-FBD3-4AEB-A435-D8E2C1C4AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228ACA77-C3CF-4163-9FDC-FC2FE2707201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -431,9 +430,6 @@
     <t>Critical Care/Urology</t>
   </si>
   <si>
-    <t>Laboratory Equipment</t>
-  </si>
-  <si>
     <t>Healthcare Supplies</t>
   </si>
   <si>
@@ -672,6 +668,9 @@
   </si>
   <si>
     <t>GICS Sub-Industry</t>
+  </si>
+  <si>
+    <t>Diagnostics/Laboratory Equipment</t>
   </si>
 </sst>
 </file>
@@ -800,7 +799,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -827,6 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -836,63 +836,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{10241BC7-DF58-46C9-A84F-35B7B655C9B3}"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibre"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -954,6 +897,23 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1213,6 +1173,23 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1235,6 +1212,29 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibre"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C2741A59-6701-4298-9EC9-1F20087F5405}"/>
@@ -1254,16 +1254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28014</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>89596</xdr:rowOff>
+      <xdr:rowOff>95199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>95199</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1277,9 +1277,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="232121" y="6648239"/>
-          <a:ext cx="18473698" cy="5603"/>
+        <a:xfrm flipV="1">
+          <a:off x="313765" y="6684258"/>
+          <a:ext cx="19296529" cy="16860"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1309,16 +1309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>89316</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>94919</xdr:rowOff>
+      <xdr:rowOff>106125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1333,8 +1333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="246285" y="8115164"/>
-          <a:ext cx="17723565" cy="5603"/>
+          <a:off x="291353" y="8370794"/>
+          <a:ext cx="19318941" cy="5272"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1364,10 +1364,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>97931</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -1388,8 +1388,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="218271" y="6732301"/>
-          <a:ext cx="17734771" cy="5603"/>
+          <a:off x="280147" y="7026088"/>
+          <a:ext cx="19313339" cy="2681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1432,7 +1432,7 @@
       <sheetName val="Notes | Quant Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="53">
           <cell r="BZ53">
@@ -1445,7 +1445,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1491,68 +1491,68 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:W72" totalsRowShown="0" headerRowDxfId="1" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}" name="Table4" displayName="Table4" ref="B2:W72" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="B2:W72" xr:uid="{BD229868-3893-402D-903A-49AEC2B1DF58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:W72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W72">
     <sortCondition descending="1" ref="F2:F72"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="23" xr3:uid="{E121D137-E273-4C3E-A084-0DEB9CFE7664}" name="Ticker" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="19">
+    <tableColumn id="23" xr3:uid="{E121D137-E273-4C3E-A084-0DEB9CFE7664}" name="Ticker" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{4ADE19BB-14C4-42AC-B83A-E2835EC9AF59}" name="Name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{ED225D35-38EE-42A6-B4F6-EF96455DAEB6}" name="Price" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{70716DE6-EACF-4F00-9618-CB8D3E83703D}" name="Share Count " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{9EFD7146-D09D-4A25-8A95-41219DD01300}" name="MC ($M)" dataDxfId="17">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
       <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
       <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="15">
+    <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
       <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="14">
+    <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
       <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="FY Earnings Estimates (2-years)" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="8">
+    <tableColumn id="22" xr3:uid="{F4BFF5D9-C51C-4082-890D-D8F99490DC48}" name="β (1-year avg.)" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{178F2948-D587-4C47-A023-2863147393BA}" name="1σ ± move " dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{2F630596-10BE-4A80-96EF-2952518D329E}" name="FY Earnings Estimates" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{17689932-3FD9-4050-AFEC-CC24D9A23B91}" name="FY Earnings Estimates (2-years)" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{AB973925-A952-4E9C-B161-E64F1513E8ED}" name="Fwd. P/E" dataDxfId="6">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{831F5B75-DC7A-432A-B407-C2C048ABBCEF}" name="Fwd. P/E (2-years)" dataDxfId="5">
       <calculatedColumnFormula>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{D887EC50-85A5-45A9-9F01-59353ED69EB2}" name="# of Employees" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="GICS Sector" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="GICS Sub-Industry" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{D887EC50-85A5-45A9-9F01-59353ED69EB2}" name="# of Employees" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E85E09CB-6FE0-423B-89F7-C9D5B949589A}" name="Updated " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BB2AE59D-C90C-4401-8D15-02753853694C}" name="GICS Sector" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{A650D578-4FE4-4503-BF1B-C0AA4BD9444E}" name="GICS Sub-Industry" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F4FAD2E0-4820-4CBD-8A31-D295F24769E4}" name="Category 13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1832,18 +1832,15 @@
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.140625" style="1" customWidth="1"/>
@@ -1852,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14.25">
       <c r="A1" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="N1" s="1"/>
@@ -1883,46 +1880,46 @@
         <v>7</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="M2" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="V2" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="W2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13.9" customHeight="1">
@@ -1965,19 +1962,19 @@
       <c r="P3" s="12">
         <v>11.1</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>14.637134778510841</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>13.990990990990992</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="18">
         <v>138100</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>83</v>
@@ -1986,7 +1983,7 @@
         <v>111</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13.9" customHeight="1">
@@ -2029,19 +2026,19 @@
       <c r="P4" s="12">
         <v>5.68</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>25.697674418604649</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>23.345070422535212</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="18">
         <v>114000</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>83</v>
@@ -2050,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="13.9" customHeight="1">
@@ -2058,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="13">
         <v>532.79999999999995</v>
@@ -2082,11 +2079,11 @@
       <c r="N5" s="7"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="1" t="e">
+      <c r="Q5" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2100,48 +2097,64 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="13">
-        <v>422</v>
+        <v>407.75</v>
       </c>
       <c r="E6" s="3">
         <v>380.8</v>
       </c>
       <c r="F6" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>160697.60000000001</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>155271.20000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5947</v>
+      </c>
+      <c r="H6" s="4">
+        <v>34189</v>
+      </c>
       <c r="I6" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>160697.60000000001</v>
+        <v>183513.2</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="7"/>
+      <c r="M6" s="1">
+        <v>0.83</v>
+      </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="10"/>
+      <c r="O6" s="12">
+        <v>22.31</v>
+      </c>
+      <c r="P6" s="12">
+        <v>24.69</v>
+      </c>
+      <c r="Q6" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>18.276557597489916</v>
+      </c>
+      <c r="R6" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>16.514783313082219</v>
+      </c>
+      <c r="S6" s="18">
+        <v>125000</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="U6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>129</v>
+      <c r="V6" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="W6" s="2"/>
     </row>
@@ -2150,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="13">
         <v>104.05</v>
@@ -2187,19 +2200,19 @@
       <c r="P7" s="12">
         <v>3.92</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>30.247093023255815</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>26.543367346938776</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="18">
         <v>53000</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>85</v>
@@ -2208,7 +2221,7 @@
         <v>91</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="13.9" customHeight="1">
@@ -2216,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="13">
         <v>381.36</v>
@@ -2255,19 +2268,19 @@
       <c r="P8" s="12">
         <v>14.87</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>28.375000000000004</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>25.646267652992606</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="18">
         <v>53000</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>85</v>
@@ -2276,7 +2289,7 @@
         <v>126</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.9" customHeight="1">
@@ -2284,7 +2297,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="13">
         <v>197.4</v>
@@ -2308,11 +2321,11 @@
       <c r="N9" s="7"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="1" t="e">
+      <c r="Q9" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2367,19 +2380,19 @@
       <c r="P10" s="12">
         <v>5.82</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>15.342490842490841</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>14.393470790378005</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="18">
         <v>95000</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>85</v>
@@ -2388,15 +2401,15 @@
         <v>73</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="13">
         <v>167.35</v>
@@ -2408,27 +2421,43 @@
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>48380.885000000002</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>763</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19270</v>
+      </c>
       <c r="I11" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>48380.885000000002</v>
+        <v>66887.885000000009</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
+      <c r="M11" s="1">
+        <v>0.34</v>
+      </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="10"/>
+      <c r="O11" s="12">
+        <v>14.23</v>
+      </c>
+      <c r="P11" s="12">
+        <v>14.93</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>11.760365425158115</v>
+      </c>
+      <c r="R11" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>11.208975217682518</v>
+      </c>
+      <c r="S11" s="18">
+        <v>70000</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="U11" s="1" t="s">
         <v>85</v>
       </c>
@@ -2466,11 +2495,11 @@
       <c r="N12" s="7"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="1" t="e">
+      <c r="Q12" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2488,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="13">
         <v>75.11</v>
@@ -2523,19 +2552,19 @@
       <c r="P13" s="12">
         <v>2.75</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>30.40890688259109</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>27.312727272727273</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="18">
         <v>15800</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>85</v>
@@ -2544,15 +2573,15 @@
         <v>99</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="13">
         <v>475.07</v>
@@ -2564,27 +2593,43 @@
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>38765.712</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>163.97</v>
+      </c>
+      <c r="H14" s="4">
+        <v>620.73</v>
+      </c>
       <c r="I14" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>38765.712</v>
+        <v>39222.472000000002</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7"/>
+      <c r="M14" s="1">
+        <v>1.52</v>
+      </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="10"/>
+      <c r="O14" s="12">
+        <v>12.13</v>
+      </c>
+      <c r="P14" s="12">
+        <v>13.62</v>
+      </c>
+      <c r="Q14" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>39.164880461665291</v>
+      </c>
+      <c r="R14" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>34.880323054331868</v>
+      </c>
+      <c r="S14" s="18">
+        <v>70000</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="U14" s="1" t="s">
         <v>100</v>
       </c>
@@ -2598,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1">
         <v>240.66</v>
@@ -2622,11 +2667,11 @@
       <c r="N15" s="7"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="1" t="e">
+      <c r="Q15" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2644,7 +2689,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="13">
         <v>69.5</v>
@@ -2668,11 +2713,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="1" t="e">
+      <c r="Q16" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2690,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="13">
         <v>80.27</v>
@@ -2714,11 +2759,11 @@
       <c r="N17" s="7"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="1" t="e">
+      <c r="Q17" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2760,11 +2805,11 @@
       <c r="N18" s="7"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="1" t="e">
+      <c r="Q18" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2782,7 +2827,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="13">
         <v>152.30000000000001</v>
@@ -2806,11 +2851,11 @@
       <c r="N19" s="7"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="1" t="e">
+      <c r="Q19" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2852,11 +2897,11 @@
       <c r="N20" s="7"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="1" t="e">
+      <c r="Q20" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2874,7 +2919,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="13">
         <v>1091.1300000000001</v>
@@ -2898,11 +2943,11 @@
       <c r="N21" s="7"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="1" t="e">
+      <c r="Q21" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -2957,19 +3002,19 @@
       <c r="P22" s="12">
         <v>9.99</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>24.64835164835165</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>22.452452452452452</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="18">
         <v>18000</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>105</v>
@@ -2980,43 +3025,59 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="1">
-        <v>258.79000000000002</v>
+        <v>262.31</v>
       </c>
       <c r="E23" s="3">
         <v>70.2</v>
       </c>
       <c r="F23" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>18167.058000000001</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+        <v>18414.162</v>
+      </c>
+      <c r="G23" s="4">
+        <v>953.4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1379.9</v>
+      </c>
       <c r="I23" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18167.058000000001</v>
+        <v>18840.662</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
+      <c r="M23" s="1">
+        <v>1.27</v>
+      </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="10"/>
+      <c r="O23" s="12">
+        <v>4.21</v>
+      </c>
+      <c r="P23" s="12">
+        <v>5.23</v>
+      </c>
+      <c r="Q23" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>62.306413301662708</v>
+      </c>
+      <c r="R23" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>50.154875717017205</v>
+      </c>
+      <c r="S23" s="18">
+        <v>3900</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="U23" s="1" t="s">
         <v>85</v>
       </c>
@@ -3030,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="13">
         <v>90.25</v>
@@ -3066,66 +3127,82 @@
       <c r="P24" s="12">
         <v>8.56</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>11.1557478368356</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>10.54322429906542</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="18">
         <v>17000</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="13">
-        <v>81.569999999999993</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="E25" s="3">
         <v>199.6</v>
       </c>
       <c r="F25" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16281.371999999998</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>15969.996000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>100.9</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2539.9</v>
+      </c>
       <c r="I25" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>16281.371999999998</v>
+        <v>18408.996000000003</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="7"/>
+      <c r="M25" s="1">
+        <v>1.08</v>
+      </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="10"/>
+      <c r="O25" s="12">
+        <v>3.99</v>
+      </c>
+      <c r="P25" s="12">
+        <v>4.43</v>
+      </c>
+      <c r="Q25" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>20.05263157894737</v>
+      </c>
+      <c r="R25" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>18.060948081264112</v>
+      </c>
+      <c r="S25" s="18">
+        <v>16000</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="U25" s="1" t="s">
         <v>85</v>
       </c>
@@ -3136,10 +3213,10 @@
     </row>
     <row r="26" spans="2:23" ht="13.9" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="13">
         <v>30.87</v>
@@ -3176,19 +3253,19 @@
       <c r="P26" s="12">
         <v>2.72</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>12.298804780876495</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>11.349264705882353</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="18">
         <v>38000</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>81</v>
@@ -3203,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="13">
         <v>210.98</v>
@@ -3227,20 +3304,20 @@
       <c r="N27" s="7"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="1" t="e">
+      <c r="Q27" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="W27" s="2"/>
     </row>
@@ -3273,11 +3350,11 @@
       <c r="N28" s="7"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="1" t="e">
+      <c r="Q28" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3319,11 +3396,11 @@
       <c r="N29" s="7"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="1" t="e">
+      <c r="Q29" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3341,7 +3418,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1">
         <v>297.95999999999998</v>
@@ -3388,34 +3465,34 @@
       <c r="P30" s="12">
         <v>5.2</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>78.410526315789468</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>57.3</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="18">
         <v>4500</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="2:23" ht="13.9" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1">
         <v>64.010000000000005</v>
@@ -3451,19 +3528,19 @@
       <c r="P31" s="12">
         <v>6.02</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>11.554151624548737</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>10.632890365448507</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="18">
         <v>22000</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>76</v>
@@ -3472,7 +3549,7 @@
         <v>85</v>
       </c>
       <c r="W31" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="13.9" customHeight="1">
@@ -3480,7 +3557,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="13">
         <v>53.33</v>
@@ -3504,11 +3581,11 @@
       <c r="N32" s="7"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="1" t="e">
+      <c r="Q32" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3525,7 +3602,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="13">
         <v>69.25</v>
@@ -3570,19 +3647,19 @@
       <c r="P33" s="12">
         <v>3.92</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>20.130813953488371</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>17.665816326530614</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="18">
         <v>5300</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>85</v>
@@ -3621,11 +3698,11 @@
       <c r="N34" s="7"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="1" t="e">
+      <c r="Q34" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3643,7 +3720,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="13">
         <v>162.86000000000001</v>
@@ -3667,11 +3744,11 @@
       <c r="N35" s="7"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="1" t="e">
+      <c r="Q35" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3713,11 +3790,11 @@
       <c r="N36" s="7"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="1" t="e">
+      <c r="Q36" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3759,11 +3836,11 @@
       <c r="N37" s="7"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="1" t="e">
+      <c r="Q37" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3781,7 +3858,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="13">
         <v>123</v>
@@ -3817,19 +3894,19 @@
       <c r="P38" s="12">
         <v>14.02</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>9.1997008227374728</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>8.7731811697574891</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="18">
         <v>14100</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>85</v>
@@ -3838,7 +3915,7 @@
         <v>128</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="13.9" customHeight="1">
@@ -3846,7 +3923,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="13">
         <v>160</v>
@@ -3870,11 +3947,11 @@
       <c r="N39" s="7"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="1" t="e">
+      <c r="Q39" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3892,7 +3969,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2">
         <v>80</v>
@@ -3921,20 +3998,20 @@
       <c r="N40" s="7"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" s="1" t="e">
+      <c r="Q40" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="10"/>
       <c r="U40" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="2:23" ht="13.9" customHeight="1">
@@ -3942,7 +4019,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="13">
         <v>135.35</v>
@@ -3966,11 +4043,11 @@
       <c r="N41" s="7"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-      <c r="Q41" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R41" s="1" t="e">
+      <c r="Q41" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3985,10 +4062,10 @@
     </row>
     <row r="42" spans="2:23" ht="13.9" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="2">
         <v>71</v>
@@ -4015,17 +4092,17 @@
       <c r="N42" s="7"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R42" s="1" t="e">
+      <c r="Q42" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T42" s="10"/>
       <c r="U42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="13.9" customHeight="1">
@@ -4033,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="13">
         <v>13.84</v>
@@ -4057,11 +4134,11 @@
       <c r="N43" s="7"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
-      <c r="Q43" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R43" s="1" t="e">
+      <c r="Q43" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4079,7 +4156,7 @@
         <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="13">
         <v>37.340000000000003</v>
@@ -4103,11 +4180,11 @@
       <c r="N44" s="7"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
-      <c r="Q44" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R44" s="1" t="e">
+      <c r="Q44" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4125,7 +4202,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="1">
         <v>17.68</v>
@@ -4149,11 +4226,11 @@
       <c r="N45" s="7"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
-      <c r="Q45" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R45" s="1" t="e">
+      <c r="Q45" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4171,7 +4248,7 @@
         <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="13">
         <v>56.97</v>
@@ -4197,19 +4274,29 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="7"/>
+      <c r="M46" s="1">
+        <v>1.19</v>
+      </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
+      <c r="O46" s="12">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="P46" s="12">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="Q46" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>12.977220956719819</v>
+      </c>
+      <c r="R46" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>12.044397463002113</v>
+      </c>
+      <c r="S46" s="18">
+        <v>3900</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>85</v>
@@ -4221,10 +4308,10 @@
     </row>
     <row r="47" spans="2:23" ht="13.9" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="13">
         <v>76.42</v>
@@ -4260,11 +4347,11 @@
       <c r="P47" s="12">
         <v>2.38</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
         <v>35.544186046511633</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>32.109243697478995</v>
       </c>
@@ -4272,16 +4359,16 @@
         <v>651</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="13.9" customHeight="1">
@@ -4289,7 +4376,7 @@
         <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="13">
         <v>22</v>
@@ -4313,11 +4400,11 @@
       <c r="N48" s="7"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="1" t="e">
+      <c r="Q48" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4335,7 +4422,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" s="13">
         <v>29.07</v>
@@ -4359,11 +4446,11 @@
       <c r="N49" s="7"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="1" t="e">
+      <c r="Q49" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4381,7 +4468,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2">
         <v>27.5</v>
@@ -4393,8 +4480,12 @@
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
         <v>1280.125</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
       <c r="I50" s="4">
         <v>1180</v>
       </c>
@@ -4404,20 +4495,20 @@
       <c r="N50" s="7"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R50" s="1" t="e">
+      <c r="Q50" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T50" s="10"/>
       <c r="U50" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="13.9" customHeight="1">
@@ -4425,7 +4516,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="13">
         <v>6.72</v>
@@ -4449,11 +4540,11 @@
       <c r="N51" s="7"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
-      <c r="Q51" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R51" s="1" t="e">
+      <c r="Q51" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4471,7 +4562,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="13">
         <v>33.520000000000003</v>
@@ -4495,11 +4586,11 @@
       <c r="N52" s="7"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
-      <c r="Q52" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R52" s="1" t="e">
+      <c r="Q52" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4517,7 +4608,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="13">
         <v>12.46</v>
@@ -4541,11 +4632,11 @@
       <c r="N53" s="7"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
-      <c r="Q53" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R53" s="1" t="e">
+      <c r="Q53" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4563,7 +4654,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="1">
         <v>12.19</v>
@@ -4587,11 +4678,11 @@
       <c r="N54" s="7"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R54" s="1" t="e">
+      <c r="Q54" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4609,7 +4700,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="1">
         <v>13.97</v>
@@ -4633,11 +4724,11 @@
       <c r="N55" s="7"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
-      <c r="Q55" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R55" s="1" t="e">
+      <c r="Q55" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4679,11 +4770,11 @@
       <c r="N56" s="7"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
-      <c r="Q56" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R56" s="1" t="e">
+      <c r="Q56" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4695,7 +4786,7 @@
         <v>87</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="2:23" ht="13.9" customHeight="1">
@@ -4703,7 +4794,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="13">
         <v>11.4</v>
@@ -4727,11 +4818,11 @@
       <c r="N57" s="7"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
-      <c r="Q57" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R57" s="1" t="e">
+      <c r="Q57" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4749,7 +4840,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="13">
         <v>4.59</v>
@@ -4773,11 +4864,11 @@
       <c r="N58" s="7"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
-      <c r="Q58" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" s="1" t="e">
+      <c r="Q58" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4795,7 +4886,7 @@
         <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" s="13">
         <v>1.28</v>
@@ -4819,11 +4910,11 @@
       <c r="N59" s="7"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
-      <c r="Q59" s="1" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R59" s="1" t="e">
+      <c r="Q59" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="13" t="e">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -4996,11 +5087,20 @@
     <hyperlink ref="B24" r:id="rId13" xr:uid="{BF852F1D-304C-4230-82DC-C6786B6DA415}"/>
     <hyperlink ref="B22" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
+    <hyperlink ref="B11" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
+    <hyperlink ref="B14" r:id="rId19" xr:uid="{A0E07B2D-8641-47EF-A293-8759FE82D9C5}"/>
+    <hyperlink ref="B6" r:id="rId20" xr:uid="{BEEC5C98-5FDE-4FC8-965F-3E188368E7A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:I72" calculatedColumn="1"/>
+    <ignoredError sqref="Q5:V46 Q48:V67 Q47:R47 T47:V47" evalError="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5021,42 +5121,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15">
       <c r="B2" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228ACA77-C3CF-4163-9FDC-FC2FE2707201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E4E100-CB73-462D-9360-9CC348848BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1256,13 +1257,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1427,37 +1428,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="53">
-          <cell r="BZ53">
-            <v>9389.9160729781779</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="BZ55">
-            <v>68.364878580110513</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="Main | Overview"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
@@ -1482,25 +1452,89 @@
       <sheetData sheetId="1">
         <row r="59">
           <cell r="BU59">
-            <v>12198.536959271867</v>
+            <v>12137.662860729284</v>
           </cell>
         </row>
         <row r="61">
           <cell r="BU61">
-            <v>316.024273556266</v>
+            <v>314.44722437122499</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="53">
+          <cell r="BZ53">
+            <v>7562.2393729299547</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="BZ55">
+            <v>55.058167986384817</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Markets | Product Lines"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="78">
+          <cell r="CZ78">
+            <v>151758.61006086494</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="CZ80">
+            <v>397.10336416005941</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1521,19 +1555,19 @@
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
+      <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
+      <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
-      <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
+      <calculatedColumnFormula>[1]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
-      <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
+      <calculatedColumnFormula>[1]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
@@ -1824,7 +1858,7 @@
   <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1835,8 +1869,8 @@
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
     <col min="6" max="8" width="12.7109375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="19" width="9.140625" style="1" customWidth="1"/>
@@ -1844,7 +1878,8 @@
     <col min="21" max="21" width="28.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="9.5703125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25">
@@ -1929,15 +1964,15 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="13">
-        <v>155.30000000000001</v>
+      <c r="D3" s="1">
+        <v>154.59</v>
       </c>
       <c r="E3" s="3">
         <v>2406</v>
       </c>
       <c r="F3" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>373651.80000000005</v>
+        <v>371943.54000000004</v>
       </c>
       <c r="G3" s="2">
         <v>38781</v>
@@ -1947,7 +1982,7 @@
       </c>
       <c r="I3" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>382770.80000000005</v>
+        <v>381062.54000000004</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1964,11 +1999,11 @@
       </c>
       <c r="Q3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>14.637134778510841</v>
+        <v>14.570216776625825</v>
       </c>
       <c r="R3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>13.990990990990992</v>
+        <v>13.927027027027028</v>
       </c>
       <c r="S3" s="18">
         <v>138100</v>
@@ -1993,15 +2028,15 @@
       <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="13">
-        <v>132.6</v>
+      <c r="D4" s="1">
+        <v>133.18</v>
       </c>
       <c r="E4" s="3">
         <v>1734</v>
       </c>
       <c r="F4" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>229928.4</v>
+        <v>230934.12000000002</v>
       </c>
       <c r="G4" s="4">
         <v>7967</v>
@@ -2011,7 +2046,7 @@
       </c>
       <c r="I4" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>236086.39999999999</v>
+        <v>237092.12000000002</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2028,11 +2063,11 @@
       </c>
       <c r="Q4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>25.697674418604649</v>
+        <v>25.810077519379846</v>
       </c>
       <c r="R4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>23.345070422535212</v>
+        <v>23.447183098591552</v>
       </c>
       <c r="S4" s="18">
         <v>114000</v>
@@ -2057,21 +2092,21 @@
       <c r="C5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="13">
-        <v>532.79999999999995</v>
+      <c r="D5" s="1">
+        <v>536.42999999999995</v>
       </c>
       <c r="E5" s="3">
         <v>356.6</v>
       </c>
       <c r="F5" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>189996.47999999998</v>
+        <v>191290.93799999999</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>189996.47999999998</v>
+        <v>191290.93799999999</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2103,15 +2138,15 @@
       <c r="C6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="13">
-        <v>407.75</v>
+      <c r="D6" s="1">
+        <v>404.51</v>
       </c>
       <c r="E6" s="3">
         <v>380.8</v>
       </c>
       <c r="F6" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>155271.20000000001</v>
+        <v>154037.408</v>
       </c>
       <c r="G6" s="4">
         <v>5947</v>
@@ -2121,7 +2156,7 @@
       </c>
       <c r="I6" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>183513.2</v>
+        <v>182279.408</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2138,11 +2173,11 @@
       </c>
       <c r="Q6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>18.276557597489916</v>
+        <v>18.131331241595699</v>
       </c>
       <c r="R6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>16.514783313082219</v>
+        <v>16.383556095585256</v>
       </c>
       <c r="S6" s="18">
         <v>125000</v>
@@ -2165,15 +2200,15 @@
       <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="13">
-        <v>104.05</v>
+      <c r="D7" s="1">
+        <v>102.63</v>
       </c>
       <c r="E7" s="3">
         <v>1476</v>
       </c>
       <c r="F7" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>153577.79999999999</v>
+        <v>151481.88</v>
       </c>
       <c r="G7" s="4">
         <v>2502</v>
@@ -2183,12 +2218,12 @@
       </c>
       <c r="I7" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>161960.79999999999</v>
+        <v>159864.88</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="1">
+      <c r="M7" s="13">
         <v>0.73</v>
       </c>
       <c r="N7" s="7">
@@ -2202,11 +2237,11 @@
       </c>
       <c r="Q7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>30.247093023255815</v>
+        <v>29.834302325581394</v>
       </c>
       <c r="R7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>26.543367346938776</v>
+        <v>26.18112244897959</v>
       </c>
       <c r="S7" s="18">
         <v>53000</v>
@@ -2231,15 +2266,15 @@
       <c r="C8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="13">
-        <v>381.36</v>
+      <c r="D8" s="1">
+        <v>380.92</v>
       </c>
       <c r="E8" s="3">
         <v>381.4</v>
       </c>
       <c r="F8" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>145450.704</v>
+        <v>145282.88800000001</v>
       </c>
       <c r="G8" s="4">
         <f>3850+834</f>
@@ -2251,11 +2286,20 @@
       </c>
       <c r="I8" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>156250.704</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
+        <v>156082.88800000001</v>
+      </c>
+      <c r="J8" s="4">
+        <f>[3]Model!$CZ$78</f>
+        <v>151758.61006086494</v>
+      </c>
+      <c r="K8" s="2">
+        <f>[3]Model!$CZ$80</f>
+        <v>397.10336416005941</v>
+      </c>
+      <c r="L8" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>4.2484942140237791E-2</v>
+      </c>
       <c r="M8" s="1">
         <v>0.94</v>
       </c>
@@ -2270,11 +2314,11 @@
       </c>
       <c r="Q8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>28.375000000000004</v>
+        <v>28.342261904761909</v>
       </c>
       <c r="R8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>25.646267652992606</v>
+        <v>25.61667787491594</v>
       </c>
       <c r="S8" s="18">
         <v>53000</v>
@@ -2299,21 +2343,21 @@
       <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="13">
-        <v>197.4</v>
+      <c r="D9" s="1">
+        <v>191.5</v>
       </c>
       <c r="E9" s="3">
         <v>719.2</v>
       </c>
       <c r="F9" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>141970.08000000002</v>
+        <v>137726.80000000002</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>141970.08000000002</v>
+        <v>137726.80000000002</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2345,15 +2389,15 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
-        <v>83.77</v>
+      <c r="D10" s="1">
+        <v>84</v>
       </c>
       <c r="E10" s="3">
         <v>1315</v>
       </c>
       <c r="F10" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>110157.54999999999</v>
+        <v>110460</v>
       </c>
       <c r="G10" s="4">
         <f>1240+6682</f>
@@ -2365,7 +2409,7 @@
       </c>
       <c r="I10" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>128792.54999999999</v>
+        <v>129095</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2382,11 +2426,11 @@
       </c>
       <c r="Q10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>15.342490842490841</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="R10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>14.393470790378005</v>
+        <v>14.432989690721648</v>
       </c>
       <c r="S10" s="18">
         <v>95000</v>
@@ -2405,110 +2449,110 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B11" s="6" t="s">
-        <v>14</v>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="13">
-        <v>167.35</v>
+        <v>78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
       </c>
       <c r="E11" s="3">
-        <v>289.10000000000002</v>
+        <v>494.6</v>
       </c>
       <c r="F11" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>48380.885000000002</v>
-      </c>
-      <c r="G11" s="4">
-        <v>763</v>
-      </c>
-      <c r="H11" s="4">
-        <v>19270</v>
-      </c>
+        <v>49460</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>66887.885000000009</v>
+        <v>49460</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="1">
-        <v>0.34</v>
-      </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="12">
-        <v>14.23</v>
-      </c>
-      <c r="P11" s="12">
-        <v>14.93</v>
-      </c>
-      <c r="Q11" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>11.760365425158115</v>
-      </c>
-      <c r="R11" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.208975217682518</v>
-      </c>
-      <c r="S11" s="18">
-        <v>70000</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="10"/>
       <c r="U11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>50</v>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="13">
-        <v>97.38</v>
+        <v>134</v>
+      </c>
+      <c r="D12" s="1">
+        <v>167.63</v>
       </c>
       <c r="E12" s="3">
-        <v>494.6</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="F12" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>48164.148000000001</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>48461.833000000006</v>
+      </c>
+      <c r="G12" s="4">
+        <v>763</v>
+      </c>
+      <c r="H12" s="4">
+        <v>19270</v>
+      </c>
       <c r="I12" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>48164.148000000001</v>
+        <v>66968.833000000013</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
+      <c r="M12" s="13">
+        <v>0.34</v>
+      </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="10"/>
+      <c r="O12" s="12">
+        <v>14.23</v>
+      </c>
+      <c r="P12" s="12">
+        <v>14.93</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>11.780042164441321</v>
+      </c>
+      <c r="R12" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>11.227729403884796</v>
+      </c>
+      <c r="S12" s="18">
+        <v>70000</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="U12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W12" s="2"/>
     </row>
@@ -2519,15 +2563,15 @@
       <c r="C13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="13">
-        <v>75.11</v>
+      <c r="D13" s="1">
+        <v>69.2</v>
       </c>
       <c r="E13" s="3">
         <v>588</v>
       </c>
       <c r="F13" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>44164.68</v>
+        <v>40689.599999999999</v>
       </c>
       <c r="G13" s="4">
         <v>3976</v>
@@ -2537,7 +2581,7 @@
       </c>
       <c r="I13" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>40786.68</v>
+        <v>37311.599999999999</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2554,11 +2598,11 @@
       </c>
       <c r="Q13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>30.40890688259109</v>
+        <v>28.016194331983804</v>
       </c>
       <c r="R13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>27.312727272727273</v>
+        <v>25.163636363636364</v>
       </c>
       <c r="S13" s="18">
         <v>15800</v>
@@ -2583,15 +2627,15 @@
       <c r="C14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="13">
-        <v>475.07</v>
+      <c r="D14" s="1">
+        <v>492.7</v>
       </c>
       <c r="E14" s="3">
         <v>81.599999999999994</v>
       </c>
       <c r="F14" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>38765.712</v>
+        <v>40204.32</v>
       </c>
       <c r="G14" s="4">
         <v>163.97</v>
@@ -2601,7 +2645,7 @@
       </c>
       <c r="I14" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>39222.472000000002</v>
+        <v>40661.08</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2618,11 +2662,11 @@
       </c>
       <c r="Q14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>39.164880461665291</v>
+        <v>40.618301731244841</v>
       </c>
       <c r="R14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>34.880323054331868</v>
+        <v>36.174743024963291</v>
       </c>
       <c r="S14" s="18">
         <v>70000</v>
@@ -2646,20 +2690,20 @@
         <v>159</v>
       </c>
       <c r="D15" s="1">
-        <v>240.66</v>
+        <v>245</v>
       </c>
       <c r="E15" s="3">
         <v>146.9</v>
       </c>
       <c r="F15" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>35352.953999999998</v>
+        <v>35990.5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>35352.953999999998</v>
+        <v>35990.5</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2686,26 +2730,26 @@
     </row>
     <row r="16" spans="1:23" ht="13.9" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="13">
-        <v>69.5</v>
+        <v>140</v>
+      </c>
+      <c r="D16" s="1">
+        <v>84.2</v>
       </c>
       <c r="E16" s="3">
-        <v>457</v>
+        <v>390.7</v>
       </c>
       <c r="F16" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>31761.5</v>
+        <v>32896.94</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>31761.5</v>
+        <v>32896.94</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2726,32 +2770,32 @@
         <v>85</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="2:23" ht="13.9" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="13">
-        <v>80.27</v>
+        <v>173</v>
+      </c>
+      <c r="D17" s="1">
+        <v>69.91</v>
       </c>
       <c r="E17" s="3">
-        <v>390.7</v>
+        <v>457</v>
       </c>
       <c r="F17" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>31361.488999999998</v>
+        <v>31948.87</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>31361.488999999998</v>
+        <v>31948.87</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2772,7 +2816,7 @@
         <v>85</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="W17" s="2"/>
     </row>
@@ -2783,21 +2827,21 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="13">
-        <v>108.37</v>
+      <c r="D18" s="1">
+        <v>108</v>
       </c>
       <c r="E18" s="3">
         <v>285.2</v>
       </c>
       <c r="F18" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>30907.124</v>
+        <v>30801.599999999999</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>30907.124</v>
+        <v>30801.599999999999</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2829,21 +2873,21 @@
       <c r="C19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="13">
-        <v>152.30000000000001</v>
+      <c r="D19" s="1">
+        <v>149.6</v>
       </c>
       <c r="E19" s="3">
         <v>176.1</v>
       </c>
       <c r="F19" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>26820.030000000002</v>
+        <v>26344.559999999998</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>26820.030000000002</v>
+        <v>26344.559999999998</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2876,20 +2920,20 @@
         <v>74</v>
       </c>
       <c r="D20" s="1">
-        <v>25.64</v>
+        <v>25.54</v>
       </c>
       <c r="E20" s="3">
         <v>925</v>
       </c>
       <c r="F20" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23717</v>
+        <v>23624.5</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23717</v>
+        <v>23624.5</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2921,21 +2965,21 @@
       <c r="C21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="13">
-        <v>1091.1300000000001</v>
+      <c r="D21" s="1">
+        <v>1080.98</v>
       </c>
       <c r="E21" s="3">
         <v>20.9</v>
       </c>
       <c r="F21" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22804.617000000002</v>
+        <v>22592.482</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22804.617000000002</v>
+        <v>22592.482</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2962,127 +3006,127 @@
     </row>
     <row r="22" spans="2:23" ht="13.9" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="13">
-        <v>224.3</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>314.60000000000002</v>
       </c>
       <c r="E22" s="3">
-        <v>98.9</v>
+        <v>70.2</v>
       </c>
       <c r="F22" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22183.270000000004</v>
+        <v>22084.920000000002</v>
       </c>
       <c r="G22" s="4">
-        <f>1937.9+172.2</f>
-        <v>2110.1</v>
+        <v>953.4</v>
       </c>
       <c r="H22" s="4">
-        <f>80+2156.2</f>
-        <v>2236.1999999999998</v>
+        <v>1379.9</v>
       </c>
       <c r="I22" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22309.370000000006</v>
+        <v>22511.420000000002</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
       <c r="M22" s="1">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="12">
-        <v>9.1</v>
+        <v>4.21</v>
       </c>
       <c r="P22" s="12">
-        <v>9.99</v>
+        <v>5.23</v>
       </c>
       <c r="Q22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>24.64835164835165</v>
+        <v>74.7268408551069</v>
       </c>
       <c r="R22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>22.452452452452452</v>
+        <v>60.152963671128106</v>
       </c>
       <c r="S22" s="18">
-        <v>18000</v>
+        <v>3900</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:23" ht="13.9" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
-        <v>262.31</v>
+        <v>218.78</v>
       </c>
       <c r="E23" s="3">
-        <v>70.2</v>
+        <v>98.9</v>
       </c>
       <c r="F23" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>18414.162</v>
+        <v>21637.342000000001</v>
       </c>
       <c r="G23" s="4">
-        <v>953.4</v>
+        <f>1937.9+172.2</f>
+        <v>2110.1</v>
       </c>
       <c r="H23" s="4">
-        <v>1379.9</v>
+        <f>80+2156.2</f>
+        <v>2236.1999999999998</v>
       </c>
       <c r="I23" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18840.662</v>
+        <v>21763.442000000003</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
       <c r="M23" s="1">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="12">
-        <v>4.21</v>
+        <v>9.1</v>
       </c>
       <c r="P23" s="12">
-        <v>5.23</v>
+        <v>9.99</v>
       </c>
       <c r="Q23" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>62.306413301662708</v>
+        <v>24.041758241758242</v>
       </c>
       <c r="R23" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>50.154875717017205</v>
+        <v>21.8998998998999</v>
       </c>
       <c r="S23" s="18">
-        <v>3900</v>
+        <v>18000</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W23" s="2"/>
     </row>
@@ -3093,15 +3137,15 @@
       <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="13">
-        <v>90.25</v>
+      <c r="D24" s="1">
+        <v>96.17</v>
       </c>
       <c r="E24" s="3">
         <v>199.1</v>
       </c>
       <c r="F24" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>17968.774999999998</v>
+        <v>19147.447</v>
       </c>
       <c r="G24" s="4">
         <v>1384.5</v>
@@ -3112,7 +3156,7 @@
       </c>
       <c r="I24" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23760.574999999997</v>
+        <v>24939.246999999999</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3129,11 +3173,11 @@
       </c>
       <c r="Q24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>11.1557478368356</v>
+        <v>11.88751545117429</v>
       </c>
       <c r="R24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>10.54322429906542</v>
+        <v>11.234813084112149</v>
       </c>
       <c r="S24" s="18">
         <v>17000</v>
@@ -3151,127 +3195,127 @@
     </row>
     <row r="25" spans="2:23" ht="13.9" customHeight="1">
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="13">
-        <v>80.010000000000005</v>
+        <v>202</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30.8</v>
       </c>
       <c r="E25" s="3">
-        <v>199.6</v>
+        <v>510.9</v>
       </c>
       <c r="F25" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15969.996000000001</v>
+        <v>15735.72</v>
       </c>
       <c r="G25" s="4">
-        <v>100.9</v>
+        <f>1679</f>
+        <v>1679</v>
       </c>
       <c r="H25" s="4">
-        <v>2539.9</v>
+        <f>2126+626+10374</f>
+        <v>13126</v>
       </c>
       <c r="I25" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18408.996000000003</v>
+        <v>27182.720000000001</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="1">
-        <v>1.08</v>
+      <c r="M25" s="13">
+        <v>0.63</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="12">
-        <v>3.99</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="P25" s="12">
-        <v>4.43</v>
+        <v>2.72</v>
       </c>
       <c r="Q25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>20.05263157894737</v>
+        <v>12.270916334661356</v>
       </c>
       <c r="R25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>18.060948081264112</v>
+        <v>11.323529411764705</v>
       </c>
       <c r="S25" s="18">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="T25" s="10" t="s">
         <v>194</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="2:23" ht="13.9" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="13">
-        <v>30.87</v>
+        <v>139</v>
+      </c>
+      <c r="D26" s="1">
+        <v>78.7</v>
       </c>
       <c r="E26" s="3">
-        <v>510.9</v>
+        <v>199.6</v>
       </c>
       <c r="F26" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15771.483</v>
+        <v>15708.52</v>
       </c>
       <c r="G26" s="4">
-        <f>1679</f>
-        <v>1679</v>
+        <v>100.9</v>
       </c>
       <c r="H26" s="4">
-        <f>2126+626+10374</f>
-        <v>13126</v>
+        <v>2539.9</v>
       </c>
       <c r="I26" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27218.483</v>
+        <v>18147.52</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1">
-        <v>0.63</v>
+        <v>1.08</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="12">
-        <v>2.5099999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="P26" s="12">
-        <v>2.72</v>
+        <v>4.43</v>
       </c>
       <c r="Q26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.298804780876495</v>
+        <v>19.724310776942357</v>
       </c>
       <c r="R26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.349264705882353</v>
+        <v>17.765237020316029</v>
       </c>
       <c r="S26" s="18">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>194</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="W26" s="2"/>
     </row>
@@ -3282,21 +3326,21 @@
       <c r="C27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="13">
-        <v>210.98</v>
+      <c r="D27" s="1">
+        <v>205.88</v>
       </c>
       <c r="E27" s="3">
         <v>72.3</v>
       </c>
       <c r="F27" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15253.853999999999</v>
+        <v>14885.124</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15253.853999999999</v>
+        <v>14885.124</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3328,21 +3372,21 @@
       <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="13">
-        <v>177.61</v>
+      <c r="D28" s="1">
+        <v>181.88</v>
       </c>
       <c r="E28" s="3">
         <v>73.8</v>
       </c>
       <c r="F28" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13107.618</v>
+        <v>13422.743999999999</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13107.618</v>
+        <v>13422.743999999999</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3374,21 +3418,21 @@
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="13">
-        <v>52.73</v>
+      <c r="D29" s="1">
+        <v>57.8</v>
       </c>
       <c r="E29" s="3">
         <v>231.7</v>
       </c>
       <c r="F29" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12217.540999999999</v>
+        <v>13392.259999999998</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>12217.540999999999</v>
+        <v>13392.259999999998</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3414,143 +3458,143 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B30" s="6" t="s">
-        <v>62</v>
+      <c r="B30" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1">
-        <v>297.95999999999998</v>
+        <v>70.23</v>
       </c>
       <c r="E30" s="3">
-        <v>38.6</v>
+        <v>172.8</v>
       </c>
       <c r="F30" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11501.255999999999</v>
+        <v>12135.744000000001</v>
       </c>
       <c r="G30" s="4">
-        <v>379</v>
+        <v>762</v>
       </c>
       <c r="H30" s="4">
-        <f>'[2]Main | Overview'!$C$9</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>11122.255999999999</v>
-      </c>
-      <c r="J30" s="2">
-        <f>[2]Model!$BU$59</f>
-        <v>12198.536959271867</v>
-      </c>
-      <c r="K30" s="2">
-        <f>[2]Model!$BU$61</f>
-        <v>316.024273556266</v>
-      </c>
-      <c r="L30" s="7">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>6.0626505424439481E-2</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O30" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="P30" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="Q30" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>78.410526315789468</v>
-      </c>
-      <c r="R30" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>57.3</v>
-      </c>
-      <c r="S30" s="18">
-        <v>4500</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W30" s="2"/>
-    </row>
-    <row r="31" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="1">
-        <v>64.010000000000005</v>
-      </c>
-      <c r="E31" s="3">
-        <v>172.8</v>
-      </c>
-      <c r="F31" s="4">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11060.928000000002</v>
-      </c>
-      <c r="G31" s="4">
-        <v>762</v>
-      </c>
-      <c r="H31" s="4">
         <f>200+7810</f>
         <v>8010</v>
       </c>
+      <c r="I30" s="4">
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>19383.743999999999</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="12">
+        <v>5.54</v>
+      </c>
+      <c r="P30" s="12">
+        <v>6.02</v>
+      </c>
+      <c r="Q30" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>12.676895306859207</v>
+      </c>
+      <c r="R30" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>11.666112956810633</v>
+      </c>
+      <c r="S30" s="18">
+        <v>22000</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="13.9" customHeight="1">
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="1">
+        <v>298.5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="F31" s="4">
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>11522.1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>379</v>
+      </c>
+      <c r="H31" s="4">
+        <f>'[1]Main | Overview'!$C$9</f>
+        <v>0</v>
+      </c>
       <c r="I31" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18308.928</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="7"/>
+        <v>11143.1</v>
+      </c>
+      <c r="J31" s="2">
+        <f>[1]Model!$BU$59</f>
+        <v>12137.662860729284</v>
+      </c>
+      <c r="K31" s="2">
+        <f>[1]Model!$BU$61</f>
+        <v>314.44722437122499</v>
+      </c>
+      <c r="L31" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>5.3424537257035221E-2</v>
+      </c>
       <c r="M31" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="N31" s="7"/>
+        <v>0.53</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2.4899999999999999E-2</v>
+      </c>
       <c r="O31" s="12">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="P31" s="12">
-        <v>6.02</v>
+        <v>5.2</v>
       </c>
       <c r="Q31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>11.554151624548737</v>
+        <v>78.55263157894737</v>
       </c>
       <c r="R31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>10.632890365448507</v>
+        <v>57.403846153846153</v>
       </c>
       <c r="S31" s="18">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>206</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="W31" s="2"/>
     </row>
     <row r="32" spans="2:23" ht="13.9" customHeight="1">
       <c r="B32" s="1" t="s">
@@ -3559,21 +3603,21 @@
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="13">
-        <v>53.33</v>
+      <c r="D32" s="1">
+        <v>51.5</v>
       </c>
       <c r="E32" s="3">
         <v>185.6</v>
       </c>
       <c r="F32" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9898.0479999999989</v>
+        <v>9558.4</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9898.0479999999989</v>
+        <v>9558.4</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3598,99 +3642,73 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B33" s="6" t="s">
-        <v>48</v>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="13">
-        <v>69.25</v>
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40.479999999999997</v>
       </c>
       <c r="E33" s="3">
-        <v>137.4</v>
+        <v>216.1</v>
       </c>
       <c r="F33" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9514.9500000000007</v>
-      </c>
-      <c r="G33" s="4">
-        <v>890.1</v>
-      </c>
-      <c r="H33" s="4">
-        <f>443.4</f>
-        <v>443.4</v>
-      </c>
+        <v>8747.7279999999992</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9068.25</v>
-      </c>
-      <c r="J33" s="2">
-        <f>[1]Model!$BZ$53</f>
-        <v>9389.9160729781779</v>
-      </c>
-      <c r="K33" s="2">
-        <f>[1]Model!$BZ$55</f>
-        <v>68.364878580110513</v>
-      </c>
-      <c r="L33" s="7">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-1.278153674930671E-2</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1.29</v>
-      </c>
+        <v>8747.7279999999992</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="12">
-        <v>3.44</v>
-      </c>
-      <c r="P33" s="12">
-        <v>3.92</v>
-      </c>
-      <c r="Q33" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>20.130813953488371</v>
-      </c>
-      <c r="R33" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>17.665816326530614</v>
-      </c>
-      <c r="S33" s="18">
-        <v>5300</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="10"/>
       <c r="U33" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="2:23" ht="13.9" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1">
-        <v>42.81</v>
+        <v>156.57</v>
       </c>
       <c r="E34" s="3">
-        <v>216.1</v>
+        <v>53.6</v>
       </c>
       <c r="F34" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9251.241</v>
+        <v>8392.152</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9251.241</v>
+        <v>8392.152</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3708,35 +3726,35 @@
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="2:23" ht="13.9" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="13">
-        <v>162.86000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="1">
+        <v>67.040000000000006</v>
       </c>
       <c r="E35" s="3">
-        <v>53.6</v>
+        <v>124.2</v>
       </c>
       <c r="F35" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8729.2960000000003</v>
+        <v>8326.3680000000004</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8729.2960000000003</v>
+        <v>8326.3680000000004</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3754,10 +3772,10 @@
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W35" s="2"/>
     </row>
@@ -3768,21 +3786,21 @@
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="13">
-        <v>12.63</v>
+      <c r="D36" s="1">
+        <v>12.13</v>
       </c>
       <c r="E36" s="3">
         <v>680.8</v>
       </c>
       <c r="F36" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8598.5040000000008</v>
+        <v>8258.1039999999994</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8598.5040000000008</v>
+        <v>8258.1039999999994</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3808,48 +3826,74 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B37" s="1" t="s">
-        <v>40</v>
+      <c r="B37" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="13">
-        <v>66.58</v>
+        <v>145</v>
+      </c>
+      <c r="D37" s="1">
+        <v>55.93</v>
       </c>
       <c r="E37" s="3">
-        <v>124.2</v>
+        <v>137.4</v>
       </c>
       <c r="F37" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8269.2360000000008</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+        <v>7684.7820000000002</v>
+      </c>
+      <c r="G37" s="4">
+        <v>890.1</v>
+      </c>
+      <c r="H37" s="4">
+        <f>443.4</f>
+        <v>443.4</v>
+      </c>
       <c r="I37" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8269.2360000000008</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="7"/>
+        <v>7238.0819999999994</v>
+      </c>
+      <c r="J37" s="2">
+        <f>[2]Model!$BZ$53</f>
+        <v>7562.2393729299547</v>
+      </c>
+      <c r="K37" s="2">
+        <f>[2]Model!$BZ$55</f>
+        <v>55.058167986384817</v>
+      </c>
+      <c r="L37" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-1.5587913706690215E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.29</v>
+      </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="10"/>
+      <c r="O37" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="P37" s="12">
+        <v>3.92</v>
+      </c>
+      <c r="Q37" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>16.25872093023256</v>
+      </c>
+      <c r="R37" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>14.267857142857142</v>
+      </c>
+      <c r="S37" s="18">
+        <v>5300</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="U37" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W37" s="2"/>
     </row>
@@ -3860,15 +3904,15 @@
       <c r="C38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="13">
-        <v>123</v>
+      <c r="D38" s="1">
+        <v>129.15</v>
       </c>
       <c r="E38" s="3">
         <v>46.3</v>
       </c>
       <c r="F38" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>5694.9</v>
+        <v>5979.6449999999995</v>
       </c>
       <c r="G38" s="4">
         <v>243.2</v>
@@ -3879,7 +3923,7 @@
       </c>
       <c r="I38" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7210.1</v>
+        <v>7494.8449999999993</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3896,11 +3940,11 @@
       </c>
       <c r="Q38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>9.1997008227374728</v>
+        <v>9.6596858638743459</v>
       </c>
       <c r="R38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>8.7731811697574891</v>
+        <v>9.2118402282453644</v>
       </c>
       <c r="S38" s="18">
         <v>14100</v>
@@ -3919,27 +3963,32 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B39" s="1" t="s">
-        <v>55</v>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="13">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="D39" s="2">
+        <v>80</v>
       </c>
       <c r="E39" s="3">
-        <v>29.7</v>
+        <v>59.3</v>
       </c>
       <c r="F39" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4752</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+        <v>4744</v>
+      </c>
+      <c r="G39" s="4">
+        <f>41.141+0.067+70.397</f>
+        <v>111.605</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
       <c r="I39" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4752</v>
+        <v>4632.3950000000004</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -3956,41 +4005,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="10"/>
-      <c r="U39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W39" s="2"/>
+      <c r="U39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="40" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B40" s="6" t="s">
-        <v>45</v>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="2">
-        <v>80</v>
+        <v>147</v>
+      </c>
+      <c r="D40" s="1">
+        <v>151.25</v>
       </c>
       <c r="E40" s="3">
-        <v>59.3</v>
+        <v>29.7</v>
       </c>
       <c r="F40" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4744</v>
-      </c>
-      <c r="G40" s="4">
-        <f>41.141+0.067+70.397</f>
-        <v>111.605</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
+        <v>4492.125</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4632.3950000000004</v>
+        <v>4492.125</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4007,12 +4050,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="10"/>
-      <c r="U40" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="U40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W40" s="2"/>
     </row>
     <row r="41" spans="2:23" ht="13.9" customHeight="1">
       <c r="B41" s="1" t="s">
@@ -4021,21 +4065,21 @@
       <c r="C41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="13">
-        <v>135.35</v>
+      <c r="D41" s="1">
+        <v>137.69999999999999</v>
       </c>
       <c r="E41" s="3">
         <v>31.4</v>
       </c>
       <c r="F41" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4249.99</v>
+        <v>4323.78</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4249.99</v>
+        <v>4323.78</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4112,21 +4156,21 @@
       <c r="C43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="13">
-        <v>13.84</v>
+      <c r="D43" s="1">
+        <v>16.25</v>
       </c>
       <c r="E43" s="3">
         <v>198.8</v>
       </c>
       <c r="F43" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2751.3920000000003</v>
+        <v>3230.5</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2751.3920000000003</v>
+        <v>3230.5</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4158,21 +4202,21 @@
       <c r="C44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="13">
-        <v>37.340000000000003</v>
+      <c r="D44" s="1">
+        <v>44.06</v>
       </c>
       <c r="E44" s="3">
         <v>54.3</v>
       </c>
       <c r="F44" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2027.5620000000001</v>
+        <v>2392.4580000000001</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2027.5620000000001</v>
+        <v>2392.4580000000001</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4205,20 +4249,20 @@
         <v>155</v>
       </c>
       <c r="D45" s="1">
-        <v>17.68</v>
+        <v>17.38</v>
       </c>
       <c r="E45" s="3">
         <v>108.5</v>
       </c>
       <c r="F45" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1918.28</v>
+        <v>1885.7299999999998</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1918.28</v>
+        <v>1885.7299999999998</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4245,154 +4289,154 @@
     </row>
     <row r="46" spans="2:23" ht="13.9" customHeight="1">
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="13">
-        <v>56.97</v>
+        <v>192</v>
+      </c>
+      <c r="D46" s="1">
+        <v>78.7</v>
       </c>
       <c r="E46" s="3">
-        <v>30.97</v>
+        <v>22.56</v>
       </c>
       <c r="F46" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1764.3608999999999</v>
+        <v>1775.472</v>
       </c>
       <c r="G46" s="4">
-        <v>0.35485</v>
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
       </c>
       <c r="H46" s="4">
-        <f>0.714+891.443</f>
-        <v>892.15700000000004</v>
+        <v>0</v>
       </c>
       <c r="I46" s="4">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2656.1630500000001</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>1775.472</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="7"/>
       <c r="M46" s="1">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="12">
-        <v>4.3899999999999997</v>
+        <v>2.15</v>
       </c>
       <c r="P46" s="12">
-        <v>4.7300000000000004</v>
+        <v>2.38</v>
       </c>
       <c r="Q46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.977220956719819</v>
+        <v>36.604651162790702</v>
       </c>
       <c r="R46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>12.044397463002113</v>
-      </c>
-      <c r="S46" s="18">
-        <v>3900</v>
+        <v>33.067226890756302</v>
+      </c>
+      <c r="S46" s="1">
+        <v>651</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W46" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="2:23" ht="13.9" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="13">
-        <v>76.42</v>
+        <v>137</v>
+      </c>
+      <c r="D47" s="1">
+        <v>55.06</v>
       </c>
       <c r="E47" s="3">
-        <v>22.56</v>
+        <v>30.97</v>
       </c>
       <c r="F47" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1724.0352</v>
+        <v>1705.2082</v>
       </c>
       <c r="G47" s="4">
-        <f>25.61+274.112</f>
-        <v>299.72200000000004</v>
+        <v>0.35485</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <f>0.714+891.443</f>
+        <v>892.15700000000004</v>
       </c>
       <c r="I47" s="4">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1724.0352</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>2597.01035</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="7"/>
       <c r="M47" s="1">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="12">
-        <v>2.15</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P47" s="12">
-        <v>2.38</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Q47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>35.544186046511633</v>
+        <v>12.542141230068339</v>
       </c>
       <c r="R47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>32.109243697478995</v>
-      </c>
-      <c r="S47" s="1">
-        <v>651</v>
+        <v>11.640591966173361</v>
+      </c>
+      <c r="S47" s="18">
+        <v>3900</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="W47" s="2"/>
     </row>
     <row r="48" spans="2:23" ht="13.9" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="13">
-        <v>22</v>
+        <v>133</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30.99</v>
       </c>
       <c r="E48" s="3">
-        <v>66.3</v>
+        <v>48.9</v>
       </c>
       <c r="F48" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1458.6</v>
+        <v>1515.4109999999998</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1458.6</v>
+        <v>1515.4109999999998</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4413,32 +4457,32 @@
         <v>85</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="2:23" ht="13.9" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="13">
-        <v>29.07</v>
+        <v>164</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22.75</v>
       </c>
       <c r="E49" s="3">
-        <v>48.9</v>
+        <v>66.3</v>
       </c>
       <c r="F49" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1421.5229999999999</v>
+        <v>1508.325</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1421.5229999999999</v>
+        <v>1508.325</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4459,7 +4503,7 @@
         <v>85</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="W49" s="2"/>
     </row>
@@ -4518,21 +4562,21 @@
       <c r="C51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="13">
-        <v>6.72</v>
+      <c r="D51" s="1">
+        <v>7.33</v>
       </c>
       <c r="E51" s="3">
         <v>146.9</v>
       </c>
       <c r="F51" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>987.16800000000001</v>
+        <v>1076.777</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>987.16800000000001</v>
+        <v>1076.777</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4564,21 +4608,21 @@
       <c r="C52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="13">
-        <v>33.520000000000003</v>
+      <c r="D52" s="1">
+        <v>33.92</v>
       </c>
       <c r="E52" s="3">
         <v>28.8</v>
       </c>
       <c r="F52" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>965.37600000000009</v>
+        <v>976.89600000000007</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>965.37600000000009</v>
+        <v>976.89600000000007</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4605,26 +4649,26 @@
     </row>
     <row r="53" spans="2:23" ht="13.9" customHeight="1">
       <c r="B53" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="13">
-        <v>12.46</v>
+        <v>157</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15.3</v>
       </c>
       <c r="E53" s="3">
-        <v>57.7</v>
+        <v>52.9</v>
       </c>
       <c r="F53" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>718.94200000000012</v>
+        <v>809.37</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>718.94200000000012</v>
+        <v>809.37</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4645,32 +4689,32 @@
         <v>85</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="2:23" ht="13.9" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1">
-        <v>12.19</v>
+        <v>11.97</v>
       </c>
       <c r="E54" s="3">
-        <v>52.9</v>
+        <v>57.7</v>
       </c>
       <c r="F54" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>644.851</v>
+        <v>690.6690000000001</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>644.851</v>
+        <v>690.6690000000001</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4691,7 +4735,7 @@
         <v>85</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="W54" s="2"/>
     </row>
@@ -4703,20 +4747,20 @@
         <v>156</v>
       </c>
       <c r="D55" s="1">
-        <v>13.97</v>
+        <v>12.11</v>
       </c>
       <c r="E55" s="3">
         <v>38.5</v>
       </c>
       <c r="F55" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>537.84500000000003</v>
+        <v>466.23499999999996</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>537.84500000000003</v>
+        <v>466.23499999999996</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4748,21 +4792,21 @@
       <c r="C56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="13">
-        <v>9.02</v>
+      <c r="D56" s="1">
+        <v>9.1</v>
       </c>
       <c r="E56" s="3">
         <v>40.4</v>
       </c>
       <c r="F56" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>364.40799999999996</v>
+        <v>367.64</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>364.40799999999996</v>
+        <v>367.64</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4791,26 +4835,26 @@
     </row>
     <row r="57" spans="2:23" ht="13.9" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="13">
-        <v>11.4</v>
+        <v>160</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4.42</v>
       </c>
       <c r="E57" s="3">
-        <v>23.9</v>
+        <v>55.7</v>
       </c>
       <c r="F57" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>272.45999999999998</v>
+        <v>246.19400000000002</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>272.45999999999998</v>
+        <v>246.19400000000002</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4831,32 +4875,32 @@
         <v>85</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="2:23" ht="13.9" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="13">
-        <v>4.59</v>
+        <v>136</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.3</v>
       </c>
       <c r="E58" s="3">
-        <v>55.7</v>
+        <v>185.8</v>
       </c>
       <c r="F58" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>255.66300000000001</v>
+        <v>241.54000000000002</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>255.66300000000001</v>
+        <v>241.54000000000002</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4877,32 +4921,31 @@
         <v>85</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W58" s="2"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="59" spans="2:23" ht="13.9" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1.28</v>
+        <v>162</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9.44</v>
       </c>
       <c r="E59" s="3">
-        <v>185.8</v>
+        <v>23.9</v>
       </c>
       <c r="F59" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>237.82400000000001</v>
+        <v>225.61599999999999</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>237.82400000000001</v>
+        <v>225.61599999999999</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4923,8 +4966,9 @@
         <v>85</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="W59" s="2"/>
     </row>
     <row r="60" spans="2:23" ht="13.9" customHeight="1">
       <c r="E60" s="3"/>
@@ -5073,31 +5117,27 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
-    <hyperlink ref="B33" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
-    <hyperlink ref="B40" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
-    <hyperlink ref="B30" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
     <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
     <hyperlink ref="B4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
     <hyperlink ref="B13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
-    <hyperlink ref="B47" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
-    <hyperlink ref="B46" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
+    <hyperlink ref="B46" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
+    <hyperlink ref="B47" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
     <hyperlink ref="B24" r:id="rId13" xr:uid="{BF852F1D-304C-4230-82DC-C6786B6DA415}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
-    <hyperlink ref="B26" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
-    <hyperlink ref="B11" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
+    <hyperlink ref="B23" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
+    <hyperlink ref="B25" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
     <hyperlink ref="B14" r:id="rId19" xr:uid="{A0E07B2D-8641-47EF-A293-8759FE82D9C5}"/>
     <hyperlink ref="B6" r:id="rId20" xr:uid="{BEEC5C98-5FDE-4FC8-965F-3E188368E7A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G3:I72" calculatedColumn="1"/>
-    <ignoredError sqref="Q5:V46 Q48:V67 Q47:R47 T47:V47" evalError="1"/>
-  </ignoredErrors>
   <drawing r:id="rId21"/>
   <tableParts count="1">
     <tablePart r:id="rId22"/>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E4E100-CB73-462D-9360-9CC348848BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF296F-E2A3-4B5A-9020-8C22AB94F377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -317,9 +318,6 @@
     <t>Medical Technology</t>
   </si>
   <si>
-    <t>Cardiovascular</t>
-  </si>
-  <si>
     <t>Blood Transfusion</t>
   </si>
   <si>
@@ -672,6 +670,26 @@
   </si>
   <si>
     <t>Diagnostics/Laboratory Equipment</t>
+  </si>
+  <si>
+    <t>Endovascular Today (Vascular Market News)</t>
+  </si>
+  <si>
+    <t>https://evtoday.com/</t>
+  </si>
+  <si>
+    <t>Roche operates one of the worlds largest Life Science/Diagnostics business… Look into international players including</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Healthcare Conglomerate
+J&amp;J divested from their Diagnostics business a long time ago, but still operates a significant MedTech business</t>
+  </si>
+  <si>
+    <t>Cardiovascular
+Divested from Neurovascular business, selling it to SYK for $1.5B in 2011</t>
   </si>
 </sst>
 </file>
@@ -800,7 +818,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -828,6 +846,7 @@
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -1428,6 +1447,50 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Markets | Product Lines"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="AW1" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="CZ79">
+            <v>150202.47076447392</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="CZ81">
+            <v>393.0314492324602</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="217">
+          <cell r="I217" t="str">
+            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Main | Overview"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
@@ -1452,31 +1515,31 @@
       <sheetData sheetId="1">
         <row r="59">
           <cell r="BU59">
-            <v>12137.662860729284</v>
+            <v>12486.9440891541</v>
           </cell>
         </row>
         <row r="61">
           <cell r="BU61">
-            <v>314.44722437122499</v>
+            <v>323.49596085891449</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1507,34 +1570,47 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Main"/>
+      <sheetName val="Main | Overview"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Debt Schedule"/>
       <sheetName val="Markets | Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Clinical Trial Channel"/>
+      <sheetName val="M&amp;A Scope"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="78">
-          <cell r="CZ78">
-            <v>151758.61006086494</v>
+        <row r="3">
+          <cell r="AW3" t="str">
+            <v>Q1 2020</v>
           </cell>
         </row>
-        <row r="80">
-          <cell r="CZ80">
-            <v>397.10336416005941</v>
+        <row r="91">
+          <cell r="CV91">
+            <v>157083.74609071898</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="CV93">
+            <v>106.44131169506456</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1555,19 +1631,19 @@
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$8</calculatedColumnFormula>
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
-      <calculatedColumnFormula>'[1]Main | Overview'!$C$9</calculatedColumnFormula>
+      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
-      <calculatedColumnFormula>[1]Model!$BU$59</calculatedColumnFormula>
+      <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
-      <calculatedColumnFormula>[1]Model!$BU$61</calculatedColumnFormula>
+      <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
@@ -1855,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1877,19 +1953,19 @@
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="21" width="28.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3" style="1" customWidth="1"/>
     <col min="24" max="24" width="9.5703125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25">
+    <row r="1" spans="1:32" ht="14.25">
       <c r="A1" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:32">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1915,66 +1991,69 @@
         <v>7</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>170</v>
-      </c>
       <c r="M2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="V2" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="W2" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.9" customHeight="1">
+        <v>171</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="13.9" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1">
-        <v>154.59</v>
+      <c r="D3" s="13">
+        <v>154.18</v>
       </c>
       <c r="E3" s="3">
         <v>2406</v>
       </c>
       <c r="F3" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>371943.54000000004</v>
-      </c>
-      <c r="G3" s="2">
+        <v>370957.08</v>
+      </c>
+      <c r="G3" s="4">
         <v>38781</v>
       </c>
       <c r="H3" s="4">
@@ -1982,7 +2061,7 @@
       </c>
       <c r="I3" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>381062.54000000004</v>
+        <v>380076.08</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1999,44 +2078,47 @@
       </c>
       <c r="Q3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>14.570216776625825</v>
+        <v>14.531573986804903</v>
       </c>
       <c r="R3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>13.927027027027028</v>
+        <v>13.890090090090091</v>
       </c>
       <c r="S3" s="18">
         <v>138100</v>
       </c>
       <c r="T3" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="13.9" customHeight="1">
+      <c r="AF3" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="13.9" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="1">
-        <v>133.18</v>
+      <c r="D4" s="13">
+        <v>131.99</v>
       </c>
       <c r="E4" s="3">
         <v>1734</v>
       </c>
       <c r="F4" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>230934.12000000002</v>
+        <v>228870.66</v>
       </c>
       <c r="G4" s="4">
         <v>7967</v>
@@ -2046,7 +2128,7 @@
       </c>
       <c r="I4" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>237092.12000000002</v>
+        <v>235028.66</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2063,17 +2145,17 @@
       </c>
       <c r="Q4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>25.810077519379846</v>
+        <v>25.579457364341085</v>
       </c>
       <c r="R4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>23.447183098591552</v>
+        <v>23.237676056338032</v>
       </c>
       <c r="S4" s="18">
         <v>114000</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>83</v>
@@ -2082,31 +2164,31 @@
         <v>84</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="13.9" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="13.9" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1">
-        <v>536.42999999999995</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="13">
+        <v>559.41</v>
       </c>
       <c r="E5" s="3">
         <v>356.6</v>
       </c>
       <c r="F5" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>191290.93799999999</v>
+        <v>199485.606</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>191290.93799999999</v>
+        <v>199485.606</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2127,26 +2209,26 @@
         <v>85</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13.9" customHeight="1">
+    <row r="6" spans="1:32" ht="13.9" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="1">
-        <v>404.51</v>
+        <v>175</v>
+      </c>
+      <c r="D6" s="13">
+        <v>434.54</v>
       </c>
       <c r="E6" s="3">
         <v>380.8</v>
       </c>
       <c r="F6" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>154037.408</v>
+        <v>165472.83200000002</v>
       </c>
       <c r="G6" s="4">
         <v>5947</v>
@@ -2156,7 +2238,7 @@
       </c>
       <c r="I6" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>182279.408</v>
+        <v>193714.83200000002</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2173,42 +2255,42 @@
       </c>
       <c r="Q6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>18.131331241595699</v>
+        <v>19.477364410578218</v>
       </c>
       <c r="R6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>16.383556095585256</v>
+        <v>17.599837991089508</v>
       </c>
       <c r="S6" s="18">
         <v>125000</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="13.9" customHeight="1">
+    <row r="7" spans="1:32" ht="13.9" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1">
-        <v>102.63</v>
+        <v>134</v>
+      </c>
+      <c r="D7" s="13">
+        <v>102.8</v>
       </c>
       <c r="E7" s="3">
         <v>1476</v>
       </c>
       <c r="F7" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>151481.88</v>
+        <v>151732.79999999999</v>
       </c>
       <c r="G7" s="4">
         <v>2502</v>
@@ -2218,11 +2300,20 @@
       </c>
       <c r="I7" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>159864.88</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="7"/>
+        <v>160115.79999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <f>[4]Model!$CV$91</f>
+        <v>157083.74609071898</v>
+      </c>
+      <c r="K7" s="2">
+        <f>[4]Model!$CV$93</f>
+        <v>106.44131169506456</v>
+      </c>
+      <c r="L7" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>3.5421319990900368E-2</v>
+      </c>
       <c r="M7" s="13">
         <v>0.73</v>
       </c>
@@ -2237,44 +2328,44 @@
       </c>
       <c r="Q7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>29.834302325581394</v>
+        <v>29.883720930232556</v>
       </c>
       <c r="R7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>26.18112244897959</v>
+        <v>26.224489795918366</v>
       </c>
       <c r="S7" s="18">
         <v>53000</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>91</v>
+      <c r="V7" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13.9" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="13.9" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="1">
-        <v>380.92</v>
+        <v>160</v>
+      </c>
+      <c r="D8" s="13">
+        <v>387.09</v>
       </c>
       <c r="E8" s="3">
         <v>381.4</v>
       </c>
       <c r="F8" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>145282.88800000001</v>
+        <v>147636.12599999999</v>
       </c>
       <c r="G8" s="4">
         <f>3850+834</f>
@@ -2286,19 +2377,19 @@
       </c>
       <c r="I8" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>156082.88800000001</v>
+        <v>158436.12599999999</v>
       </c>
       <c r="J8" s="4">
-        <f>[3]Model!$CZ$78</f>
-        <v>151758.61006086494</v>
+        <f>[1]Model!$CZ$79</f>
+        <v>150202.47076447392</v>
       </c>
       <c r="K8" s="2">
-        <f>[3]Model!$CZ$80</f>
-        <v>397.10336416005941</v>
+        <f>[1]Model!$CZ$81</f>
+        <v>393.0314492324602</v>
       </c>
       <c r="L8" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>4.2484942140237791E-2</v>
+        <v>1.5349012458240274E-2</v>
       </c>
       <c r="M8" s="1">
         <v>0.94</v>
@@ -2314,50 +2405,50 @@
       </c>
       <c r="Q8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>28.342261904761909</v>
+        <v>28.801339285714285</v>
       </c>
       <c r="R8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>25.61667787491594</v>
+        <v>26.031607262945528</v>
       </c>
       <c r="S8" s="18">
         <v>53000</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="13.9" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="13.9" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1">
-        <v>191.5</v>
+        <v>137</v>
+      </c>
+      <c r="D9" s="13">
+        <v>201.01</v>
       </c>
       <c r="E9" s="3">
         <v>719.2</v>
       </c>
       <c r="F9" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>137726.80000000002</v>
+        <v>144566.39199999999</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>137726.80000000002</v>
+        <v>144566.39199999999</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2378,26 +2469,26 @@
         <v>81</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="13.9" customHeight="1">
+    <row r="10" spans="1:32" ht="13.9" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>84</v>
+      <c r="D10" s="13">
+        <v>85</v>
       </c>
       <c r="E10" s="3">
         <v>1315</v>
       </c>
       <c r="F10" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>110460</v>
+        <v>111775</v>
       </c>
       <c r="G10" s="4">
         <f>1240+6682</f>
@@ -2409,7 +2500,7 @@
       </c>
       <c r="I10" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>129095</v>
+        <v>130410</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2426,17 +2517,17 @@
       </c>
       <c r="Q10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>15.384615384615385</v>
+        <v>15.567765567765568</v>
       </c>
       <c r="R10" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>14.432989690721648</v>
+        <v>14.604810996563574</v>
       </c>
       <c r="S10" s="18">
         <v>95000</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>85</v>
@@ -2445,133 +2536,133 @@
         <v>73</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="13.9" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100</v>
+        <v>133</v>
+      </c>
+      <c r="D11" s="13">
+        <v>175.84</v>
       </c>
       <c r="E11" s="3">
-        <v>494.6</v>
+        <v>289.10000000000002</v>
       </c>
       <c r="F11" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>49460</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>50835.344000000005</v>
+      </c>
+      <c r="G11" s="4">
+        <v>763</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19270</v>
+      </c>
       <c r="I11" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>49460</v>
+        <v>69342.344000000012</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
+      <c r="M11" s="13">
+        <v>0.34</v>
+      </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="10"/>
+      <c r="O11" s="12">
+        <v>14.23</v>
+      </c>
+      <c r="P11" s="12">
+        <v>14.93</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>12.356992269852425</v>
+      </c>
+      <c r="R11" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>11.77762893503014</v>
+      </c>
+      <c r="S11" s="18">
+        <v>70000</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="U11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="13.9" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>14</v>
+    <row r="12" spans="1:32" ht="13.9" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="1">
-        <v>167.63</v>
+        <v>78</v>
+      </c>
+      <c r="D12" s="13">
+        <v>95.49</v>
       </c>
       <c r="E12" s="3">
-        <v>289.10000000000002</v>
+        <v>494.6</v>
       </c>
       <c r="F12" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>48461.833000000006</v>
-      </c>
-      <c r="G12" s="4">
-        <v>763</v>
-      </c>
-      <c r="H12" s="4">
-        <v>19270</v>
-      </c>
+        <v>47229.353999999999</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>66968.833000000013</v>
+        <v>47229.353999999999</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="13">
-        <v>0.34</v>
-      </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="12">
-        <v>14.23</v>
-      </c>
-      <c r="P12" s="12">
-        <v>14.93</v>
-      </c>
-      <c r="Q12" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>11.780042164441321</v>
-      </c>
-      <c r="R12" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.227729403884796</v>
-      </c>
-      <c r="S12" s="18">
-        <v>70000</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="10"/>
       <c r="U12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13.9" customHeight="1">
+    <row r="13" spans="1:32" ht="13.9" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="1">
-        <v>69.2</v>
+        <v>142</v>
+      </c>
+      <c r="D13" s="13">
+        <v>74.67</v>
       </c>
       <c r="E13" s="3">
         <v>588</v>
       </c>
       <c r="F13" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>40689.599999999999</v>
+        <v>43905.96</v>
       </c>
       <c r="G13" s="4">
         <v>3976</v>
@@ -2581,7 +2672,7 @@
       </c>
       <c r="I13" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>37311.599999999999</v>
+        <v>40527.96</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2598,44 +2689,44 @@
       </c>
       <c r="Q13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>28.016194331983804</v>
+        <v>30.23076923076923</v>
       </c>
       <c r="R13" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>25.163636363636364</v>
+        <v>27.152727272727272</v>
       </c>
       <c r="S13" s="18">
         <v>15800</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="13.9" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="13.9" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="1">
-        <v>492.7</v>
+        <v>145</v>
+      </c>
+      <c r="D14" s="13">
+        <v>506.02</v>
       </c>
       <c r="E14" s="3">
         <v>81.599999999999994</v>
       </c>
       <c r="F14" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>40204.32</v>
+        <v>41291.231999999996</v>
       </c>
       <c r="G14" s="4">
         <v>163.97</v>
@@ -2645,7 +2736,7 @@
       </c>
       <c r="I14" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>40661.08</v>
+        <v>41747.991999999998</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2662,48 +2753,48 @@
       </c>
       <c r="Q14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>40.618301731244841</v>
+        <v>41.716405605935691</v>
       </c>
       <c r="R14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>36.174743024963291</v>
+        <v>37.152716593245231</v>
       </c>
       <c r="S14" s="18">
         <v>70000</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13.9" customHeight="1">
+    <row r="15" spans="1:32" ht="13.9" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="1">
-        <v>245</v>
+        <v>158</v>
+      </c>
+      <c r="D15" s="13">
+        <v>247.66</v>
       </c>
       <c r="E15" s="3">
         <v>146.9</v>
       </c>
       <c r="F15" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>35990.5</v>
+        <v>36381.254000000001</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>35990.5</v>
+        <v>36381.254000000001</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2724,32 +2815,32 @@
         <v>85</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13.9" customHeight="1">
+    <row r="16" spans="1:32" ht="13.9" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="1">
-        <v>84.2</v>
+        <v>172</v>
+      </c>
+      <c r="D16" s="13">
+        <v>73.98</v>
       </c>
       <c r="E16" s="3">
-        <v>390.7</v>
+        <v>457</v>
       </c>
       <c r="F16" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32896.94</v>
+        <v>33808.86</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32896.94</v>
+        <v>33808.86</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2770,32 +2861,32 @@
         <v>85</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="2:23" ht="13.9" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="1">
-        <v>69.91</v>
+        <v>139</v>
+      </c>
+      <c r="D17" s="13">
+        <v>84.53</v>
       </c>
       <c r="E17" s="3">
-        <v>457</v>
+        <v>390.7</v>
       </c>
       <c r="F17" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>31948.87</v>
+        <v>33025.870999999999</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>31948.87</v>
+        <v>33025.870999999999</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2816,7 +2907,7 @@
         <v>85</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="W17" s="2"/>
     </row>
@@ -2827,21 +2918,21 @@
       <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="1">
-        <v>108</v>
+      <c r="D18" s="13">
+        <v>114.51</v>
       </c>
       <c r="E18" s="3">
         <v>285.2</v>
       </c>
       <c r="F18" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>30801.599999999999</v>
+        <v>32658.252</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>30801.599999999999</v>
+        <v>32658.252</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2871,23 +2962,23 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="1">
-        <v>149.6</v>
+        <v>147</v>
+      </c>
+      <c r="D19" s="13">
+        <v>159.56</v>
       </c>
       <c r="E19" s="3">
         <v>176.1</v>
       </c>
       <c r="F19" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>26344.559999999998</v>
+        <v>28098.516</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>26344.559999999998</v>
+        <v>28098.516</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2905,35 +2996,35 @@
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="2:23" ht="13.9" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25.54</v>
+        <v>153</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1167.3</v>
       </c>
       <c r="E20" s="3">
-        <v>925</v>
+        <v>20.9</v>
       </c>
       <c r="F20" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23624.5</v>
+        <v>24396.569999999996</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23624.5</v>
+        <v>24396.569999999996</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2951,35 +3042,35 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="2:23" ht="13.9" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1080.98</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="13">
+        <v>25.04</v>
       </c>
       <c r="E21" s="3">
-        <v>20.9</v>
+        <v>925</v>
       </c>
       <c r="F21" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22592.482</v>
+        <v>23162</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22592.482</v>
+        <v>23162</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2997,136 +3088,138 @@
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W21" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="2:23" ht="13.9" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1">
-        <v>314.60000000000002</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="13">
+        <v>233.6</v>
       </c>
       <c r="E22" s="3">
-        <v>70.2</v>
+        <v>98.9</v>
       </c>
       <c r="F22" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22084.920000000002</v>
+        <v>23103.040000000001</v>
       </c>
       <c r="G22" s="4">
-        <v>953.4</v>
+        <f>1937.9+172.2</f>
+        <v>2110.1</v>
       </c>
       <c r="H22" s="4">
-        <v>1379.9</v>
+        <f>80+2156.2</f>
+        <v>2236.1999999999998</v>
       </c>
       <c r="I22" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22511.420000000002</v>
+        <v>23229.140000000003</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
       <c r="M22" s="1">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="12">
-        <v>4.21</v>
+        <v>9.1</v>
       </c>
       <c r="P22" s="12">
-        <v>5.23</v>
+        <v>9.99</v>
       </c>
       <c r="Q22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>74.7268408551069</v>
+        <v>25.670329670329672</v>
       </c>
       <c r="R22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>60.152963671128106</v>
+        <v>23.383383383383382</v>
       </c>
       <c r="S22" s="18">
-        <v>3900</v>
+        <v>18000</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:23" ht="13.9" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1">
-        <v>218.78</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="13">
+        <v>315.51</v>
       </c>
       <c r="E23" s="3">
-        <v>98.9</v>
+        <v>70.2</v>
       </c>
       <c r="F23" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>21637.342000000001</v>
+        <v>22148.802</v>
       </c>
       <c r="G23" s="4">
-        <f>1937.9+172.2</f>
-        <v>2110.1</v>
+        <v>953.4</v>
       </c>
       <c r="H23" s="4">
-        <f>80+2156.2</f>
-        <v>2236.1999999999998</v>
+        <v>1379.9</v>
       </c>
       <c r="I23" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>21763.442000000003</v>
+        <v>22575.302</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
       <c r="M23" s="1">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="12">
-        <v>9.1</v>
+        <v>4.21</v>
       </c>
       <c r="P23" s="12">
-        <v>9.99</v>
+        <v>5.23</v>
       </c>
       <c r="Q23" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>24.041758241758242</v>
+        <v>74.942992874109265</v>
       </c>
       <c r="R23" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>21.8998998998999</v>
+        <v>60.326959847036321</v>
       </c>
       <c r="S23" s="18">
-        <v>18000</v>
+        <v>3900</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W23" s="2"/>
     </row>
@@ -3135,17 +3228,17 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="1">
-        <v>96.17</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="13">
+        <v>97.89</v>
       </c>
       <c r="E24" s="3">
         <v>199.1</v>
       </c>
       <c r="F24" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>19147.447</v>
+        <v>19489.899000000001</v>
       </c>
       <c r="G24" s="4">
         <v>1384.5</v>
@@ -3156,7 +3249,7 @@
       </c>
       <c r="I24" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>24939.246999999999</v>
+        <v>25281.699000000001</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3173,149 +3266,149 @@
       </c>
       <c r="Q24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>11.88751545117429</v>
+        <v>12.100123609394315</v>
       </c>
       <c r="R24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.234813084112149</v>
+        <v>11.435747663551401</v>
       </c>
       <c r="S24" s="18">
         <v>17000</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:23" ht="13.9" customHeight="1">
       <c r="B25" s="6" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="1">
-        <v>30.8</v>
+        <v>138</v>
+      </c>
+      <c r="D25" s="13">
+        <v>83.8</v>
       </c>
       <c r="E25" s="3">
-        <v>510.9</v>
+        <v>199.6</v>
       </c>
       <c r="F25" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15735.72</v>
+        <v>16726.48</v>
       </c>
       <c r="G25" s="4">
-        <f>1679</f>
-        <v>1679</v>
+        <v>100.9</v>
       </c>
       <c r="H25" s="4">
-        <f>2126+626+10374</f>
-        <v>13126</v>
+        <v>2539.9</v>
       </c>
       <c r="I25" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27182.720000000001</v>
+        <v>19165.48</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="13">
-        <v>0.63</v>
+      <c r="M25" s="1">
+        <v>1.08</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="12">
-        <v>2.5099999999999998</v>
+        <v>3.99</v>
       </c>
       <c r="P25" s="12">
-        <v>2.72</v>
+        <v>4.43</v>
       </c>
       <c r="Q25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.270916334661356</v>
+        <v>21.002506265664159</v>
       </c>
       <c r="R25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.323529411764705</v>
+        <v>18.916478555304742</v>
       </c>
       <c r="S25" s="18">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="2:23" ht="13.9" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="1">
-        <v>78.7</v>
+        <v>201</v>
+      </c>
+      <c r="D26" s="13">
+        <v>31.37</v>
       </c>
       <c r="E26" s="3">
-        <v>199.6</v>
+        <v>510.9</v>
       </c>
       <c r="F26" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15708.52</v>
+        <v>16026.932999999999</v>
       </c>
       <c r="G26" s="4">
-        <v>100.9</v>
+        <f>1679</f>
+        <v>1679</v>
       </c>
       <c r="H26" s="4">
-        <v>2539.9</v>
+        <f>2126+626+10374</f>
+        <v>13126</v>
       </c>
       <c r="I26" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>18147.52</v>
+        <v>27473.932999999997</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="1">
-        <v>1.08</v>
+      <c r="M26" s="13">
+        <v>0.63</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="12">
-        <v>3.99</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="P26" s="12">
-        <v>4.43</v>
+        <v>2.72</v>
       </c>
       <c r="Q26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>19.724310776942357</v>
+        <v>12.498007968127492</v>
       </c>
       <c r="R26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>17.765237020316029</v>
+        <v>11.533088235294118</v>
       </c>
       <c r="S26" s="18">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="W26" s="2"/>
     </row>
@@ -3324,23 +3417,23 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="1">
-        <v>205.88</v>
+        <v>173</v>
+      </c>
+      <c r="D27" s="13">
+        <v>217.96</v>
       </c>
       <c r="E27" s="3">
         <v>72.3</v>
       </c>
       <c r="F27" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>14885.124</v>
+        <v>15758.508</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>14885.124</v>
+        <v>15758.508</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3358,10 +3451,10 @@
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="W27" s="2"/>
     </row>
@@ -3372,21 +3465,21 @@
       <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="1">
-        <v>181.88</v>
+      <c r="D28" s="13">
+        <v>190.44</v>
       </c>
       <c r="E28" s="3">
         <v>73.8</v>
       </c>
       <c r="F28" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13422.743999999999</v>
+        <v>14054.472</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13422.743999999999</v>
+        <v>14054.472</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3418,21 +3511,21 @@
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1">
-        <v>57.8</v>
+      <c r="D29" s="13">
+        <v>58.86</v>
       </c>
       <c r="E29" s="3">
         <v>231.7</v>
       </c>
       <c r="F29" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13392.259999999998</v>
+        <v>13637.861999999999</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13392.259999999998</v>
+        <v>13637.861999999999</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3450,29 +3543,29 @@
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="2:23" ht="13.9" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="1">
-        <v>70.23</v>
+        <v>203</v>
+      </c>
+      <c r="D30" s="13">
+        <v>75</v>
       </c>
       <c r="E30" s="3">
         <v>172.8</v>
       </c>
       <c r="F30" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12135.744000000001</v>
+        <v>12960</v>
       </c>
       <c r="G30" s="4">
         <v>762</v>
@@ -3483,7 +3576,7 @@
       </c>
       <c r="I30" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>19383.743999999999</v>
+        <v>20208</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3500,17 +3593,17 @@
       </c>
       <c r="Q30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.676895306859207</v>
+        <v>13.537906137184116</v>
       </c>
       <c r="R30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.666112956810633</v>
+        <v>12.458471760797343</v>
       </c>
       <c r="S30" s="18">
         <v>22000</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>76</v>
@@ -3519,7 +3612,7 @@
         <v>85</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="13.9" customHeight="1">
@@ -3527,40 +3620,40 @@
         <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="1">
-        <v>298.5</v>
+        <v>157</v>
+      </c>
+      <c r="D31" s="13">
+        <v>297.55</v>
       </c>
       <c r="E31" s="3">
         <v>38.6</v>
       </c>
       <c r="F31" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11522.1</v>
+        <v>11485.43</v>
       </c>
       <c r="G31" s="4">
         <v>379</v>
       </c>
       <c r="H31" s="4">
-        <f>'[1]Main | Overview'!$C$9</f>
+        <f>'[2]Main | Overview'!$C$9</f>
         <v>0</v>
       </c>
       <c r="I31" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>11143.1</v>
+        <v>11106.43</v>
       </c>
       <c r="J31" s="2">
-        <f>[1]Model!$BU$59</f>
-        <v>12137.662860729284</v>
+        <f>[2]Model!$BU$59</f>
+        <v>12486.9440891541</v>
       </c>
       <c r="K31" s="2">
-        <f>[1]Model!$BU$61</f>
-        <v>314.44722437122499</v>
+        <f>[2]Model!$BU$61</f>
+        <v>323.49596085891449</v>
       </c>
       <c r="L31" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>5.3424537257035221E-2</v>
+        <v>8.7198658574741961E-2</v>
       </c>
       <c r="M31" s="1">
         <v>0.53</v>
@@ -3576,23 +3669,23 @@
       </c>
       <c r="Q31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>78.55263157894737</v>
+        <v>78.30263157894737</v>
       </c>
       <c r="R31" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>57.403846153846153</v>
+        <v>57.221153846153847</v>
       </c>
       <c r="S31" s="18">
         <v>4500</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W31" s="2"/>
     </row>
@@ -3601,23 +3694,23 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="1">
-        <v>51.5</v>
+        <v>143</v>
+      </c>
+      <c r="D32" s="13">
+        <v>53.5</v>
       </c>
       <c r="E32" s="3">
         <v>185.6</v>
       </c>
       <c r="F32" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9558.4</v>
+        <v>9929.6</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9558.4</v>
+        <v>9929.6</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3635,10 +3728,10 @@
       </c>
       <c r="T32" s="10"/>
       <c r="U32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="13.9" customHeight="1">
@@ -3648,21 +3741,21 @@
       <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1">
-        <v>40.479999999999997</v>
+      <c r="D33" s="13">
+        <v>43.2</v>
       </c>
       <c r="E33" s="3">
         <v>216.1</v>
       </c>
       <c r="F33" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8747.7279999999992</v>
+        <v>9335.52</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8747.7279999999992</v>
+        <v>9335.52</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3680,35 +3773,35 @@
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="2:23" ht="13.9" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="1">
-        <v>156.57</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="13">
+        <v>13.1</v>
       </c>
       <c r="E34" s="3">
-        <v>53.6</v>
+        <v>680.8</v>
       </c>
       <c r="F34" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8392.152</v>
+        <v>8918.48</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8392.152</v>
+        <v>8918.48</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3726,35 +3819,35 @@
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="2:23" ht="13.9" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1">
-        <v>67.040000000000006</v>
+        <v>151</v>
+      </c>
+      <c r="D35" s="13">
+        <v>163.38999999999999</v>
       </c>
       <c r="E35" s="3">
-        <v>124.2</v>
+        <v>53.6</v>
       </c>
       <c r="F35" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8326.3680000000004</v>
+        <v>8757.7039999999997</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8326.3680000000004</v>
+        <v>8757.7039999999997</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3772,35 +3865,35 @@
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="2:23" ht="13.9" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1">
-        <v>12.13</v>
+        <v>39</v>
+      </c>
+      <c r="D36" s="13">
+        <v>69.12</v>
       </c>
       <c r="E36" s="3">
-        <v>680.8</v>
+        <v>124.2</v>
       </c>
       <c r="F36" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8258.1039999999994</v>
+        <v>8584.7040000000015</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8258.1039999999994</v>
+        <v>8584.7040000000015</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3818,10 +3911,10 @@
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="W36" s="2"/>
     </row>
@@ -3830,17 +3923,17 @@
         <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="1">
-        <v>55.93</v>
+        <v>144</v>
+      </c>
+      <c r="D37" s="13">
+        <v>58.6</v>
       </c>
       <c r="E37" s="3">
         <v>137.4</v>
       </c>
       <c r="F37" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>7684.7820000000002</v>
+        <v>8051.64</v>
       </c>
       <c r="G37" s="4">
         <v>890.1</v>
@@ -3851,19 +3944,19 @@
       </c>
       <c r="I37" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7238.0819999999994</v>
+        <v>7604.94</v>
       </c>
       <c r="J37" s="2">
-        <f>[2]Model!$BZ$53</f>
+        <f>[3]Model!$BZ$53</f>
         <v>7562.2393729299547</v>
       </c>
       <c r="K37" s="2">
-        <f>[2]Model!$BZ$55</f>
+        <f>[3]Model!$BZ$55</f>
         <v>55.058167986384817</v>
       </c>
       <c r="L37" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-1.5587913706690215E-2</v>
+        <v>-6.0440819344969032E-2</v>
       </c>
       <c r="M37" s="1">
         <v>1.29</v>
@@ -3877,23 +3970,23 @@
       </c>
       <c r="Q37" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>16.25872093023256</v>
+        <v>17.034883720930232</v>
       </c>
       <c r="R37" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>14.267857142857142</v>
+        <v>14.948979591836736</v>
       </c>
       <c r="S37" s="18">
         <v>5300</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W37" s="2"/>
     </row>
@@ -3902,17 +3995,17 @@
         <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="1">
-        <v>129.15</v>
+        <v>162</v>
+      </c>
+      <c r="D38" s="13">
+        <v>129.69999999999999</v>
       </c>
       <c r="E38" s="3">
         <v>46.3</v>
       </c>
       <c r="F38" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>5979.6449999999995</v>
+        <v>6005.1099999999988</v>
       </c>
       <c r="G38" s="4">
         <v>243.2</v>
@@ -3923,7 +4016,7 @@
       </c>
       <c r="I38" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7494.8449999999993</v>
+        <v>7520.3099999999995</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3940,26 +4033,26 @@
       </c>
       <c r="Q38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>9.6596858638743459</v>
+        <v>9.7008227374719525</v>
       </c>
       <c r="R38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>9.2118402282453644</v>
+        <v>9.2510699001426531</v>
       </c>
       <c r="S38" s="18">
         <v>14100</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="13.9" customHeight="1">
@@ -3967,9 +4060,9 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="2">
+        <v>165</v>
+      </c>
+      <c r="D39" s="13">
         <v>80</v>
       </c>
       <c r="E39" s="3">
@@ -4006,10 +4099,10 @@
       </c>
       <c r="T39" s="10"/>
       <c r="U39" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="13.9" customHeight="1">
@@ -4017,23 +4110,23 @@
         <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="1">
-        <v>151.25</v>
+        <v>146</v>
+      </c>
+      <c r="D40" s="13">
+        <v>152.01</v>
       </c>
       <c r="E40" s="3">
         <v>29.7</v>
       </c>
       <c r="F40" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4492.125</v>
+        <v>4514.6969999999992</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4492.125</v>
+        <v>4514.6969999999992</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4054,7 +4147,7 @@
         <v>85</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W40" s="2"/>
     </row>
@@ -4063,23 +4156,23 @@
         <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="1">
-        <v>137.69999999999999</v>
+        <v>148</v>
+      </c>
+      <c r="D41" s="13">
+        <v>138.18</v>
       </c>
       <c r="E41" s="3">
         <v>31.4</v>
       </c>
       <c r="F41" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4323.78</v>
+        <v>4338.8519999999999</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4323.78</v>
+        <v>4338.8519999999999</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4106,12 +4199,12 @@
     </row>
     <row r="42" spans="2:23" ht="13.9" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="2">
+        <v>176</v>
+      </c>
+      <c r="D42" s="13">
         <v>71</v>
       </c>
       <c r="E42" s="3">
@@ -4146,7 +4239,7 @@
       </c>
       <c r="T42" s="10"/>
       <c r="U42" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="13.9" customHeight="1">
@@ -4154,23 +4247,23 @@
         <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="1">
-        <v>16.25</v>
+        <v>164</v>
+      </c>
+      <c r="D43" s="13">
+        <v>16.690000000000001</v>
       </c>
       <c r="E43" s="3">
         <v>198.8</v>
       </c>
       <c r="F43" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3230.5</v>
+        <v>3317.9720000000007</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3230.5</v>
+        <v>3317.9720000000007</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4200,23 +4293,23 @@
         <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="1">
-        <v>44.06</v>
+        <v>150</v>
+      </c>
+      <c r="D44" s="13">
+        <v>44.8</v>
       </c>
       <c r="E44" s="3">
         <v>54.3</v>
       </c>
       <c r="F44" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2392.4580000000001</v>
+        <v>2432.64</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2392.4580000000001</v>
+        <v>2432.64</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4237,7 +4330,7 @@
         <v>85</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W44" s="2"/>
     </row>
@@ -4246,23 +4339,23 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="1">
-        <v>17.38</v>
+        <v>154</v>
+      </c>
+      <c r="D45" s="13">
+        <v>18.420000000000002</v>
       </c>
       <c r="E45" s="3">
         <v>108.5</v>
       </c>
       <c r="F45" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1885.7299999999998</v>
+        <v>1998.5700000000002</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1885.7299999999998</v>
+        <v>1998.5700000000002</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4283,26 +4376,26 @@
         <v>85</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="2:23" ht="13.9" customHeight="1">
       <c r="B46" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="1">
-        <v>78.7</v>
+        <v>191</v>
+      </c>
+      <c r="D46" s="13">
+        <v>82.95</v>
       </c>
       <c r="E46" s="3">
         <v>22.56</v>
       </c>
       <c r="F46" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1775.472</v>
+        <v>1871.3519999999999</v>
       </c>
       <c r="G46" s="4">
         <f>25.61+274.112</f>
@@ -4313,7 +4406,7 @@
       </c>
       <c r="I46" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1775.472</v>
+        <v>1871.3519999999999</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -4330,26 +4423,26 @@
       </c>
       <c r="Q46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>36.604651162790702</v>
+        <v>38.581395348837212</v>
       </c>
       <c r="R46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>33.067226890756302</v>
+        <v>34.852941176470594</v>
       </c>
       <c r="S46" s="1">
         <v>651</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="2:23" ht="13.9" customHeight="1">
@@ -4357,17 +4450,17 @@
         <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="1">
-        <v>55.06</v>
+        <v>136</v>
+      </c>
+      <c r="D47" s="13">
+        <v>59.9</v>
       </c>
       <c r="E47" s="3">
         <v>30.97</v>
       </c>
       <c r="F47" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1705.2082</v>
+        <v>1855.1029999999998</v>
       </c>
       <c r="G47" s="4">
         <v>0.35485</v>
@@ -4378,7 +4471,7 @@
       </c>
       <c r="I47" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2597.01035</v>
+        <v>2746.90515</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -4395,48 +4488,48 @@
       </c>
       <c r="Q47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.542141230068339</v>
+        <v>13.644646924829157</v>
       </c>
       <c r="R47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.640591966173361</v>
+        <v>12.663847780126849</v>
       </c>
       <c r="S47" s="18">
         <v>3900</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="2:23" ht="13.9" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="1">
-        <v>30.99</v>
+        <v>163</v>
+      </c>
+      <c r="D48" s="13">
+        <v>23.9</v>
       </c>
       <c r="E48" s="3">
-        <v>48.9</v>
+        <v>66.3</v>
       </c>
       <c r="F48" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1515.4109999999998</v>
+        <v>1584.57</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1515.4109999999998</v>
+        <v>1584.57</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4457,32 +4550,32 @@
         <v>85</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="2:23" ht="13.9" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="1">
-        <v>22.75</v>
+        <v>132</v>
+      </c>
+      <c r="D49" s="13">
+        <v>31.81</v>
       </c>
       <c r="E49" s="3">
-        <v>66.3</v>
+        <v>48.9</v>
       </c>
       <c r="F49" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1508.325</v>
+        <v>1555.5089999999998</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1508.325</v>
+        <v>1555.5089999999998</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4503,7 +4596,7 @@
         <v>85</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="W49" s="2"/>
     </row>
@@ -4512,9 +4605,9 @@
         <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="2">
+        <v>166</v>
+      </c>
+      <c r="D50" s="13">
         <v>27.5</v>
       </c>
       <c r="E50" s="3">
@@ -4549,10 +4642,10 @@
       </c>
       <c r="T50" s="10"/>
       <c r="U50" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="13.9" customHeight="1">
@@ -4560,23 +4653,23 @@
         <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="1">
-        <v>7.33</v>
+        <v>152</v>
+      </c>
+      <c r="D51" s="13">
+        <v>7.34</v>
       </c>
       <c r="E51" s="3">
         <v>146.9</v>
       </c>
       <c r="F51" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1076.777</v>
+        <v>1078.2460000000001</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1076.777</v>
+        <v>1078.2460000000001</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4594,10 +4687,10 @@
       </c>
       <c r="T51" s="10"/>
       <c r="U51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="W51" s="2"/>
     </row>
@@ -4606,23 +4699,23 @@
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="1">
-        <v>33.92</v>
+        <v>141</v>
+      </c>
+      <c r="D52" s="13">
+        <v>33.409999999999997</v>
       </c>
       <c r="E52" s="3">
         <v>28.8</v>
       </c>
       <c r="F52" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>976.89600000000007</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>976.89600000000007</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4643,7 +4736,7 @@
         <v>85</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W52" s="2"/>
     </row>
@@ -4652,23 +4745,23 @@
         <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1">
-        <v>15.3</v>
+        <v>156</v>
+      </c>
+      <c r="D53" s="13">
+        <v>16.64</v>
       </c>
       <c r="E53" s="3">
         <v>52.9</v>
       </c>
       <c r="F53" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>809.37</v>
+        <v>880.25599999999997</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>809.37</v>
+        <v>880.25599999999997</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4689,7 +4782,7 @@
         <v>85</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W53" s="2"/>
     </row>
@@ -4698,23 +4791,23 @@
         <v>47</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="1">
-        <v>11.97</v>
+        <v>140</v>
+      </c>
+      <c r="D54" s="13">
+        <v>12.18</v>
       </c>
       <c r="E54" s="3">
         <v>57.7</v>
       </c>
       <c r="F54" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>690.6690000000001</v>
+        <v>702.78600000000006</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>690.6690000000001</v>
+        <v>702.78600000000006</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4735,7 +4828,7 @@
         <v>85</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W54" s="2"/>
     </row>
@@ -4744,23 +4837,23 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="1">
-        <v>12.11</v>
+        <v>155</v>
+      </c>
+      <c r="D55" s="13">
+        <v>12.51</v>
       </c>
       <c r="E55" s="3">
         <v>38.5</v>
       </c>
       <c r="F55" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>466.23499999999996</v>
+        <v>481.63499999999999</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>466.23499999999996</v>
+        <v>481.63499999999999</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4781,7 +4874,7 @@
         <v>85</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W55" s="2"/>
     </row>
@@ -4792,21 +4885,21 @@
       <c r="C56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="1">
-        <v>9.1</v>
+      <c r="D56" s="13">
+        <v>9.6199999999999992</v>
       </c>
       <c r="E56" s="3">
         <v>40.4</v>
       </c>
       <c r="F56" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>367.64</v>
+        <v>388.64799999999997</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>367.64</v>
+        <v>388.64799999999997</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4830,31 +4923,31 @@
         <v>87</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="2:23" ht="13.9" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4.42</v>
+        <v>135</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1.35</v>
       </c>
       <c r="E57" s="3">
-        <v>55.7</v>
+        <v>185.8</v>
       </c>
       <c r="F57" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>246.19400000000002</v>
+        <v>250.83000000000004</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>246.19400000000002</v>
+        <v>250.83000000000004</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4875,32 +4968,31 @@
         <v>85</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W57" s="2"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="58" spans="2:23" ht="13.9" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1.3</v>
+        <v>161</v>
+      </c>
+      <c r="D58" s="13">
+        <v>9.7200000000000006</v>
       </c>
       <c r="E58" s="3">
-        <v>185.8</v>
+        <v>23.9</v>
       </c>
       <c r="F58" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>241.54000000000002</v>
+        <v>232.30799999999999</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>241.54000000000002</v>
+        <v>232.30799999999999</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -4921,31 +5013,32 @@
         <v>85</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="W58" s="2"/>
     </row>
     <row r="59" spans="2:23" ht="13.9" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9.44</v>
+        <v>159</v>
+      </c>
+      <c r="D59" s="13">
+        <v>4.1500000000000004</v>
       </c>
       <c r="E59" s="3">
-        <v>23.9</v>
+        <v>55.7</v>
       </c>
       <c r="F59" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>225.61599999999999</v>
+        <v>231.15500000000003</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>225.61599999999999</v>
+        <v>231.15500000000003</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4966,7 +5059,7 @@
         <v>85</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W59" s="2"/>
     </row>
@@ -5129,11 +5222,11 @@
     <hyperlink ref="B46" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
     <hyperlink ref="B47" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
     <hyperlink ref="B24" r:id="rId13" xr:uid="{BF852F1D-304C-4230-82DC-C6786B6DA415}"/>
-    <hyperlink ref="B23" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
-    <hyperlink ref="B25" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
-    <hyperlink ref="B12" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
+    <hyperlink ref="B26" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
+    <hyperlink ref="B11" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
     <hyperlink ref="B14" r:id="rId19" xr:uid="{A0E07B2D-8641-47EF-A293-8759FE82D9C5}"/>
     <hyperlink ref="B6" r:id="rId20" xr:uid="{BEEC5C98-5FDE-4FC8-965F-3E188368E7A1}"/>
   </hyperlinks>
@@ -5147,10 +5240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B335E-5AF5-4EBA-8439-3724F125383B}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5161,45 +5254,62 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15">
       <c r="B2" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15">
+      <c r="C3" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15">
       <c r="B5" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15">
+      <c r="C6" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15">
       <c r="B8" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15">
+      <c r="C9" s="19" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15">
       <c r="B11" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15">
+      <c r="C12" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15">
+      <c r="B14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15">
+      <c r="C15" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{046ED9C3-873B-4AED-AE52-047C1304B4DD}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{D2FD62B7-4573-4442-9977-2BD24CFF6B7E}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{563CD342-7D9D-4EB2-9431-8AC68DDC8416}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{C72D53E4-C0D1-4C0C-A3F9-EEBBAF97E75C}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{F176ED36-3845-4CB0-812A-445F5B28AB77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF296F-E2A3-4B5A-9020-8C22AB94F377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646F9F2-2260-4D0E-B6CB-2EAE3BB54F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="217">
   <si>
     <t>Name</t>
   </si>
@@ -690,6 +690,12 @@
   <si>
     <t>Cardiovascular
 Divested from Neurovascular business, selling it to SYK for $1.5B in 2011</t>
+  </si>
+  <si>
+    <t>Medical Device / Life Science Company List</t>
+  </si>
+  <si>
+    <t>https://www.medicaldevice-network.com/company-a-z/</t>
   </si>
 </sst>
 </file>
@@ -1447,19 +1453,55 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Main | Overview"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Debt Schedule"/>
+      <sheetName val="Markets | Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Clinical Trial Channel"/>
+      <sheetName val="M&amp;A Scope"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="91">
+          <cell r="CV91">
+            <v>157083.74609071898</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="CV93">
+            <v>106.44131169506456</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
       <sheetName val="Markets | Product Lines"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="1">
-          <cell r="AW1" t="str">
-            <v>Q1 2020</v>
-          </cell>
-        </row>
         <row r="79">
           <cell r="CZ79">
             <v>150202.47076447392</v>
@@ -1471,20 +1513,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="217">
-          <cell r="I217" t="str">
-            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1515,31 +1551,31 @@
       <sheetData sheetId="1">
         <row r="59">
           <cell r="BU59">
-            <v>12486.9440891541</v>
+            <v>11330.622118397967</v>
           </cell>
         </row>
         <row r="61">
           <cell r="BU61">
-            <v>323.49596085891449</v>
+            <v>293.53943311911831</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1551,7 +1587,7 @@
       <sheetName val="Notes | Quant Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="53">
           <cell r="BZ53">
@@ -1564,53 +1600,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main | Overview"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-      <sheetName val="Debt Schedule"/>
-      <sheetName val="Markets | Product Lines"/>
-      <sheetName val="Management"/>
-      <sheetName val="Clinical Trial Channel"/>
-      <sheetName val="M&amp;A Scope"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="AW3" t="str">
-            <v>Q1 2020</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="CV91">
-            <v>157083.74609071898</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="CV93">
-            <v>106.44131169506456</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1631,19 +1621,19 @@
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$8</calculatedColumnFormula>
+      <calculatedColumnFormula>'[3]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
-      <calculatedColumnFormula>'[2]Main | Overview'!$C$9</calculatedColumnFormula>
+      <calculatedColumnFormula>'[3]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
-      <calculatedColumnFormula>[2]Model!$BU$59</calculatedColumnFormula>
+      <calculatedColumnFormula>[3]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
-      <calculatedColumnFormula>[2]Model!$BU$61</calculatedColumnFormula>
+      <calculatedColumnFormula>[3]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
@@ -1934,7 +1924,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2303,11 +2293,11 @@
         <v>160115.79999999999</v>
       </c>
       <c r="J7" s="4">
-        <f>[4]Model!$CV$91</f>
+        <f>[1]Model!$CV$91</f>
         <v>157083.74609071898</v>
       </c>
       <c r="K7" s="2">
-        <f>[4]Model!$CV$93</f>
+        <f>[1]Model!$CV$93</f>
         <v>106.44131169506456</v>
       </c>
       <c r="L7" s="7">
@@ -2380,11 +2370,11 @@
         <v>158436.12599999999</v>
       </c>
       <c r="J8" s="4">
-        <f>[1]Model!$CZ$79</f>
+        <f>[2]Model!$CZ$79</f>
         <v>150202.47076447392</v>
       </c>
       <c r="K8" s="2">
-        <f>[1]Model!$CZ$81</f>
+        <f>[2]Model!$CZ$81</f>
         <v>393.0314492324602</v>
       </c>
       <c r="L8" s="7">
@@ -3636,7 +3626,7 @@
         <v>379</v>
       </c>
       <c r="H31" s="4">
-        <f>'[2]Main | Overview'!$C$9</f>
+        <f>'[3]Main | Overview'!$C$9</f>
         <v>0</v>
       </c>
       <c r="I31" s="4">
@@ -3644,16 +3634,16 @@
         <v>11106.43</v>
       </c>
       <c r="J31" s="2">
-        <f>[2]Model!$BU$59</f>
-        <v>12486.9440891541</v>
+        <f>[3]Model!$BU$59</f>
+        <v>11330.622118397967</v>
       </c>
       <c r="K31" s="2">
-        <f>[2]Model!$BU$61</f>
-        <v>323.49596085891449</v>
+        <f>[3]Model!$BU$61</f>
+        <v>293.53943311911831</v>
       </c>
       <c r="L31" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>8.7198658574741961E-2</v>
+        <v>-1.3478631762331328E-2</v>
       </c>
       <c r="M31" s="1">
         <v>0.53</v>
@@ -3947,11 +3937,11 @@
         <v>7604.94</v>
       </c>
       <c r="J37" s="2">
-        <f>[3]Model!$BZ$53</f>
+        <f>[4]Model!$BZ$53</f>
         <v>7562.2393729299547</v>
       </c>
       <c r="K37" s="2">
-        <f>[3]Model!$BZ$55</f>
+        <f>[4]Model!$BZ$55</f>
         <v>55.058167986384817</v>
       </c>
       <c r="L37" s="7">
@@ -5240,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B335E-5AF5-4EBA-8439-3724F125383B}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5302,6 +5292,16 @@
         <v>210</v>
       </c>
     </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{046ED9C3-873B-4AED-AE52-047C1304B4DD}"/>
@@ -5309,6 +5309,7 @@
     <hyperlink ref="C12" r:id="rId3" xr:uid="{563CD342-7D9D-4EB2-9431-8AC68DDC8416}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{C72D53E4-C0D1-4C0C-A3F9-EEBBAF97E75C}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{F176ED36-3845-4CB0-812A-445F5B28AB77}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{F1F77E08-9E30-4775-A957-D5EC664FDFE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646F9F2-2260-4D0E-B6CB-2EAE3BB54F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A96036-0FC8-480C-80C4-4F455F985F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1463,8 +1464,13 @@
       <sheetName val="M&amp;A Scope"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="3">
+          <cell r="AW3" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
         <row r="91">
           <cell r="CV91">
             <v>157083.74609071898</v>
@@ -1476,12 +1482,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1500,21 +1506,32 @@
       <sheetName val="Markets | Product Lines"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
+        <row r="1">
+          <cell r="AW1" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
         <row r="79">
           <cell r="CZ79">
-            <v>150202.47076447392</v>
+            <v>144251.00357966521</v>
           </cell>
         </row>
         <row r="81">
           <cell r="CZ81">
-            <v>393.0314492324602</v>
+            <v>377.45837802531167</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2">
+        <row r="217">
+          <cell r="I217" t="str">
+            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1551,12 +1568,12 @@
       <sheetData sheetId="1">
         <row r="59">
           <cell r="BU59">
-            <v>11330.622118397967</v>
+            <v>11386.549358367949</v>
           </cell>
         </row>
         <row r="61">
           <cell r="BU61">
-            <v>293.53943311911831</v>
+            <v>294.98832534631993</v>
           </cell>
         </row>
       </sheetData>
@@ -1601,6 +1618,54 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Table Formatting"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="80">
+          <cell r="BM80">
+            <v>99800.209268189748</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="BM82">
+            <v>77.814318325537428</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="BM84">
+            <v>-9.3706984328704501E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="241">
+          <cell r="K241">
+            <v>1.1871030936368737E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1924,7 +1989,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2371,15 +2436,15 @@
       </c>
       <c r="J8" s="4">
         <f>[2]Model!$CZ$79</f>
-        <v>150202.47076447392</v>
+        <v>144251.00357966521</v>
       </c>
       <c r="K8" s="2">
         <f>[2]Model!$CZ$81</f>
-        <v>393.0314492324602</v>
+        <v>377.45837802531167</v>
       </c>
       <c r="L8" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>1.5349012458240274E-2</v>
+        <v>-2.488212553847502E-2</v>
       </c>
       <c r="M8" s="1">
         <v>0.94</v>
@@ -2492,13 +2557,25 @@
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
         <v>130410</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="4">
+        <f>[5]Model!$BM$80</f>
+        <v>99800.209268189748</v>
+      </c>
+      <c r="K10" s="2">
+        <f>[5]Model!$BM$82</f>
+        <v>77.814318325537428</v>
+      </c>
+      <c r="L10" s="7">
+        <f>[5]Model!$BM$84</f>
+        <v>-9.3706984328704501E-2</v>
+      </c>
       <c r="M10" s="1">
         <v>0.83</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <f>'[5]Notes | Quant Analysis'!$K$241</f>
+        <v>1.1871030936368737E-2</v>
+      </c>
       <c r="O10" s="12">
         <v>5.46</v>
       </c>
@@ -3635,15 +3712,15 @@
       </c>
       <c r="J31" s="2">
         <f>[3]Model!$BU$59</f>
-        <v>11330.622118397967</v>
+        <v>11386.549358367949</v>
       </c>
       <c r="K31" s="2">
         <f>[3]Model!$BU$61</f>
-        <v>293.53943311911831</v>
+        <v>294.98832534631993</v>
       </c>
       <c r="L31" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-1.3478631762331328E-2</v>
+        <v>-8.6092241763739974E-3</v>
       </c>
       <c r="M31" s="1">
         <v>0.53</v>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A96036-0FC8-480C-80C4-4F455F985F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BBD052-36AB-4ABF-BC12-43D7B29CBABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33045" yWindow="4845" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1466,11 +1466,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="3">
-          <cell r="AW3" t="str">
-            <v>Q1 2020</v>
-          </cell>
-        </row>
         <row r="91">
           <cell r="CV91">
             <v>157083.74609071898</v>
@@ -1506,13 +1501,8 @@
       <sheetName val="Markets | Product Lines"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="1">
-          <cell r="AW1" t="str">
-            <v>Q1 2020</v>
-          </cell>
-        </row>
         <row r="79">
           <cell r="CZ79">
             <v>144251.00357966521</v>
@@ -1524,20 +1514,62 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="217">
-          <cell r="I217" t="str">
-            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="Product Lines"/>
+      <sheetName val="Management"/>
+      <sheetName val="Table Formatting"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="80">
+          <cell r="BM80">
+            <v>99800.209268189748</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="BM82">
+            <v>77.814318325537428</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="BM84">
+            <v>-9.3706984328704501E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="241">
+          <cell r="K241">
+            <v>1.1871030936368737E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1592,7 +1624,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1604,68 +1636,20 @@
       <sheetName val="Notes | Quant Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="53">
           <cell r="BZ53">
-            <v>7562.2393729299547</v>
+            <v>7824.088971661793</v>
           </cell>
         </row>
         <row r="55">
           <cell r="BZ55">
-            <v>55.058167986384817</v>
+            <v>56.964608457675965</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Notes | Quant Analysis"/>
-      <sheetName val="Product Lines"/>
-      <sheetName val="Management"/>
-      <sheetName val="Table Formatting"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="80">
-          <cell r="BM80">
-            <v>99800.209268189748</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="BM82">
-            <v>77.814318325537428</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="BM84">
-            <v>-9.3706984328704501E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="241">
-          <cell r="K241">
-            <v>1.1871030936368737E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1686,19 +1670,19 @@
       <calculatedColumnFormula>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{4AE80DC9-D77A-4BB9-9257-B12D5FD56AD8}" name="Cash ($M)" dataDxfId="16">
-      <calculatedColumnFormula>'[3]Main | Overview'!$C$8</calculatedColumnFormula>
+      <calculatedColumnFormula>'[4]Main | Overview'!$C$8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{6E413DC7-C096-40D4-880F-FE61A084FF48}" name="Debt ($M)" dataDxfId="15">
-      <calculatedColumnFormula>'[3]Main | Overview'!$C$9</calculatedColumnFormula>
+      <calculatedColumnFormula>'[4]Main | Overview'!$C$9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2C2A1268-8397-4EDA-9878-D9F98F133978}" name="EV ($M)" dataDxfId="14">
       <calculatedColumnFormula>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{E93BEDB1-F272-47C9-9E50-19D60ABCF6E3}" name="NPV" dataDxfId="13">
-      <calculatedColumnFormula>[3]Model!$BU$59</calculatedColumnFormula>
+      <calculatedColumnFormula>[4]Model!$BU$59</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4B18EB84-1D1D-418D-B73C-711F922F8784}" name="FV" dataDxfId="12">
-      <calculatedColumnFormula>[3]Model!$BU$61</calculatedColumnFormula>
+      <calculatedColumnFormula>[4]Model!$BU$61</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{9D67D94D-652A-4AFC-B773-D060115B3352}" name="Upside" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</calculatedColumnFormula>
@@ -1989,7 +1973,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2099,14 +2083,14 @@
         <v>72</v>
       </c>
       <c r="D3" s="13">
-        <v>154.18</v>
+        <v>153.02000000000001</v>
       </c>
       <c r="E3" s="3">
         <v>2406</v>
       </c>
       <c r="F3" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>370957.08</v>
+        <v>368166.12000000005</v>
       </c>
       <c r="G3" s="4">
         <v>38781</v>
@@ -2116,7 +2100,7 @@
       </c>
       <c r="I3" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>380076.08</v>
+        <v>377285.12000000005</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2133,11 +2117,11 @@
       </c>
       <c r="Q3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>14.531573986804903</v>
+        <v>14.422243166823753</v>
       </c>
       <c r="R3" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>13.890090090090091</v>
+        <v>13.785585585585586</v>
       </c>
       <c r="S3" s="18">
         <v>138100</v>
@@ -2166,30 +2150,32 @@
         <v>69</v>
       </c>
       <c r="D4" s="13">
-        <v>131.99</v>
+        <v>133.36000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="F4" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>228870.66</v>
+        <v>231913.04000000004</v>
       </c>
       <c r="G4" s="4">
-        <v>7967</v>
+        <f>6532+312</f>
+        <v>6844</v>
       </c>
       <c r="H4" s="4">
-        <v>14125</v>
+        <f>12736+506</f>
+        <v>13242</v>
       </c>
       <c r="I4" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>235028.66</v>
+        <v>238311.04000000004</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="7"/>
       <c r="M4" s="13">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="12">
@@ -2200,17 +2186,17 @@
       </c>
       <c r="Q4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>25.579457364341085</v>
+        <v>25.844961240310081</v>
       </c>
       <c r="R4" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>23.237676056338032</v>
+        <v>23.478873239436624</v>
       </c>
       <c r="S4" s="18">
         <v>114000</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>170</v>
+      <c r="T4" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>83</v>
@@ -2230,20 +2216,20 @@
         <v>149</v>
       </c>
       <c r="D5" s="13">
-        <v>559.41</v>
+        <v>546.58000000000004</v>
       </c>
       <c r="E5" s="3">
         <v>356.6</v>
       </c>
       <c r="F5" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>199485.606</v>
+        <v>194910.42800000001</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>199485.606</v>
+        <v>194910.42800000001</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2270,140 +2256,140 @@
     </row>
     <row r="6" spans="1:32" ht="13.9" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D6" s="13">
-        <v>434.54</v>
+        <v>104.6</v>
       </c>
       <c r="E6" s="3">
-        <v>380.8</v>
+        <v>1476</v>
       </c>
       <c r="F6" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>165472.83200000002</v>
+        <v>154389.6</v>
       </c>
       <c r="G6" s="4">
-        <v>5947</v>
+        <v>2502</v>
       </c>
       <c r="H6" s="4">
-        <v>34189</v>
+        <v>10885</v>
       </c>
       <c r="I6" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>193714.83200000002</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>162772.6</v>
+      </c>
+      <c r="J6" s="4">
+        <f>[1]Model!$CV$91</f>
+        <v>157083.74609071898</v>
+      </c>
+      <c r="K6" s="2">
+        <f>[1]Model!$CV$93</f>
+        <v>106.44131169506456</v>
+      </c>
+      <c r="L6" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>1.760336228551207E-2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.38E-2</v>
+      </c>
       <c r="O6" s="12">
-        <v>22.31</v>
+        <v>3.44</v>
       </c>
       <c r="P6" s="12">
-        <v>24.69</v>
+        <v>3.92</v>
       </c>
       <c r="Q6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>19.477364410578218</v>
+        <v>30.406976744186046</v>
       </c>
       <c r="R6" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>17.599837991089508</v>
+        <v>26.683673469387752</v>
       </c>
       <c r="S6" s="18">
-        <v>125000</v>
+        <v>53000</v>
       </c>
       <c r="T6" s="10" t="s">
         <v>193</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="W6" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:32" ht="13.9" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D7" s="13">
-        <v>102.8</v>
+        <v>403.4</v>
       </c>
       <c r="E7" s="3">
-        <v>1476</v>
+        <v>380.8</v>
       </c>
       <c r="F7" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>151732.79999999999</v>
+        <v>153614.72</v>
       </c>
       <c r="G7" s="4">
-        <v>2502</v>
+        <v>5947</v>
       </c>
       <c r="H7" s="4">
-        <v>10885</v>
+        <v>34189</v>
       </c>
       <c r="I7" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>160115.79999999999</v>
-      </c>
-      <c r="J7" s="4">
-        <f>[1]Model!$CV$91</f>
-        <v>157083.74609071898</v>
-      </c>
-      <c r="K7" s="2">
-        <f>[1]Model!$CV$93</f>
-        <v>106.44131169506456</v>
-      </c>
-      <c r="L7" s="7">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>3.5421319990900368E-2</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0.73</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1.38E-2</v>
-      </c>
+        <v>181856.72</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="12">
-        <v>3.44</v>
+        <v>22.31</v>
       </c>
       <c r="P7" s="12">
-        <v>3.92</v>
+        <v>24.69</v>
       </c>
       <c r="Q7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>29.883720930232556</v>
+        <v>18.081577767817123</v>
       </c>
       <c r="R7" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>26.224489795918366</v>
+        <v>16.338598622924259</v>
       </c>
       <c r="S7" s="18">
-        <v>53000</v>
+        <v>125000</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>193</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:32" ht="13.9" customHeight="1">
       <c r="B8" s="6" t="s">
@@ -2413,14 +2399,14 @@
         <v>160</v>
       </c>
       <c r="D8" s="13">
-        <v>387.09</v>
+        <v>381.76</v>
       </c>
       <c r="E8" s="3">
         <v>381.4</v>
       </c>
       <c r="F8" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>147636.12599999999</v>
+        <v>145603.264</v>
       </c>
       <c r="G8" s="4">
         <f>3850+834</f>
@@ -2432,7 +2418,7 @@
       </c>
       <c r="I8" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>158436.12599999999</v>
+        <v>156403.264</v>
       </c>
       <c r="J8" s="4">
         <f>[2]Model!$CZ$79</f>
@@ -2444,7 +2430,7 @@
       </c>
       <c r="L8" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-2.488212553847502E-2</v>
+        <v>-1.126786979958172E-2</v>
       </c>
       <c r="M8" s="1">
         <v>0.94</v>
@@ -2460,11 +2446,11 @@
       </c>
       <c r="Q8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>28.801339285714285</v>
+        <v>28.404761904761905</v>
       </c>
       <c r="R8" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>26.031607262945528</v>
+        <v>25.673167451244115</v>
       </c>
       <c r="S8" s="18">
         <v>53000</v>
@@ -2490,20 +2476,20 @@
         <v>137</v>
       </c>
       <c r="D9" s="13">
-        <v>201.01</v>
+        <v>186.9</v>
       </c>
       <c r="E9" s="3">
         <v>719.2</v>
       </c>
       <c r="F9" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>144566.39199999999</v>
+        <v>134418.48000000001</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>144566.39199999999</v>
+        <v>134418.48000000001</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2558,22 +2544,22 @@
         <v>130410</v>
       </c>
       <c r="J10" s="4">
-        <f>[5]Model!$BM$80</f>
+        <f>[3]Model!$BM$80</f>
         <v>99800.209268189748</v>
       </c>
       <c r="K10" s="2">
-        <f>[5]Model!$BM$82</f>
+        <f>[3]Model!$BM$82</f>
         <v>77.814318325537428</v>
       </c>
       <c r="L10" s="7">
-        <f>[5]Model!$BM$84</f>
+        <f>[3]Model!$BM$84</f>
         <v>-9.3706984328704501E-2</v>
       </c>
       <c r="M10" s="1">
         <v>0.83</v>
       </c>
       <c r="N10" s="7">
-        <f>'[5]Notes | Quant Analysis'!$K$241</f>
+        <f>'[3]Notes | Quant Analysis'!$K$241</f>
         <v>1.1871030936368737E-2</v>
       </c>
       <c r="O10" s="12">
@@ -2614,14 +2600,14 @@
         <v>133</v>
       </c>
       <c r="D11" s="13">
-        <v>175.84</v>
+        <v>173.25</v>
       </c>
       <c r="E11" s="3">
         <v>289.10000000000002</v>
       </c>
       <c r="F11" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>50835.344000000005</v>
+        <v>50086.575000000004</v>
       </c>
       <c r="G11" s="4">
         <v>763</v>
@@ -2631,7 +2617,7 @@
       </c>
       <c r="I11" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>69342.344000000012</v>
+        <v>68593.575000000012</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2648,11 +2634,11 @@
       </c>
       <c r="Q11" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.356992269852425</v>
+        <v>12.174982431482782</v>
       </c>
       <c r="R11" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.77762893503014</v>
+        <v>11.604152712659076</v>
       </c>
       <c r="S11" s="18">
         <v>70000</v>
@@ -2669,114 +2655,115 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:32" ht="13.9" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>50</v>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D12" s="13">
-        <v>95.49</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E12" s="3">
-        <v>494.6</v>
+        <v>586.6</v>
       </c>
       <c r="F12" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>47229.353999999999</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>44640.259999999995</v>
+      </c>
+      <c r="G12" s="4">
+        <f>3141+757.9</f>
+        <v>3898.9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>598</v>
+      </c>
       <c r="I12" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>47229.353999999999</v>
+        <v>41339.359999999993</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="7"/>
+      <c r="M12" s="1">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="10"/>
+      <c r="O12" s="12">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="P12" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>30.809716599190278</v>
+      </c>
+      <c r="R12" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>27.672727272727272</v>
+      </c>
+      <c r="S12" s="18">
+        <v>15800</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="U12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W12" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="13.9" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>15</v>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D13" s="13">
-        <v>74.67</v>
+        <v>90.1</v>
       </c>
       <c r="E13" s="3">
-        <v>588</v>
+        <v>494.6</v>
       </c>
       <c r="F13" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>43905.96</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3976</v>
-      </c>
-      <c r="H13" s="4">
-        <v>598</v>
-      </c>
+        <v>44563.46</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>40527.96</v>
+        <v>44563.46</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="1">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="12">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="P13" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>30.23076923076923</v>
-      </c>
-      <c r="R13" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>27.152727272727272</v>
-      </c>
-      <c r="S13" s="18">
-        <v>15800</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="10"/>
       <c r="U13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:32" ht="13.9" customHeight="1">
       <c r="B14" s="6" t="s">
@@ -2786,14 +2773,14 @@
         <v>145</v>
       </c>
       <c r="D14" s="13">
-        <v>506.02</v>
+        <v>500.7</v>
       </c>
       <c r="E14" s="3">
         <v>81.599999999999994</v>
       </c>
       <c r="F14" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>41291.231999999996</v>
+        <v>40857.119999999995</v>
       </c>
       <c r="G14" s="4">
         <v>163.97</v>
@@ -2803,7 +2790,7 @@
       </c>
       <c r="I14" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>41747.991999999998</v>
+        <v>41313.879999999997</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2820,11 +2807,11 @@
       </c>
       <c r="Q14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>41.716405605935691</v>
+        <v>41.277823577906013</v>
       </c>
       <c r="R14" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>37.152716593245231</v>
+        <v>36.762114537444937</v>
       </c>
       <c r="S14" s="18">
         <v>70000</v>
@@ -2848,20 +2835,20 @@
         <v>158</v>
       </c>
       <c r="D15" s="13">
-        <v>247.66</v>
+        <v>245.78</v>
       </c>
       <c r="E15" s="3">
         <v>146.9</v>
       </c>
       <c r="F15" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>36381.254000000001</v>
+        <v>36105.082000000002</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>36381.254000000001</v>
+        <v>36105.082000000002</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2888,26 +2875,26 @@
     </row>
     <row r="16" spans="1:32" ht="13.9" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D16" s="13">
-        <v>73.98</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3">
-        <v>457</v>
+        <v>390.7</v>
       </c>
       <c r="F16" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>33808.86</v>
+        <v>33209.5</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>33808.86</v>
+        <v>33209.5</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2928,32 +2915,32 @@
         <v>85</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="2:23" ht="13.9" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="D17" s="13">
-        <v>84.53</v>
+        <v>70.25</v>
       </c>
       <c r="E17" s="3">
-        <v>390.7</v>
+        <v>457</v>
       </c>
       <c r="F17" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>33025.870999999999</v>
+        <v>32104.25</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>33025.870999999999</v>
+        <v>32104.25</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2974,7 +2961,7 @@
         <v>85</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="W17" s="2"/>
     </row>
@@ -2986,20 +2973,20 @@
         <v>77</v>
       </c>
       <c r="D18" s="13">
-        <v>114.51</v>
+        <v>108.97</v>
       </c>
       <c r="E18" s="3">
         <v>285.2</v>
       </c>
       <c r="F18" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>32658.252</v>
+        <v>31078.243999999999</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>32658.252</v>
+        <v>31078.243999999999</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -3025,73 +3012,91 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B19" s="1" t="s">
-        <v>56</v>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D19" s="13">
-        <v>159.56</v>
+        <v>246.33</v>
       </c>
       <c r="E19" s="3">
-        <v>176.1</v>
+        <v>98.9</v>
       </c>
       <c r="F19" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>28098.516</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <v>24362.037000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <f>1937.9+172.2</f>
+        <v>2110.1</v>
+      </c>
+      <c r="H19" s="4">
+        <f>80+2156.2</f>
+        <v>2236.1999999999998</v>
+      </c>
       <c r="I19" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>28098.516</v>
+        <v>24488.137000000006</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="7"/>
+      <c r="M19" s="1">
+        <v>0.96</v>
+      </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="10"/>
+      <c r="O19" s="12">
+        <v>9.1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>9.99</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>27.069230769230771</v>
+      </c>
+      <c r="R19" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>24.657657657657658</v>
+      </c>
+      <c r="S19" s="18">
+        <v>18000</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="U19" s="1" t="s">
         <v>104</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="2:23" ht="13.9" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13">
-        <v>1167.3</v>
+        <v>138</v>
       </c>
       <c r="E20" s="3">
-        <v>20.9</v>
+        <v>176.1</v>
       </c>
       <c r="F20" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>24396.569999999996</v>
+        <v>24301.8</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>24396.569999999996</v>
+        <v>24301.8</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3109,35 +3114,35 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="2:23" ht="13.9" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D21" s="13">
-        <v>25.04</v>
+        <v>1134</v>
       </c>
       <c r="E21" s="3">
-        <v>925</v>
+        <v>20.9</v>
       </c>
       <c r="F21" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23162</v>
+        <v>23700.6</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23162</v>
+        <v>23700.6</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3155,140 +3160,123 @@
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="2:23" ht="13.9" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13">
-        <v>233.6</v>
+        <v>324.5</v>
       </c>
       <c r="E22" s="3">
-        <v>98.9</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="F22" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>23103.040000000001</v>
+        <v>22844.800000000003</v>
       </c>
       <c r="G22" s="4">
-        <f>1937.9+172.2</f>
-        <v>2110.1</v>
+        <v>1283</v>
       </c>
       <c r="H22" s="4">
-        <f>80+2156.2</f>
-        <v>2236.1999999999998</v>
+        <f>83.1+1612</f>
+        <v>1695.1</v>
       </c>
       <c r="I22" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>23229.140000000003</v>
+        <v>23256.9</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="7"/>
       <c r="M22" s="1">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="12">
-        <v>9.1</v>
+        <v>4.21</v>
       </c>
       <c r="P22" s="12">
-        <v>9.99</v>
+        <v>5.23</v>
       </c>
       <c r="Q22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>25.670329670329672</v>
+        <v>77.078384798099762</v>
       </c>
       <c r="R22" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>23.383383383383382</v>
+        <v>62.045889101338425</v>
       </c>
       <c r="S22" s="18">
-        <v>18000</v>
+        <v>3900</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>193</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B23" s="6" t="s">
-        <v>34</v>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D23" s="13">
-        <v>315.51</v>
+        <v>23.43</v>
       </c>
       <c r="E23" s="3">
-        <v>70.2</v>
+        <v>925</v>
       </c>
       <c r="F23" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>22148.802</v>
-      </c>
-      <c r="G23" s="4">
-        <v>953.4</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1379.9</v>
-      </c>
+        <v>21672.75</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>22575.302</v>
+        <v>21672.75</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="1">
-        <v>1.27</v>
-      </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="12">
-        <v>4.21</v>
-      </c>
-      <c r="P23" s="12">
-        <v>5.23</v>
-      </c>
-      <c r="Q23" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>74.942992874109265</v>
-      </c>
-      <c r="R23" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>60.326959847036321</v>
-      </c>
-      <c r="S23" s="18">
-        <v>3900</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="10"/>
       <c r="U23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W23" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="24" spans="2:23" ht="13.9" customHeight="1">
       <c r="B24" s="6" t="s">
@@ -3298,14 +3286,14 @@
         <v>174</v>
       </c>
       <c r="D24" s="13">
-        <v>97.89</v>
+        <v>93.75</v>
       </c>
       <c r="E24" s="3">
         <v>199.1</v>
       </c>
       <c r="F24" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>19489.899000000001</v>
+        <v>18665.625</v>
       </c>
       <c r="G24" s="4">
         <v>1384.5</v>
@@ -3316,7 +3304,7 @@
       </c>
       <c r="I24" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>25281.699000000001</v>
+        <v>24457.424999999999</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3333,11 +3321,11 @@
       </c>
       <c r="Q24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.100123609394315</v>
+        <v>11.588380716934488</v>
       </c>
       <c r="R24" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.435747663551401</v>
+        <v>10.952102803738317</v>
       </c>
       <c r="S24" s="18">
         <v>17000</v>
@@ -3361,14 +3349,14 @@
         <v>138</v>
       </c>
       <c r="D25" s="13">
-        <v>83.8</v>
+        <v>79.95</v>
       </c>
       <c r="E25" s="3">
         <v>199.6</v>
       </c>
       <c r="F25" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16726.48</v>
+        <v>15958.02</v>
       </c>
       <c r="G25" s="4">
         <v>100.9</v>
@@ -3378,7 +3366,7 @@
       </c>
       <c r="I25" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>19165.48</v>
+        <v>18397.02</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3395,11 +3383,11 @@
       </c>
       <c r="Q25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>21.002506265664159</v>
+        <v>20.037593984962406</v>
       </c>
       <c r="R25" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>18.916478555304742</v>
+        <v>18.04740406320542</v>
       </c>
       <c r="S25" s="18">
         <v>16000</v>
@@ -3423,14 +3411,14 @@
         <v>201</v>
       </c>
       <c r="D26" s="13">
-        <v>31.37</v>
+        <v>30.7</v>
       </c>
       <c r="E26" s="3">
         <v>510.9</v>
       </c>
       <c r="F26" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>16026.932999999999</v>
+        <v>15684.63</v>
       </c>
       <c r="G26" s="4">
         <f>1679</f>
@@ -3442,7 +3430,7 @@
       </c>
       <c r="I26" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>27473.932999999997</v>
+        <v>27131.629999999997</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3459,11 +3447,11 @@
       </c>
       <c r="Q26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>12.498007968127492</v>
+        <v>12.231075697211157</v>
       </c>
       <c r="R26" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>11.533088235294118</v>
+        <v>11.286764705882351</v>
       </c>
       <c r="S26" s="18">
         <v>38000</v>
@@ -3487,20 +3475,20 @@
         <v>173</v>
       </c>
       <c r="D27" s="13">
-        <v>217.96</v>
+        <v>212.49</v>
       </c>
       <c r="E27" s="3">
         <v>72.3</v>
       </c>
       <c r="F27" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>15758.508</v>
+        <v>15363.027</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>15758.508</v>
+        <v>15363.027</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3527,26 +3515,26 @@
     </row>
     <row r="28" spans="2:23" ht="13.9" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D28" s="13">
-        <v>190.44</v>
+        <v>55.59</v>
       </c>
       <c r="E28" s="3">
-        <v>73.8</v>
+        <v>231.7</v>
       </c>
       <c r="F28" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>14054.472</v>
+        <v>12880.203</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>14054.472</v>
+        <v>12880.203</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3564,35 +3552,35 @@
       </c>
       <c r="T28" s="10"/>
       <c r="U28" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="2:23" ht="13.9" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D29" s="13">
-        <v>58.86</v>
+        <v>171.99</v>
       </c>
       <c r="E29" s="3">
-        <v>231.7</v>
+        <v>73.8</v>
       </c>
       <c r="F29" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>13637.861999999999</v>
+        <v>12692.862000000001</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>13637.861999999999</v>
+        <v>12692.862000000001</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3610,10 +3598,10 @@
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="W29" s="2"/>
     </row>
@@ -3625,14 +3613,14 @@
         <v>203</v>
       </c>
       <c r="D30" s="13">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3">
         <v>172.8</v>
       </c>
       <c r="F30" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>12960</v>
+        <v>12614.400000000001</v>
       </c>
       <c r="G30" s="4">
         <v>762</v>
@@ -3643,7 +3631,7 @@
       </c>
       <c r="I30" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>20208</v>
+        <v>19862.400000000001</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3660,11 +3648,11 @@
       </c>
       <c r="Q30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>13.537906137184116</v>
+        <v>13.176895306859207</v>
       </c>
       <c r="R30" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>12.458471760797343</v>
+        <v>12.126245847176081</v>
       </c>
       <c r="S30" s="18">
         <v>22000</v>
@@ -3683,123 +3671,123 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B31" s="6" t="s">
-        <v>62</v>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D31" s="13">
-        <v>297.55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3">
-        <v>38.6</v>
+        <v>185.6</v>
       </c>
       <c r="F31" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>11485.43</v>
-      </c>
-      <c r="G31" s="4">
-        <v>379</v>
-      </c>
-      <c r="H31" s="4">
-        <f>'[3]Main | Overview'!$C$9</f>
-        <v>0</v>
-      </c>
+        <v>10579.199999999999</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>11106.43</v>
-      </c>
-      <c r="J31" s="2">
-        <f>[3]Model!$BU$59</f>
-        <v>11386.549358367949</v>
-      </c>
-      <c r="K31" s="2">
-        <f>[3]Model!$BU$61</f>
-        <v>294.98832534631993</v>
-      </c>
-      <c r="L31" s="7">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-8.6092241763739974E-3</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O31" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="P31" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="Q31" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>78.30263157894737</v>
-      </c>
-      <c r="R31" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>57.221153846153847</v>
-      </c>
-      <c r="S31" s="18">
-        <v>4500</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>193</v>
-      </c>
+        <v>10579.199999999999</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="10"/>
       <c r="U31" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="W31" s="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B32" s="1" t="s">
-        <v>36</v>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D32" s="13">
-        <v>53.5</v>
+        <v>270.39</v>
       </c>
       <c r="E32" s="3">
-        <v>185.6</v>
+        <v>38.6</v>
       </c>
       <c r="F32" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9929.6</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+        <v>10437.054</v>
+      </c>
+      <c r="G32" s="4">
+        <v>379</v>
+      </c>
+      <c r="H32" s="4">
+        <f>'[4]Main | Overview'!$C$9</f>
+        <v>0</v>
+      </c>
       <c r="I32" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9929.6</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="10"/>
+        <v>10058.054</v>
+      </c>
+      <c r="J32" s="2">
+        <f>[4]Model!$BU$59</f>
+        <v>11386.549358367949</v>
+      </c>
+      <c r="K32" s="2">
+        <f>[4]Model!$BU$61</f>
+        <v>294.98832534631993</v>
+      </c>
+      <c r="L32" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>9.0973502519767546E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="O32" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="P32" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="Q32" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>71.155263157894737</v>
+      </c>
+      <c r="R32" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>51.998076923076916</v>
+      </c>
+      <c r="S32" s="18">
+        <v>4500</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="U32" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="W32" s="2"/>
     </row>
     <row r="33" spans="2:23" ht="13.9" customHeight="1">
       <c r="B33" s="1" t="s">
@@ -3809,20 +3797,20 @@
         <v>37</v>
       </c>
       <c r="D33" s="13">
-        <v>43.2</v>
+        <v>42.32</v>
       </c>
       <c r="E33" s="3">
         <v>216.1</v>
       </c>
       <c r="F33" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>9335.52</v>
+        <v>9145.351999999999</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>9335.52</v>
+        <v>9145.351999999999</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3849,26 +3837,26 @@
     </row>
     <row r="34" spans="2:23" ht="13.9" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D34" s="13">
-        <v>13.1</v>
+        <v>72.08</v>
       </c>
       <c r="E34" s="3">
-        <v>680.8</v>
+        <v>124.2</v>
       </c>
       <c r="F34" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8918.48</v>
+        <v>8952.3359999999993</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8918.48</v>
+        <v>8952.3359999999993</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3886,35 +3874,35 @@
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="2:23" ht="13.9" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="D35" s="13">
-        <v>163.38999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="E35" s="3">
-        <v>53.6</v>
+        <v>680.8</v>
       </c>
       <c r="F35" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8757.7039999999997</v>
+        <v>8578.08</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8757.7039999999997</v>
+        <v>8578.08</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3932,128 +3920,127 @@
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B36" s="1" t="s">
-        <v>40</v>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D36" s="13">
-        <v>69.12</v>
+        <v>59.29</v>
       </c>
       <c r="E36" s="3">
-        <v>124.2</v>
+        <v>135.38</v>
       </c>
       <c r="F36" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8584.7040000000015</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+        <v>8026.6801999999998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>461</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
       <c r="I36" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>8584.7040000000015</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="7"/>
+        <v>7565.6801999999998</v>
+      </c>
+      <c r="J36" s="2">
+        <f>[5]Model!$BZ$53</f>
+        <v>7824.088971661793</v>
+      </c>
+      <c r="K36" s="2">
+        <f>[5]Model!$BZ$55</f>
+        <v>56.964608457675965</v>
+      </c>
+      <c r="L36" s="7">
+        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
+        <v>-3.9220636571496659E-2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1.29</v>
+      </c>
       <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="13" t="e">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="10"/>
+      <c r="O36" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="P36" s="12">
+        <v>3.92</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>17.23546511627907</v>
+      </c>
+      <c r="R36" s="13">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>15.125</v>
+      </c>
+      <c r="S36" s="18">
+        <v>5300</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="U36" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="2:23" ht="13.9" customHeight="1">
-      <c r="B37" s="6" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D37" s="13">
-        <v>58.6</v>
+        <v>149.38999999999999</v>
       </c>
       <c r="E37" s="3">
-        <v>137.4</v>
+        <v>53.6</v>
       </c>
       <c r="F37" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>8051.64</v>
-      </c>
-      <c r="G37" s="4">
-        <v>890.1</v>
-      </c>
-      <c r="H37" s="4">
-        <f>443.4</f>
-        <v>443.4</v>
-      </c>
+        <v>8007.3039999999992</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7604.94</v>
-      </c>
-      <c r="J37" s="2">
-        <f>[4]Model!$BZ$53</f>
-        <v>7562.2393729299547</v>
-      </c>
-      <c r="K37" s="2">
-        <f>[4]Model!$BZ$55</f>
-        <v>55.058167986384817</v>
-      </c>
-      <c r="L37" s="7">
-        <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>-6.0440819344969032E-2</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1.29</v>
-      </c>
+        <v>8007.3039999999992</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="12">
-        <v>3.44</v>
-      </c>
-      <c r="P37" s="12">
-        <v>3.92</v>
-      </c>
-      <c r="Q37" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>17.034883720930232</v>
-      </c>
-      <c r="R37" s="13">
-        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>14.948979591836736</v>
-      </c>
-      <c r="S37" s="18">
-        <v>5300</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="13" t="e">
+        <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="10"/>
       <c r="U37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W37" s="2"/>
     </row>
@@ -4065,14 +4052,14 @@
         <v>162</v>
       </c>
       <c r="D38" s="13">
-        <v>129.69999999999999</v>
+        <v>121.81</v>
       </c>
       <c r="E38" s="3">
         <v>46.3</v>
       </c>
       <c r="F38" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>6005.1099999999988</v>
+        <v>5639.8029999999999</v>
       </c>
       <c r="G38" s="4">
         <v>243.2</v>
@@ -4083,7 +4070,7 @@
       </c>
       <c r="I38" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>7520.3099999999995</v>
+        <v>7155.0030000000006</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -4100,11 +4087,11 @@
       </c>
       <c r="Q38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>9.7008227374719525</v>
+        <v>9.1106955871353783</v>
       </c>
       <c r="R38" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>9.2510699001426531</v>
+        <v>8.6883024251069898</v>
       </c>
       <c r="S38" s="18">
         <v>14100</v>
@@ -4180,20 +4167,20 @@
         <v>146</v>
       </c>
       <c r="D40" s="13">
-        <v>152.01</v>
+        <v>146.09</v>
       </c>
       <c r="E40" s="3">
         <v>29.7</v>
       </c>
       <c r="F40" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4514.6969999999992</v>
+        <v>4338.8729999999996</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4514.6969999999992</v>
+        <v>4338.8729999999996</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4226,20 +4213,20 @@
         <v>148</v>
       </c>
       <c r="D41" s="13">
-        <v>138.18</v>
+        <v>137.29</v>
       </c>
       <c r="E41" s="3">
         <v>31.4</v>
       </c>
       <c r="F41" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>4338.8519999999999</v>
+        <v>4310.9059999999999</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>4338.8519999999999</v>
+        <v>4310.9059999999999</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -4317,20 +4304,20 @@
         <v>164</v>
       </c>
       <c r="D43" s="13">
-        <v>16.690000000000001</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="E43" s="3">
         <v>198.8</v>
       </c>
       <c r="F43" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>3317.9720000000007</v>
+        <v>3210.62</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>3317.9720000000007</v>
+        <v>3210.62</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -4363,20 +4350,20 @@
         <v>150</v>
       </c>
       <c r="D44" s="13">
-        <v>44.8</v>
+        <v>42.94</v>
       </c>
       <c r="E44" s="3">
         <v>54.3</v>
       </c>
       <c r="F44" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>2432.64</v>
+        <v>2331.6419999999998</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2432.64</v>
+        <v>2331.6419999999998</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -4409,20 +4396,20 @@
         <v>154</v>
       </c>
       <c r="D45" s="13">
-        <v>18.420000000000002</v>
+        <v>17.75</v>
       </c>
       <c r="E45" s="3">
         <v>108.5</v>
       </c>
       <c r="F45" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1998.5700000000002</v>
+        <v>1925.875</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1998.5700000000002</v>
+        <v>1925.875</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4449,154 +4436,154 @@
     </row>
     <row r="46" spans="2:23" ht="13.9" customHeight="1">
       <c r="B46" s="6" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="D46" s="13">
-        <v>82.95</v>
+        <v>57.68</v>
       </c>
       <c r="E46" s="3">
-        <v>22.56</v>
+        <v>30.97</v>
       </c>
       <c r="F46" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1871.3519999999999</v>
+        <v>1786.3496</v>
       </c>
       <c r="G46" s="4">
-        <f>25.61+274.112</f>
-        <v>299.72200000000004</v>
+        <v>0.35485</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
+        <f>0.714+891.443</f>
+        <v>892.15700000000004</v>
       </c>
       <c r="I46" s="4">
-        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1871.3519999999999</v>
+        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
+        <v>2678.15175</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="7"/>
       <c r="M46" s="1">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="12">
-        <v>2.15</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P46" s="12">
-        <v>2.38</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="Q46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>38.581395348837212</v>
+        <v>13.138952164009112</v>
       </c>
       <c r="R46" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>34.852941176470594</v>
-      </c>
-      <c r="S46" s="1">
-        <v>651</v>
+        <v>12.194503171247357</v>
+      </c>
+      <c r="S46" s="18">
+        <v>3900</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="W46" s="2"/>
     </row>
     <row r="47" spans="2:23" ht="13.9" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D47" s="13">
-        <v>59.9</v>
+        <v>77.83</v>
       </c>
       <c r="E47" s="3">
-        <v>30.97</v>
+        <v>22.56</v>
       </c>
       <c r="F47" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1855.1029999999998</v>
+        <v>1755.8447999999999</v>
       </c>
       <c r="G47" s="4">
-        <v>0.35485</v>
+        <f>25.61+274.112</f>
+        <v>299.72200000000004</v>
       </c>
       <c r="H47" s="4">
-        <f>0.714+891.443</f>
-        <v>892.15700000000004</v>
+        <v>0</v>
       </c>
       <c r="I47" s="4">
-        <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>2746.90515</v>
+        <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
+        <v>1755.8447999999999</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="7"/>
       <c r="M47" s="1">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="12">
-        <v>4.3899999999999997</v>
+        <v>2.15</v>
       </c>
       <c r="P47" s="12">
-        <v>4.7300000000000004</v>
+        <v>2.38</v>
       </c>
       <c r="Q47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates]]</f>
-        <v>13.644646924829157</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="R47" s="13">
         <f>Table4[[#This Row],[Price]]/Table4[[#This Row],[FY Earnings Estimates (2-years)]]</f>
-        <v>12.663847780126849</v>
-      </c>
-      <c r="S47" s="18">
-        <v>3900</v>
+        <v>32.701680672268907</v>
+      </c>
+      <c r="S47" s="1">
+        <v>651</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W47" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="48" spans="2:23" ht="13.9" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D48" s="13">
-        <v>23.9</v>
+        <v>33.26</v>
       </c>
       <c r="E48" s="3">
-        <v>66.3</v>
+        <v>48.9</v>
       </c>
       <c r="F48" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1584.57</v>
+        <v>1626.4139999999998</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1584.57</v>
+        <v>1626.4139999999998</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4617,32 +4604,32 @@
         <v>85</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="2:23" ht="13.9" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D49" s="13">
-        <v>31.81</v>
+        <v>22.88</v>
       </c>
       <c r="E49" s="3">
-        <v>48.9</v>
+        <v>66.3</v>
       </c>
       <c r="F49" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1555.5089999999998</v>
+        <v>1516.944</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1555.5089999999998</v>
+        <v>1516.944</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4663,7 +4650,7 @@
         <v>85</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="W49" s="2"/>
     </row>
@@ -4717,26 +4704,26 @@
     </row>
     <row r="51" spans="2:23" ht="13.9" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D51" s="13">
-        <v>7.34</v>
+        <v>36.5</v>
       </c>
       <c r="E51" s="3">
-        <v>146.9</v>
+        <v>28.8</v>
       </c>
       <c r="F51" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>1078.2460000000001</v>
+        <v>1051.2</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>1078.2460000000001</v>
+        <v>1051.2</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4754,35 +4741,35 @@
       </c>
       <c r="T51" s="10"/>
       <c r="U51" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="2:23" ht="13.9" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D52" s="13">
-        <v>33.409999999999997</v>
+        <v>6.9</v>
       </c>
       <c r="E52" s="3">
-        <v>28.8</v>
+        <v>146.9</v>
       </c>
       <c r="F52" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>962.20799999999997</v>
+        <v>1013.6100000000001</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>962.20799999999997</v>
+        <v>1013.6100000000001</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4800,10 +4787,10 @@
       </c>
       <c r="T52" s="10"/>
       <c r="U52" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="W52" s="2"/>
     </row>
@@ -4815,20 +4802,20 @@
         <v>156</v>
       </c>
       <c r="D53" s="13">
-        <v>16.64</v>
+        <v>18.89</v>
       </c>
       <c r="E53" s="3">
         <v>52.9</v>
       </c>
       <c r="F53" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>880.25599999999997</v>
+        <v>999.28099999999995</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>880.25599999999997</v>
+        <v>999.28099999999995</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4861,20 +4848,20 @@
         <v>140</v>
       </c>
       <c r="D54" s="13">
-        <v>12.18</v>
+        <v>12.36</v>
       </c>
       <c r="E54" s="3">
         <v>57.7</v>
       </c>
       <c r="F54" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>702.78600000000006</v>
+        <v>713.17200000000003</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>702.78600000000006</v>
+        <v>713.17200000000003</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4907,20 +4894,20 @@
         <v>155</v>
       </c>
       <c r="D55" s="13">
-        <v>12.51</v>
+        <v>11.51</v>
       </c>
       <c r="E55" s="3">
         <v>38.5</v>
       </c>
       <c r="F55" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>481.63499999999999</v>
+        <v>443.13499999999999</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>481.63499999999999</v>
+        <v>443.13499999999999</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4953,20 +4940,20 @@
         <v>80</v>
       </c>
       <c r="D56" s="13">
-        <v>9.6199999999999992</v>
+        <v>9.57</v>
       </c>
       <c r="E56" s="3">
         <v>40.4</v>
       </c>
       <c r="F56" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>388.64799999999997</v>
+        <v>386.62799999999999</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>388.64799999999997</v>
+        <v>386.62799999999999</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4995,26 +4982,26 @@
     </row>
     <row r="57" spans="2:23" ht="13.9" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D57" s="13">
-        <v>1.35</v>
+        <v>10.26</v>
       </c>
       <c r="E57" s="3">
-        <v>185.8</v>
+        <v>23.9</v>
       </c>
       <c r="F57" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>250.83000000000004</v>
+        <v>245.21399999999997</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>250.83000000000004</v>
+        <v>245.21399999999997</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5035,31 +5022,32 @@
         <v>85</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="W57" s="2"/>
     </row>
     <row r="58" spans="2:23" ht="13.9" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D58" s="13">
-        <v>9.7200000000000006</v>
+        <v>4.2</v>
       </c>
       <c r="E58" s="3">
-        <v>23.9</v>
+        <v>55.7</v>
       </c>
       <c r="F58" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>232.30799999999999</v>
+        <v>233.94000000000003</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>232.30799999999999</v>
+        <v>233.94000000000003</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5080,32 +5068,32 @@
         <v>85</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="2:23" ht="13.9" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D59" s="13">
-        <v>4.1500000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="E59" s="3">
-        <v>55.7</v>
+        <v>185.8</v>
       </c>
       <c r="F59" s="4">
         <f>Table4[[#This Row],[Price]]*Table4[[#This Row],[Share Count ]]</f>
-        <v>231.15500000000003</v>
+        <v>232.25</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4">
         <f>Table4[[#This Row],[MC ($M)]]-Table4[[#This Row],[Cash ($M)]]+Table4[[#This Row],[Debt ($M)]]</f>
-        <v>231.15500000000003</v>
+        <v>232.25</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5126,9 +5114,8 @@
         <v>85</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W59" s="2"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="60" spans="2:23" ht="13.9" customHeight="1">
       <c r="E60" s="3"/>
@@ -5276,26 +5263,26 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{426F8A59-D0D3-4B06-A2F3-2FB148EA51C0}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{2D379C01-EB9C-4FC6-AE11-39C65785E045}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{BD385BD7-588E-48EF-B301-D5FB5D51DCEB}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{D832F864-5E10-448D-B5E6-A41747F24422}"/>
     <hyperlink ref="B39" r:id="rId5" xr:uid="{00568186-9937-41F0-A573-81F07A883F35}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{005180B3-25D4-4F2E-A649-03376394116A}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{B49CD5A4-3D0B-4623-BA9B-93008A472BB3}"/>
     <hyperlink ref="A1" r:id="rId8" xr:uid="{14843B6A-D4ED-40CD-92DC-B778E9D772AF}"/>
     <hyperlink ref="B4" r:id="rId9" xr:uid="{23F477A8-940C-46FE-A25D-976F6B17DD02}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
-    <hyperlink ref="B46" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
-    <hyperlink ref="B47" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{38E70E01-0597-4952-9867-18D192DA9C54}"/>
+    <hyperlink ref="B47" r:id="rId11" xr:uid="{9C77A58C-9158-42FD-B668-10E6EF96443A}"/>
+    <hyperlink ref="B46" r:id="rId12" xr:uid="{1F425790-89FE-4AA0-AB7A-5EFD8C3CED33}"/>
     <hyperlink ref="B24" r:id="rId13" xr:uid="{BF852F1D-304C-4230-82DC-C6786B6DA415}"/>
-    <hyperlink ref="B22" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{010BEE70-37BC-42D7-9E9B-4E02BCD3B475}"/>
     <hyperlink ref="B26" r:id="rId15" xr:uid="{439B3A6C-7B0C-4471-8D6A-FDA8B07D1783}"/>
     <hyperlink ref="B11" r:id="rId16" xr:uid="{D8AA4EA0-DDCB-4730-8E82-0963ABB4BEE7}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{FAD18B57-5BC9-4E9F-825B-5996C227DF7F}"/>
     <hyperlink ref="B25" r:id="rId18" xr:uid="{CA84541E-7421-47DE-B081-587FF4477B48}"/>
     <hyperlink ref="B14" r:id="rId19" xr:uid="{A0E07B2D-8641-47EF-A293-8759FE82D9C5}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{BEEC5C98-5FDE-4FC8-965F-3E188368E7A1}"/>
+    <hyperlink ref="B7" r:id="rId20" xr:uid="{BEEC5C98-5FDE-4FC8-965F-3E188368E7A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId21"/>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BBD052-36AB-4ABF-BC12-43D7B29CBABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485BC19-7026-43A5-94DF-9A0EF6D75B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33045" yWindow="4845" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/000 Med-Devices Master List 000.xlsx
+++ b/000 Med-Devices Master List 000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4485BC19-7026-43A5-94DF-9A0EF6D75B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98313568-FB50-4C6C-8CF7-839A0FA96260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33045" yWindow="4845" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1457,23 +1457,28 @@
       <sheetName val="Main | Overview"/>
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
+      <sheetName val="M&amp;A Scope"/>
+      <sheetName val="Management"/>
+      <sheetName val="Markets | Product Lines"/>
       <sheetName val="Debt Schedule"/>
-      <sheetName val="Markets | Product Lines"/>
-      <sheetName val="Management"/>
       <sheetName val="Clinical Trial Channel"/>
-      <sheetName val="M&amp;A Scope"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="3">
+          <cell r="AW3" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
         <row r="91">
           <cell r="CV91">
-            <v>157083.74609071898</v>
+            <v>152974.92838306003</v>
           </cell>
         </row>
         <row r="93">
           <cell r="CV93">
-            <v>106.44131169506456</v>
+            <v>103.65714110324184</v>
           </cell>
         </row>
       </sheetData>
@@ -1501,8 +1506,13 @@
       <sheetName val="Markets | Product Lines"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
+        <row r="1">
+          <cell r="AW1" t="str">
+            <v>Q1 2020</v>
+          </cell>
+        </row>
         <row r="79">
           <cell r="CZ79">
             <v>144251.00357966521</v>
@@ -1514,8 +1524,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2">
+        <row r="217">
+          <cell r="I217" t="str">
+            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1540,17 +1556,17 @@
       <sheetData sheetId="1">
         <row r="80">
           <cell r="BM80">
-            <v>99800.209268189748</v>
+            <v>102218.27544540638</v>
           </cell>
         </row>
         <row r="82">
           <cell r="BM82">
-            <v>77.814318325537428</v>
+            <v>79.699686829530393</v>
           </cell>
         </row>
         <row r="84">
           <cell r="BM84">
-            <v>-9.3706984328704501E-2</v>
+            <v>-7.1748348130323825E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1580,6 +1596,7 @@
       <sheetName val="Model"/>
       <sheetName val="Notes | Quant Analysis"/>
       <sheetName val="Portfolio | Product Lines"/>
+      <sheetName val="IPO"/>
       <sheetName val="Management"/>
       <sheetName val="Clinical Trail Channel"/>
       <sheetName val="Peripheral Thrombectomy"/>
@@ -1597,28 +1614,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="59">
-          <cell r="BU59">
-            <v>11386.549358367949</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="BU61">
-            <v>294.98832534631993</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1636,7 +1643,7 @@
       <sheetName val="Notes | Quant Analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="53">
           <cell r="BZ53">
@@ -1649,7 +1656,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1972,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2283,15 +2290,15 @@
       </c>
       <c r="J6" s="4">
         <f>[1]Model!$CV$91</f>
-        <v>157083.74609071898</v>
+        <v>152974.92838306003</v>
       </c>
       <c r="K6" s="2">
         <f>[1]Model!$CV$93</f>
-        <v>106.44131169506456</v>
+        <v>103.65714110324184</v>
       </c>
       <c r="L6" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>1.760336228551207E-2</v>
+        <v>-9.0139473877453025E-3</v>
       </c>
       <c r="M6" s="13">
         <v>0.73</v>
@@ -2545,15 +2552,15 @@
       </c>
       <c r="J10" s="4">
         <f>[3]Model!$BM$80</f>
-        <v>99800.209268189748</v>
+        <v>102218.27544540638</v>
       </c>
       <c r="K10" s="2">
         <f>[3]Model!$BM$82</f>
-        <v>77.814318325537428</v>
+        <v>79.699686829530393</v>
       </c>
       <c r="L10" s="7">
         <f>[3]Model!$BM$84</f>
-        <v>-9.3706984328704501E-2</v>
+        <v>-7.1748348130323825E-2</v>
       </c>
       <c r="M10" s="1">
         <v>0.83</v>
@@ -3745,15 +3752,15 @@
       </c>
       <c r="J32" s="2">
         <f>[4]Model!$BU$59</f>
-        <v>11386.549358367949</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
         <f>[4]Model!$BU$61</f>
-        <v>294.98832534631993</v>
+        <v>0</v>
       </c>
       <c r="L32" s="7">
         <f>Table4[[#This Row],[FV]]/Table4[[#This Row],[Price]]-1</f>
-        <v>9.0973502519767546E-2</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="1">
         <v>0.53</v>
